--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="253">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -320,10 +320,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>功能清單設定作業</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>common_parameter</t>
   </si>
   <si>
@@ -753,16 +749,6 @@
   </si>
   <si>
     <t>APF0202MM1_Grid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色代號必須存在於APF apf_roleprofile 資料表中，若不存在則出現錯誤訊息，
-訊息內容請參考APF訊息表APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色名稱必須存在於APF Core_Role資料表中，若不存在則出現錯誤訊息，
-訊息內容請參考APF訊息表APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1160,6 +1146,72 @@
       <t>檢查時機：按下『儲存』鈕時</t>
     </r>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lblROLE_NO_NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O/I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0202MA1_Query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：各欄位輸入後</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>於第三階功能右後方，配有對應的功能權限名稱(查詢、新增、維護、刪除、匯出)，及前設有checkbox，供權限管理者點選設定各功能對應的權限(可複選)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.勾選上層功能則下層所有功能均全數選取。EX:勾選第一層角色設定功能清單，則第二層角色主檔、角色功能對應及第三層角色維護、及其所有權限將一併被勾選。
+2.勾選下層功能，則其上層功能至第一層功能清單均被選取。EX:勾選第三層角色維護的查詢權限，第三層角色維護、第二層角色主檔、第一層角色設定將一併勾選。
+3.如功能勾選，則權限必須要勾選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>如功能勾選，則權限必須要勾選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>權限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0202_角色功能清單設定 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色功能清單設定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1188,52 +1240,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>lblROLE_NO_NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>O/I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0202MA1_Query
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：各欄位輸入後</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>於第三階功能右後方，配有對應的功能權限名稱(查詢、新增、維護、刪除、匯出)，及前設有checkbox，供權限管理者點選設定各功能對應的權限(可複選)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.勾選上層功能則下層所有功能均全數選取。EX:勾選第一層角色設定功能清單，則第二層角色主檔、角色功能對應及第三層角色維護、及其所有權限將一併被勾選。
-2.勾選下層功能，則其上層功能至第一層功能清單均被選取。EX:勾選第三層角色維護的查詢權限，第三層角色維護、第二層角色主檔、第一層角色設定將一併勾選。
-3.如功能勾選，則權限必須要勾選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>如功能勾選，則權限必須要勾選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>權限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 ，若選擇是，則進行儲存所選的角色及其對應的功能和權限，若選擇否，則不做任何動作。
 儲存成功:
 1.原畫面顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
@@ -1242,20 +1248,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">RA006_APF0202_角色功能清單設定 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1815,7 +1809,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2438,6 +2432,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3467,9 +3479,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3504,13 +3516,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>86</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3566,7 +3578,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9466984" cy="584489"/>
+          <a:ext cx="9458325" cy="597958"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -5530,16 +5542,7 @@
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>角色功能清</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1050">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>單設定作業</a:t>
+              <a:t>角色功能清單設定作業</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1050">
               <a:effectLst/>
@@ -6214,7 +6217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -6229,7 +6232,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="108" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -6265,19 +6268,19 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="109"/>
       <c r="B5" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="79" t="s">
@@ -6286,10 +6289,10 @@
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="110" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B6" s="104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="105"/>
       <c r="D6" s="106" t="s">
@@ -6299,7 +6302,7 @@
     <row r="7" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A7" s="111"/>
       <c r="B7" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="107" t="s">
@@ -6308,10 +6311,10 @@
     </row>
     <row r="8" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A8" s="109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="79" t="s">
         <v>54</v>
@@ -6320,7 +6323,7 @@
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="109"/>
       <c r="B9" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="79" t="s">
@@ -6625,8 +6628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6683,7 +6686,7 @@
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="136" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="B6" s="137"/>
       <c r="C6" s="137"/>
@@ -6717,7 +6720,7 @@
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="130"/>
       <c r="C8" s="130"/>
@@ -6753,14 +6756,14 @@
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
       <c r="A10" s="133" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="130"/>
       <c r="C10" s="130"/>
       <c r="D10" s="130"/>
       <c r="E10" s="130"/>
       <c r="F10" s="120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="120"/>
       <c r="H10" s="120"/>
@@ -6789,7 +6792,7 @@
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
       <c r="A12" s="133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="130"/>
       <c r="C12" s="130"/>
@@ -6823,14 +6826,14 @@
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
       <c r="A14" s="133" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="130"/>
       <c r="C14" s="130"/>
       <c r="D14" s="130"/>
       <c r="E14" s="130"/>
       <c r="F14" s="120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="120"/>
       <c r="H14" s="120"/>
@@ -6857,7 +6860,7 @@
     </row>
     <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
       <c r="A16" s="129" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B16" s="130"/>
       <c r="C16" s="130"/>
@@ -6931,7 +6934,8 @@
     <row r="59" s="76" customFormat="1" ht="14.25"/>
     <row r="60" s="76" customFormat="1" ht="14.25"/>
     <row r="61" s="76" customFormat="1" ht="14.25"/>
-    <row r="68" spans="1:12" ht="21.75" customHeight="1">
+    <row r="67" spans="1:12" ht="27.75" customHeight="1"/>
+    <row r="68" spans="1:12" ht="23.25" customHeight="1">
       <c r="A68" s="122" t="s">
         <v>38</v>
       </c>
@@ -6987,7 +6991,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="29897" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -6997,9 +7001,9 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7018,13 +7022,13 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>68</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>86</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7043,8 +7047,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7186,9 +7190,9 @@
       <c r="I9" s="180"/>
       <c r="J9" s="181"/>
     </row>
-    <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="174" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="117"/>
       <c r="C10" s="117"/>
@@ -7202,7 +7206,7 @@
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="182" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="120"/>
       <c r="C11" s="120"/>
@@ -7216,7 +7220,7 @@
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="174" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="117"/>
       <c r="C12" s="117"/>
@@ -7230,7 +7234,7 @@
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="182" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="120"/>
       <c r="C13" s="120"/>
@@ -7244,7 +7248,7 @@
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="174" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="117"/>
       <c r="C14" s="117"/>
@@ -7258,7 +7262,7 @@
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="156" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B15" s="160"/>
       <c r="C15" s="160"/>
@@ -7272,13 +7276,13 @@
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="C16" s="150" t="s">
         <v>131</v>
-      </c>
-      <c r="C16" s="150" t="s">
-        <v>132</v>
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="151"/>
@@ -7293,10 +7297,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="159" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="154"/>
@@ -7311,10 +7315,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="159" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="154"/>
@@ -7329,10 +7333,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="159" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -7356,7 +7360,7 @@
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="160"/>
       <c r="C21" s="160"/>
@@ -7370,13 +7374,13 @@
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="150" t="s">
         <v>131</v>
-      </c>
-      <c r="C22" s="150" t="s">
-        <v>132</v>
       </c>
       <c r="D22" s="151"/>
       <c r="E22" s="151"/>
@@ -7391,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="154"/>
       <c r="E23" s="154"/>
@@ -7409,10 +7413,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="154"/>
       <c r="E24" s="154"/>
@@ -7427,10 +7431,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="154"/>
       <c r="E25" s="154"/>
@@ -7445,10 +7449,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="154"/>
       <c r="E26" s="154"/>
@@ -7472,7 +7476,7 @@
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="183"/>
       <c r="C28" s="183"/>
@@ -7486,7 +7490,7 @@
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
       <c r="A29" s="156" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B29" s="160"/>
       <c r="C29" s="160"/>
@@ -7500,13 +7504,13 @@
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="150" t="s">
         <v>131</v>
-      </c>
-      <c r="C30" s="150" t="s">
-        <v>132</v>
       </c>
       <c r="D30" s="151"/>
       <c r="E30" s="151"/>
@@ -7516,51 +7520,49 @@
       <c r="I30" s="151"/>
       <c r="J30" s="152"/>
     </row>
-    <row r="31" spans="1:10" s="52" customFormat="1" ht="32.25" customHeight="1">
+    <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="159" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
-    </row>
-    <row r="32" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
+        <v>132</v>
+      </c>
+      <c r="C31" s="221" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="222"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="222"/>
+      <c r="G31" s="222"/>
+      <c r="H31" s="222"/>
+      <c r="I31" s="222"/>
+      <c r="J31" s="223"/>
+    </row>
+    <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="159" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="155"/>
+        <v>133</v>
+      </c>
+      <c r="C32" s="224"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="225"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="226"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="154"/>
       <c r="E33" s="154"/>
@@ -7584,7 +7586,7 @@
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
       <c r="A35" s="156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="157"/>
       <c r="C35" s="157"/>
@@ -7598,13 +7600,13 @@
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="150" t="s">
         <v>131</v>
-      </c>
-      <c r="C36" s="150" t="s">
-        <v>132</v>
       </c>
       <c r="D36" s="151"/>
       <c r="E36" s="151"/>
@@ -7619,10 +7621,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" s="154"/>
       <c r="E37" s="154"/>
@@ -7637,10 +7639,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" s="154"/>
       <c r="E38" s="154"/>
@@ -7655,10 +7657,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="154"/>
       <c r="E39" s="154"/>
@@ -7673,10 +7675,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" s="154"/>
       <c r="E40" s="154"/>
@@ -7700,7 +7702,7 @@
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="143"/>
       <c r="C42" s="143"/>
@@ -7714,19 +7716,19 @@
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="D43" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="E43" s="145" t="s">
         <v>144</v>
-      </c>
-      <c r="E43" s="145" t="s">
-        <v>145</v>
       </c>
       <c r="F43" s="146"/>
       <c r="G43" s="146"/>
@@ -7741,12 +7743,12 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
       <c r="E44" s="193" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F44" s="130"/>
       <c r="G44" s="130"/>
@@ -7768,7 +7770,7 @@
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
       <c r="A46" s="168" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B46" s="169"/>
       <c r="C46" s="169"/>
@@ -7785,14 +7787,14 @@
         <v>1</v>
       </c>
       <c r="B47" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="89" t="s">
         <v>146</v>
-      </c>
-      <c r="C47" s="89" t="s">
-        <v>147</v>
       </c>
       <c r="D47" s="93"/>
       <c r="E47" s="193" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F47" s="130"/>
       <c r="G47" s="130"/>
@@ -7805,14 +7807,14 @@
         <v>2</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="90"/>
       <c r="E48" s="165" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F48" s="166"/>
       <c r="G48" s="166"/>
@@ -7825,14 +7827,14 @@
         <v>3</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="91"/>
       <c r="E49" s="165" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F49" s="166"/>
       <c r="G49" s="166"/>
@@ -7854,7 +7856,7 @@
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
       <c r="A51" s="194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" s="195"/>
       <c r="C51" s="195"/>
@@ -7871,14 +7873,14 @@
         <v>1</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="93"/>
       <c r="E52" s="193" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F52" s="130"/>
       <c r="G52" s="130"/>
@@ -7891,14 +7893,14 @@
         <v>2</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="90"/>
       <c r="E53" s="139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F53" s="140"/>
       <c r="G53" s="140"/>
@@ -7911,14 +7913,14 @@
         <v>3</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" s="90"/>
       <c r="E54" s="139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F54" s="140"/>
       <c r="G54" s="140"/>
@@ -7931,14 +7933,14 @@
         <v>4</v>
       </c>
       <c r="B55" s="85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C55" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="90"/>
       <c r="E55" s="139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F55" s="140"/>
       <c r="G55" s="140"/>
@@ -7951,14 +7953,14 @@
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D56" s="91"/>
       <c r="E56" s="165" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F56" s="120"/>
       <c r="G56" s="120"/>
@@ -7971,14 +7973,14 @@
         <v>2</v>
       </c>
       <c r="B57" s="85" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C57" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" s="90"/>
       <c r="E57" s="139" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F57" s="140"/>
       <c r="G57" s="140"/>
@@ -8000,7 +8002,7 @@
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="190" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B59" s="191"/>
       <c r="C59" s="191"/>
@@ -8014,14 +8016,14 @@
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" s="188" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" s="189"/>
       <c r="D60" s="165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E60" s="120"/>
       <c r="F60" s="120"/>
@@ -8092,7 +8094,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B66" s="69"/>
       <c r="C66" s="70"/>
@@ -8109,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C67" s="147"/>
       <c r="D67" s="120"/>
@@ -8125,7 +8127,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="162"/>
       <c r="D68" s="162"/>
@@ -8137,7 +8139,7 @@
       <c r="J68" s="162"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="64">
     <mergeCell ref="D65:J65"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="A64:J64"/>
@@ -8192,8 +8194,7 @@
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C31:J32"/>
     <mergeCell ref="E57:J57"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="E43:J43"/>
@@ -8225,7 +8226,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+      <selection activeCell="A6" sqref="A6:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8365,19 +8366,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>177</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>180</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -8386,10 +8387,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -8423,7 +8424,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="197" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="198"/>
       <c r="C10" s="198"/>
@@ -8437,19 +8438,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>187</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>190</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -8458,10 +8459,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>191</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>194</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -8472,26 +8473,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="D12" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="E12" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="F12" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="G12" s="42" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -8500,26 +8501,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="F13" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="G13" s="42" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -8528,34 +8529,34 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>86</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>87</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="46" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="197" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="198"/>
       <c r="C16" s="198"/>
@@ -8569,19 +8570,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>182</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>185</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -8590,10 +8591,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -8604,24 +8605,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="G18" s="42" t="s">
         <v>77</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>78</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -8630,24 +8631,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="G19" s="42" t="s">
         <v>84</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>85</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -8656,27 +8657,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="46" t="s">
         <v>88</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>89</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8684,27 +8685,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="80" t="s">
         <v>94</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>95</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>96</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>97</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8746,8 +8747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J9"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8903,7 +8904,7 @@
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
       <c r="A11" s="182" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B11" s="120"/>
       <c r="C11" s="120"/>
@@ -8959,7 +8960,7 @@
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="156" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B15" s="160"/>
       <c r="C15" s="160"/>
@@ -8973,13 +8974,13 @@
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>131</v>
-      </c>
       <c r="C16" s="150" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="151"/>
@@ -8994,10 +8995,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="159" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="154"/>
@@ -9012,10 +9013,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="159" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="154"/>
@@ -9030,10 +9031,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="159" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -9045,7 +9046,7 @@
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A20" s="156" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B20" s="160"/>
       <c r="C20" s="160"/>
@@ -9080,10 +9081,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="200" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D22" s="201"/>
       <c r="E22" s="201"/>
@@ -9098,7 +9099,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C23" s="201"/>
       <c r="D23" s="201"/>
@@ -9114,7 +9115,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C24" s="201"/>
       <c r="D24" s="201"/>
@@ -9130,7 +9131,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C25" s="201"/>
       <c r="D25" s="201"/>
@@ -9146,10 +9147,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D26" s="201"/>
       <c r="E26" s="201"/>
@@ -9187,7 +9188,7 @@
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A29" s="156" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B29" s="160"/>
       <c r="C29" s="160"/>
@@ -9201,13 +9202,13 @@
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>131</v>
-      </c>
       <c r="C30" s="150" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D30" s="151"/>
       <c r="E30" s="151"/>
@@ -9222,10 +9223,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C31" s="159" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D31" s="154"/>
       <c r="E31" s="154"/>
@@ -9240,10 +9241,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="159" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D32" s="154"/>
       <c r="E32" s="154"/>
@@ -9258,10 +9259,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C33" s="213" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D33" s="214"/>
       <c r="E33" s="214"/>
@@ -9273,7 +9274,7 @@
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A34" s="156" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B34" s="160"/>
       <c r="C34" s="160"/>
@@ -9308,10 +9309,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="159" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D36" s="202"/>
       <c r="E36" s="202"/>
@@ -9326,10 +9327,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C37" s="159" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D37" s="202"/>
       <c r="E37" s="202"/>
@@ -9344,10 +9345,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C38" s="159" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D38" s="202"/>
       <c r="E38" s="202"/>
@@ -9362,10 +9363,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C39" s="159" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D39" s="202"/>
       <c r="E39" s="202"/>
@@ -9380,10 +9381,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C40" s="159" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D40" s="202"/>
       <c r="E40" s="202"/>
@@ -9448,12 +9449,12 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
       <c r="E44" s="193" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F44" s="130"/>
       <c r="G44" s="130"/>
@@ -9463,7 +9464,7 @@
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
       <c r="A45" s="168" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B45" s="204"/>
       <c r="C45" s="204"/>
@@ -9480,14 +9481,14 @@
         <v>1</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C46" s="89" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="93"/>
       <c r="E46" s="193" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F46" s="130"/>
       <c r="G46" s="130"/>
@@ -9507,7 +9508,7 @@
       </c>
       <c r="D47" s="93"/>
       <c r="E47" s="193" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F47" s="130"/>
       <c r="G47" s="130"/>
@@ -9529,7 +9530,7 @@
     </row>
     <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="168" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B49" s="169"/>
       <c r="C49" s="169"/>
@@ -9548,14 +9549,14 @@
         <v>1</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D50" s="93"/>
       <c r="E50" s="193" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F50" s="130"/>
       <c r="G50" s="130"/>
@@ -9568,14 +9569,14 @@
         <v>2</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D51" s="90"/>
       <c r="E51" s="139" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F51" s="140"/>
       <c r="G51" s="140"/>
@@ -9588,14 +9589,14 @@
         <v>3</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D52" s="91"/>
       <c r="E52" s="165" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F52" s="120"/>
       <c r="G52" s="120"/>
@@ -9969,19 +9970,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>187</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>190</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -9990,10 +9991,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>191</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>194</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -10027,7 +10028,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="197" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B10" s="198"/>
       <c r="C10" s="198"/>
@@ -10041,19 +10042,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>187</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>190</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -10062,10 +10063,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>191</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>194</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -10076,27 +10077,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -10104,27 +10105,27 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="219" t="s">
         <v>101</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="219" t="s">
-        <v>102</v>
       </c>
       <c r="G13" s="220"/>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -10132,32 +10133,32 @@
         <v>3</v>
       </c>
       <c r="B14" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="D14" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="E14" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="F14" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="G14" s="77" t="s">
         <v>108</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>109</v>
       </c>
       <c r="H14" s="80"/>
       <c r="I14" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J14" s="95"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="197" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B16" s="198"/>
       <c r="C16" s="198"/>
@@ -10171,19 +10172,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>187</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>190</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -10192,10 +10193,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="39" t="s">
         <v>191</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>194</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -10206,27 +10207,27 @@
         <v>1</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29.25" customHeight="1">
@@ -10234,27 +10235,27 @@
         <v>2</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F19" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>111</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>112</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J19" s="216" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" customHeight="1">
@@ -10262,24 +10263,24 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F20" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="77" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J20" s="217"/>
     </row>
@@ -10288,24 +10289,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J21" s="218"/>
     </row>
@@ -10314,27 +10315,27 @@
         <v>5</v>
       </c>
       <c r="B22" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>115</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>116</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="G22" s="77" t="s">
         <v>118</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>119</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="249">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -823,46 +823,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI控制項代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>對應Table Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI控制項代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>對應Table Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1104,14 +1064,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.前畫面:APF0202MM1
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能新增/修改/權限
-1.3 如是角色來源是選擇預定角色或職稱角色，此二角色所含的功能及權限，已事先於其他系統定義好，於APF 中，僅能查詢，
-    所以APF0202MA1_Grid的相關 checkbox, button均是反灰 disable。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">APF0202MA1_Grid
 </t>
@@ -1183,10 +1135,6 @@
     <t>1.勾選上層功能則下層所有功能均全數選取。EX:勾選第一層角色設定功能清單，則第二層角色主檔、角色功能對應及第三層角色維護、及其所有權限將一併被勾選。
 2.勾選下層功能，則其上層功能至第一層功能清單均被選取。EX:勾選第三層角色維護的查詢權限，第三層角色維護、第二層角色主檔、第一層角色設定將一併勾選。
 3.如功能勾選，則權限必須要勾選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>如功能勾選，則權限必須要勾選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1214,32 +1162,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>如角色功能清單點選已設定，而尚未儲存即點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>訊息內容請參考APF訊息表 APF_NO 47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，若選擇是，則取消頁面已做的的設定，再以導頁方式開啟APF0202MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
-如已點選角色功能清單設定，且已儲存，點選回上一頁按鈕則導頁方式開啟APF0202MM1，並帶回原先的查詢條件。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 ，若選擇是，則進行儲存所選的角色及其對應的功能和權限，若選擇否，則不做任何動作。
 儲存成功:
 1.原畫面顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
@@ -1248,7 +1170,48 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>1.前畫面:APF0202MM1
+1.1 SESSION內容:
+1.2 成立條件:該使用者擁有此功能新增/修改/權限
+1.3 如是角色來源是選擇職稱角色，此角色所含的功能及權限，已事先於其他系統定義好，於APF 中，僅能查詢，
+    所以APF0202MA1_Grid的相關 checkbox, button均是反灰 disable。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>對應Table Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如功能勾選，則權限必須要勾選，可複選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>如角色功能清單點選已設定，而尚未儲存即點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消頁面已做的的設定，再以導頁方式開啟APF0202MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
+如已點選角色功能清單設定，且已儲存，點選回上一頁按鈕則導頁方式開啟APF0202MM1，並帶回原先的查詢條件。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1259,7 +1222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1449,13 +1412,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -2076,7 +2032,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2253,14 +2209,32 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2432,24 +2406,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3480,8 +3436,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>333375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6232,7 +6188,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="108" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -6289,7 +6245,7 @@
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="110" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B6" s="104" t="s">
         <v>121</v>
@@ -6628,7 +6584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
@@ -6686,7 +6642,7 @@
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="136" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B6" s="137"/>
       <c r="C6" s="137"/>
@@ -6860,7 +6816,7 @@
     </row>
     <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
       <c r="A16" s="129" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B16" s="130"/>
       <c r="C16" s="130"/>
@@ -7002,8 +6958,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>333375</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7047,8 +7003,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7078,7 +7034,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="163" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -7099,7 +7055,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="164"/>
+      <c r="K2" s="170"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -7112,7 +7068,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="164"/>
+      <c r="K3" s="170"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -7127,7 +7083,7 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="180" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="117"/>
@@ -7153,45 +7109,45 @@
       <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="175"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="175"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="178"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="179"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="181"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="187"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="180" t="s">
         <v>124</v>
       </c>
       <c r="B10" s="117"/>
@@ -7205,7 +7161,7 @@
       <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="188" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="120"/>
@@ -7219,7 +7175,7 @@
       <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="180" t="s">
         <v>126</v>
       </c>
       <c r="B12" s="117"/>
@@ -7233,7 +7189,7 @@
       <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="182" t="s">
+      <c r="A13" s="188" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="120"/>
@@ -7247,7 +7203,7 @@
       <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="180" t="s">
         <v>128</v>
       </c>
       <c r="B14" s="117"/>
@@ -7262,17 +7218,17 @@
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="156" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161"/>
+        <v>223</v>
+      </c>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -7299,8 +7255,8 @@
       <c r="B17" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="159" t="s">
-        <v>231</v>
+      <c r="C17" s="167" t="s">
+        <v>221</v>
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="154"/>
@@ -7317,8 +7273,8 @@
       <c r="B18" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="159" t="s">
-        <v>232</v>
+      <c r="C18" s="167" t="s">
+        <v>222</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="154"/>
@@ -7335,8 +7291,8 @@
       <c r="B19" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="159" t="s">
-        <v>230</v>
+      <c r="C19" s="167" t="s">
+        <v>220</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -7362,15 +7318,15 @@
       <c r="A21" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="161"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
@@ -7463,44 +7419,44 @@
       <c r="J26" s="155"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="173"/>
+      <c r="A27" s="177"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="184"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="190"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
       <c r="A29" s="156" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
+        <v>223</v>
+      </c>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -7527,16 +7483,16 @@
       <c r="B31" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="221" t="s">
-        <v>252</v>
-      </c>
-      <c r="D31" s="222"/>
-      <c r="E31" s="222"/>
-      <c r="F31" s="222"/>
-      <c r="G31" s="222"/>
-      <c r="H31" s="222"/>
-      <c r="I31" s="222"/>
-      <c r="J31" s="223"/>
+      <c r="C31" s="159" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="161"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -7545,14 +7501,14 @@
       <c r="B32" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="224"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="225"/>
-      <c r="H32" s="225"/>
-      <c r="I32" s="225"/>
-      <c r="J32" s="226"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
@@ -7747,7 +7703,7 @@
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="193" t="s">
+      <c r="E44" s="199" t="s">
         <v>166</v>
       </c>
       <c r="F44" s="130"/>
@@ -7769,18 +7725,18 @@
       <c r="J45" s="149"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="168" t="s">
+      <c r="A46" s="174" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="169"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="169"/>
-      <c r="I46" s="169"/>
-      <c r="J46" s="170"/>
+      <c r="B46" s="175"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="176"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
@@ -7793,7 +7749,7 @@
         <v>146</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="193" t="s">
+      <c r="E47" s="199" t="s">
         <v>147</v>
       </c>
       <c r="F47" s="130"/>
@@ -7813,14 +7769,14 @@
         <v>146</v>
       </c>
       <c r="D48" s="90"/>
-      <c r="E48" s="165" t="s">
+      <c r="E48" s="171" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="166"/>
-      <c r="G48" s="166"/>
-      <c r="H48" s="166"/>
-      <c r="I48" s="166"/>
-      <c r="J48" s="167"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="173"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
@@ -7833,14 +7789,14 @@
         <v>146</v>
       </c>
       <c r="D49" s="91"/>
-      <c r="E49" s="165" t="s">
+      <c r="E49" s="171" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="167"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="173"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
@@ -7855,18 +7811,18 @@
       <c r="J50" s="149"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="194" t="s">
+      <c r="A51" s="200" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="195"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="195"/>
-      <c r="E51" s="195"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="195"/>
-      <c r="H51" s="195"/>
-      <c r="I51" s="195"/>
-      <c r="J51" s="196"/>
+      <c r="B51" s="201"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="201"/>
+      <c r="E51" s="201"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="201"/>
+      <c r="H51" s="201"/>
+      <c r="I51" s="201"/>
+      <c r="J51" s="202"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
@@ -7879,7 +7835,7 @@
         <v>146</v>
       </c>
       <c r="D52" s="93"/>
-      <c r="E52" s="193" t="s">
+      <c r="E52" s="199" t="s">
         <v>151</v>
       </c>
       <c r="F52" s="130"/>
@@ -7959,7 +7915,7 @@
         <v>146</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="165" t="s">
+      <c r="E56" s="171" t="s">
         <v>170</v>
       </c>
       <c r="F56" s="120"/>
@@ -7980,7 +7936,7 @@
       </c>
       <c r="D57" s="90"/>
       <c r="E57" s="139" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F57" s="140"/>
       <c r="G57" s="140"/>
@@ -8001,28 +7957,28 @@
       <c r="J58" s="149"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="190" t="s">
+      <c r="A59" s="196" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="191"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="191"/>
-      <c r="E59" s="191"/>
-      <c r="F59" s="191"/>
-      <c r="G59" s="191"/>
-      <c r="H59" s="191"/>
-      <c r="I59" s="191"/>
-      <c r="J59" s="192"/>
+      <c r="B59" s="197"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="197"/>
+      <c r="F59" s="197"/>
+      <c r="G59" s="197"/>
+      <c r="H59" s="197"/>
+      <c r="I59" s="197"/>
+      <c r="J59" s="198"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="188" t="s">
+      <c r="B60" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="189"/>
-      <c r="D60" s="165" t="s">
+      <c r="C60" s="195"/>
+      <c r="D60" s="171" t="s">
         <v>161</v>
       </c>
       <c r="E60" s="120"/>
@@ -8033,64 +7989,64 @@
       <c r="J60" s="121"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="185"/>
-      <c r="B61" s="186"/>
-      <c r="C61" s="186"/>
-      <c r="D61" s="186"/>
-      <c r="E61" s="186"/>
-      <c r="F61" s="186"/>
-      <c r="G61" s="186"/>
-      <c r="H61" s="186"/>
-      <c r="I61" s="186"/>
-      <c r="J61" s="187"/>
+      <c r="A61" s="191"/>
+      <c r="B61" s="192"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="192"/>
+      <c r="F61" s="192"/>
+      <c r="G61" s="192"/>
+      <c r="H61" s="192"/>
+      <c r="I61" s="192"/>
+      <c r="J61" s="193"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
       <c r="B62" s="147"/>
       <c r="C62" s="149"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="166"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="166"/>
-      <c r="H62" s="166"/>
-      <c r="I62" s="166"/>
-      <c r="J62" s="167"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="173"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
       <c r="B63" s="147"/>
       <c r="C63" s="149"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="166"/>
-      <c r="F63" s="166"/>
-      <c r="G63" s="166"/>
-      <c r="H63" s="166"/>
-      <c r="I63" s="166"/>
-      <c r="J63" s="167"/>
+      <c r="D63" s="171"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="172"/>
+      <c r="G63" s="172"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="172"/>
+      <c r="J63" s="173"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="185"/>
-      <c r="B64" s="186"/>
-      <c r="C64" s="186"/>
-      <c r="D64" s="186"/>
-      <c r="E64" s="186"/>
-      <c r="F64" s="186"/>
-      <c r="G64" s="186"/>
-      <c r="H64" s="186"/>
-      <c r="I64" s="186"/>
-      <c r="J64" s="187"/>
+      <c r="A64" s="191"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="192"/>
+      <c r="D64" s="192"/>
+      <c r="E64" s="192"/>
+      <c r="F64" s="192"/>
+      <c r="G64" s="192"/>
+      <c r="H64" s="192"/>
+      <c r="I64" s="192"/>
+      <c r="J64" s="193"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
       <c r="B65" s="147"/>
       <c r="C65" s="149"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="166"/>
-      <c r="F65" s="166"/>
-      <c r="G65" s="166"/>
-      <c r="H65" s="166"/>
-      <c r="I65" s="166"/>
-      <c r="J65" s="167"/>
+      <c r="D65" s="171"/>
+      <c r="E65" s="172"/>
+      <c r="F65" s="172"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="173"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
@@ -8129,14 +8085,14 @@
       <c r="B68" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="162"/>
-      <c r="D68" s="162"/>
-      <c r="E68" s="162"/>
-      <c r="F68" s="162"/>
-      <c r="G68" s="162"/>
-      <c r="H68" s="162"/>
-      <c r="I68" s="162"/>
-      <c r="J68" s="162"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="168"/>
+      <c r="F68" s="168"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="168"/>
+      <c r="I68" s="168"/>
+      <c r="J68" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -8226,7 +8182,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD21"/>
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8256,7 +8212,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="163" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -8283,7 +8239,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="164"/>
+      <c r="K2" s="170"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -8301,7 +8257,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="164"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -8345,18 +8301,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="205"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -8366,19 +8322,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -8387,10 +8343,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -8423,34 +8379,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -8459,10 +8415,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -8555,34 +8511,34 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="205"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -8591,10 +8547,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -8747,8 +8703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:J50"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8776,7 +8732,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="163" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -8797,7 +8753,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="164"/>
+      <c r="K2" s="170"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8810,7 +8766,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="164"/>
+      <c r="K3" s="170"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8825,7 +8781,7 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="180" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="117"/>
@@ -8851,45 +8807,45 @@
       <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="175"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="175"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="178"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="179"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="181"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="187"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="180" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="117"/>
@@ -8903,8 +8859,8 @@
       <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="182" t="s">
-        <v>236</v>
+      <c r="A11" s="188" t="s">
+        <v>239</v>
       </c>
       <c r="B11" s="120"/>
       <c r="C11" s="120"/>
@@ -8917,7 +8873,7 @@
       <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="180" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="117"/>
@@ -8931,7 +8887,7 @@
       <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="182" t="s">
+      <c r="A13" s="188" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="120"/>
@@ -8945,7 +8901,7 @@
       <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="180" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="117"/>
@@ -8960,17 +8916,17 @@
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="156" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161"/>
+        <v>231</v>
+      </c>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -8980,7 +8936,7 @@
         <v>130</v>
       </c>
       <c r="C16" s="150" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="151"/>
@@ -8995,10 +8951,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="159" t="s">
-        <v>227</v>
+        <v>179</v>
+      </c>
+      <c r="C17" s="167" t="s">
+        <v>217</v>
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="154"/>
@@ -9015,8 +8971,8 @@
       <c r="B18" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="159" t="s">
-        <v>209</v>
+      <c r="C18" s="167" t="s">
+        <v>199</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="154"/>
@@ -9033,8 +8989,8 @@
       <c r="B19" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="159" t="s">
-        <v>207</v>
+      <c r="C19" s="167" t="s">
+        <v>197</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="154"/>
@@ -9046,17 +9002,17 @@
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A20" s="156" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="161"/>
+        <v>226</v>
+      </c>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -9083,94 +9039,94 @@
       <c r="B22" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="200" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="201"/>
+      <c r="C22" s="206" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="207"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="201"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="201"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="201"/>
-      <c r="J23" s="201"/>
+        <v>198</v>
+      </c>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="207"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="201"/>
+        <v>185</v>
+      </c>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="55">
         <v>4</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="201"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="201"/>
+        <v>186</v>
+      </c>
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>5</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="201"/>
+        <v>247</v>
+      </c>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="207"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="208"/>
-      <c r="B27" s="209"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="209"/>
-      <c r="G27" s="209"/>
-      <c r="H27" s="209"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="210"/>
+      <c r="A27" s="214"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="216"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="142" t="s">
@@ -9188,17 +9144,17 @@
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A29" s="156" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
+        <v>196</v>
+      </c>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -9208,7 +9164,7 @@
         <v>130</v>
       </c>
       <c r="C30" s="150" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D30" s="151"/>
       <c r="E30" s="151"/>
@@ -9223,10 +9179,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="159" t="s">
-        <v>228</v>
+        <v>179</v>
+      </c>
+      <c r="C31" s="167" t="s">
+        <v>218</v>
       </c>
       <c r="D31" s="154"/>
       <c r="E31" s="154"/>
@@ -9243,8 +9199,8 @@
       <c r="B32" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="159" t="s">
-        <v>228</v>
+      <c r="C32" s="167" t="s">
+        <v>218</v>
       </c>
       <c r="D32" s="154"/>
       <c r="E32" s="154"/>
@@ -9259,32 +9215,32 @@
         <v>3</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" s="213" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="214"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="214"/>
-      <c r="I33" s="214"/>
-      <c r="J33" s="215"/>
+        <v>224</v>
+      </c>
+      <c r="C33" s="219" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="221"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A34" s="156" t="s">
-        <v>239</v>
-      </c>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="161"/>
+        <v>228</v>
+      </c>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
@@ -9311,114 +9267,114 @@
       <c r="B36" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="159" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="203"/>
+      <c r="C36" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="209"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="159" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="203"/>
+        <v>198</v>
+      </c>
+      <c r="C37" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="208"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="209"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="159" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="203"/>
+        <v>185</v>
+      </c>
+      <c r="C38" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="208"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="209"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>4</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="159" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="202"/>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="203"/>
+        <v>186</v>
+      </c>
+      <c r="C39" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="208"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="209"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="55">
         <v>5</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" s="159" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="203"/>
+        <v>235</v>
+      </c>
+      <c r="C40" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="208"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="209"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="171"/>
-      <c r="B41" s="211"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="211"/>
-      <c r="E41" s="211"/>
-      <c r="F41" s="211"/>
-      <c r="G41" s="211"/>
-      <c r="H41" s="211"/>
-      <c r="I41" s="211"/>
-      <c r="J41" s="212"/>
+      <c r="A41" s="177"/>
+      <c r="B41" s="217"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="217"/>
+      <c r="E41" s="217"/>
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="218"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="183"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="183"/>
-      <c r="I42" s="183"/>
-      <c r="J42" s="184"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="190"/>
     </row>
     <row r="43" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -9449,12 +9405,12 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="193" t="s">
-        <v>215</v>
+      <c r="E44" s="199" t="s">
+        <v>205</v>
       </c>
       <c r="F44" s="130"/>
       <c r="G44" s="130"/>
@@ -9463,32 +9419,32 @@
       <c r="J44" s="130"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A45" s="168" t="s">
-        <v>220</v>
-      </c>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="205"/>
+      <c r="A45" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="65">
         <v>1</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C46" s="89" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="93"/>
-      <c r="E46" s="193" t="s">
-        <v>218</v>
+      <c r="E46" s="199" t="s">
+        <v>208</v>
       </c>
       <c r="F46" s="130"/>
       <c r="G46" s="130"/>
@@ -9507,8 +9463,8 @@
         <v>50</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="193" t="s">
-        <v>217</v>
+      <c r="E47" s="199" t="s">
+        <v>207</v>
       </c>
       <c r="F47" s="130"/>
       <c r="G47" s="130"/>
@@ -9529,18 +9485,18 @@
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="168" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="169"/>
-      <c r="G49" s="169"/>
-      <c r="H49" s="169"/>
-      <c r="I49" s="169"/>
-      <c r="J49" s="170"/>
+      <c r="A49" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="175"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
+      <c r="J49" s="176"/>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
     </row>
@@ -9549,14 +9505,14 @@
         <v>1</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="193" t="s">
-        <v>250</v>
+      <c r="E50" s="199" t="s">
+        <v>248</v>
       </c>
       <c r="F50" s="130"/>
       <c r="G50" s="130"/>
@@ -9569,14 +9525,14 @@
         <v>2</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D51" s="90"/>
       <c r="E51" s="139" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F51" s="140"/>
       <c r="G51" s="140"/>
@@ -9589,14 +9545,14 @@
         <v>3</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D52" s="91"/>
-      <c r="E52" s="165" t="s">
-        <v>225</v>
+      <c r="E52" s="171" t="s">
+        <v>215</v>
       </c>
       <c r="F52" s="120"/>
       <c r="G52" s="120"/>
@@ -9605,28 +9561,28 @@
       <c r="J52" s="121"/>
     </row>
     <row r="53" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="190" t="s">
+      <c r="A53" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="191"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-      <c r="H53" s="191"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="192"/>
+      <c r="B53" s="197"/>
+      <c r="C53" s="197"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="197"/>
+      <c r="G53" s="197"/>
+      <c r="H53" s="197"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="198"/>
     </row>
     <row r="54" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="188" t="s">
+      <c r="B54" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="189"/>
-      <c r="D54" s="165" t="s">
+      <c r="C54" s="195"/>
+      <c r="D54" s="171" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="120"/>
@@ -9637,22 +9593,22 @@
       <c r="J54" s="121"/>
     </row>
     <row r="55" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="185"/>
-      <c r="B55" s="206"/>
-      <c r="C55" s="206"/>
-      <c r="D55" s="206"/>
-      <c r="E55" s="206"/>
-      <c r="F55" s="206"/>
-      <c r="G55" s="206"/>
-      <c r="H55" s="206"/>
-      <c r="I55" s="206"/>
-      <c r="J55" s="207"/>
+      <c r="A55" s="191"/>
+      <c r="B55" s="212"/>
+      <c r="C55" s="212"/>
+      <c r="D55" s="212"/>
+      <c r="E55" s="212"/>
+      <c r="F55" s="212"/>
+      <c r="G55" s="212"/>
+      <c r="H55" s="212"/>
+      <c r="I55" s="212"/>
+      <c r="J55" s="213"/>
     </row>
     <row r="56" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="65"/>
       <c r="B56" s="147"/>
       <c r="C56" s="149"/>
-      <c r="D56" s="165"/>
+      <c r="D56" s="171"/>
       <c r="E56" s="120"/>
       <c r="F56" s="120"/>
       <c r="G56" s="120"/>
@@ -9664,7 +9620,7 @@
       <c r="A57" s="65"/>
       <c r="B57" s="147"/>
       <c r="C57" s="149"/>
-      <c r="D57" s="165"/>
+      <c r="D57" s="171"/>
       <c r="E57" s="120"/>
       <c r="F57" s="120"/>
       <c r="G57" s="120"/>
@@ -9673,22 +9629,22 @@
       <c r="J57" s="121"/>
     </row>
     <row r="58" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="185"/>
-      <c r="B58" s="206"/>
-      <c r="C58" s="206"/>
-      <c r="D58" s="206"/>
-      <c r="E58" s="206"/>
-      <c r="F58" s="206"/>
-      <c r="G58" s="206"/>
-      <c r="H58" s="206"/>
-      <c r="I58" s="206"/>
-      <c r="J58" s="207"/>
+      <c r="A58" s="191"/>
+      <c r="B58" s="212"/>
+      <c r="C58" s="212"/>
+      <c r="D58" s="212"/>
+      <c r="E58" s="212"/>
+      <c r="F58" s="212"/>
+      <c r="G58" s="212"/>
+      <c r="H58" s="212"/>
+      <c r="I58" s="212"/>
+      <c r="J58" s="213"/>
     </row>
     <row r="59" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="65"/>
       <c r="B59" s="147"/>
       <c r="C59" s="149"/>
-      <c r="D59" s="165"/>
+      <c r="D59" s="171"/>
       <c r="E59" s="120"/>
       <c r="F59" s="120"/>
       <c r="G59" s="120"/>
@@ -9733,14 +9689,14 @@
       <c r="B62" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="162"/>
-      <c r="D62" s="162"/>
-      <c r="E62" s="162"/>
-      <c r="F62" s="162"/>
-      <c r="G62" s="162"/>
-      <c r="H62" s="162"/>
-      <c r="I62" s="162"/>
-      <c r="J62" s="162"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="168"/>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="50"/>
@@ -9860,7 +9816,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="163" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -9887,7 +9843,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="164"/>
+      <c r="K2" s="170"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -9905,7 +9861,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="164"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -9949,18 +9905,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="205"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -9970,19 +9926,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -9991,10 +9947,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -10027,34 +9983,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="197" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="A10" s="203" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -10063,10 +10019,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -10077,27 +10033,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -10116,10 +10072,10 @@
       <c r="E13" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="219" t="s">
+      <c r="F13" s="225" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="220"/>
+      <c r="G13" s="226"/>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
         <v>78</v>
@@ -10157,34 +10113,34 @@
       <c r="J14" s="95"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="197" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+      <c r="A16" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="204"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="205"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="39" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -10193,10 +10149,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -10210,24 +10166,24 @@
         <v>98</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="45" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29.25" customHeight="1">
@@ -10235,14 +10191,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="101" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F19" s="77" t="s">
         <v>110</v>
@@ -10252,10 +10208,10 @@
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="J19" s="216" t="s">
-        <v>213</v>
+        <v>230</v>
+      </c>
+      <c r="J19" s="222" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" customHeight="1">
@@ -10263,14 +10219,14 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="86" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F20" s="77" t="s">
         <v>112</v>
@@ -10280,35 +10236,35 @@
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="J20" s="217"/>
+        <v>230</v>
+      </c>
+      <c r="J20" s="223"/>
     </row>
     <row r="21" spans="1:10" ht="33.75" customHeight="1">
       <c r="A21" s="45">
         <v>4</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="86" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="J21" s="218"/>
+        <v>230</v>
+      </c>
+      <c r="J21" s="224"/>
     </row>
     <row r="22" spans="1:10" ht="82.5">
       <c r="A22" s="45">
@@ -10332,10 +10288,10 @@
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -1,48 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="畫面_APF0202MM1" sheetId="7" r:id="rId4"/>
-    <sheet name="欄位_APF0202MM1" sheetId="14" r:id="rId5"/>
-    <sheet name="畫面_APF0202MA1" sheetId="33" r:id="rId6"/>
-    <sheet name="欄位_APF0202MA1" sheetId="34" r:id="rId7"/>
+    <sheet name="IPO" sheetId="38" r:id="rId4"/>
+    <sheet name="畫面_APF0202MM1" sheetId="7" r:id="rId5"/>
+    <sheet name="欄位_APF0202MM1" sheetId="14" r:id="rId6"/>
+    <sheet name="畫面_APF0202MA1" sheetId="33" r:id="rId7"/>
+    <sheet name="欄位_APF0202MA1" sheetId="34" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">畫面_APF0202MA1!$A$1:$J$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">畫面_APF0202MM1!$A$1:$J$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">欄位_APF0202MA1!$A$1:$J$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">欄位_APF0202MM1!$A$1:$J$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0202MA1!$A$1:$J$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0202MM1!$A$1:$J$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0202MA1!$A$1:$J$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0202MM1!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">畫面_APF0202MA1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">畫面_APF0202MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">欄位_APF0202MA1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">欄位_APF0202MM1!$1:$5</definedName>
-    <definedName name="solver_lin" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">畫面_APF0202MA1!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">畫面_APF0202MM1!#REF!</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">畫面_APF0202MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0202MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">欄位_APF0202MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0202MM1!$1:$5</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">畫面_APF0202MA1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0202MM1!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="253">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -1213,6 +1219,22 @@
     <t>如角色功能清單點選已設定，而尚未儲存即點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消頁面已做的的設定，再以導頁方式開啟APF0202MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
 如已點選角色功能清單設定，且已儲存，點選回上一頁按鈕則導頁方式開啟APF0202MM1，並帶回原先的查詢條件。</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2068,6 +2090,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2080,24 +2147,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2107,12 +2156,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2123,31 +2166,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2158,9 +2231,126 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2172,225 +2362,57 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3450,7 +3472,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3458,6 +3480,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3491,7 +3524,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3499,6 +3532,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3510,6 +3554,3680 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9906000" cy="0"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="群組 9"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="0"/>
+          <a:ext cx="9906000" cy="0"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0201 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>功能清單設定作業</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131018</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="群組 17"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="0"/>
+          <a:ext cx="9906000" cy="0"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0201 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>功能清單對應設定</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131021</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9906000" cy="0"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="群組 33"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="0"/>
+          <a:ext cx="9906000" cy="0"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0102 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色帳號對應設定</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131018</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1428750"/>
+          <a:ext cx="9906000" cy="512989"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34817" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s34817"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="群組 50"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0202 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>功能清單對應設定</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131021</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4103,7 +7821,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4634,7 +8352,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5223,7 +8941,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6171,10 +9889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6223,79 +9941,88 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B5" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D5" s="79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="31" t="s">
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="109"/>
+      <c r="B6" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="79" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="79" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="110" t="s">
+    <row r="7" spans="1:4" ht="21" customHeight="1">
+      <c r="A7" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B7" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="34" t="s">
+    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
+      <c r="A8" s="111"/>
+      <c r="B8" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="107" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A8" s="109" t="s">
+    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
+      <c r="A9" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D9" s="79" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="31" t="s">
+    <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
+      <c r="A10" s="109"/>
+      <c r="B10" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="79" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="79" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickTop="1">
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4">
+    <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickTop="1">
       <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4">
@@ -6308,33 +10035,37 @@
       <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="D16" s="26"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="25"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="25"/>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D7" location="欄位_APF0202MA1!A1" display="View"/>
-    <hyperlink ref="D6" location="畫面_APF0202MA1!A1" display="View"/>
-    <hyperlink ref="D9" location="欄位_APF0201MU1!A1" display="View"/>
-    <hyperlink ref="D8" location="畫面_APF0201MU1!A1" display="View"/>
-    <hyperlink ref="D5" location="欄位_APF0202MM1!A1" display="View"/>
-    <hyperlink ref="D4" location="畫面_APF0202MM1!A1" display="View"/>
+    <hyperlink ref="D8" location="欄位_APF0202MA1!A1" display="View"/>
+    <hyperlink ref="D7" location="畫面_APF0202MA1!A1" display="View"/>
+    <hyperlink ref="D10" location="欄位_APF0201MU1!A1" display="View"/>
+    <hyperlink ref="D9" location="畫面_APF0201MU1!A1" display="View"/>
+    <hyperlink ref="D6" location="欄位_APF0202MM1!A1" display="View"/>
+    <hyperlink ref="D5" location="畫面_APF0202MM1!A1" display="View"/>
+    <hyperlink ref="D4" location="IPO!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -6584,7 +10315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
@@ -6600,15 +10331,15 @@
       <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="127" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="113"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="113"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -6625,226 +10356,226 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="124" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="138"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="116" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="120" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113"/>
     </row>
     <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="120" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="132" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="113"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="132" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="120" t="s">
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="113"/>
     </row>
     <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="135"/>
     </row>
     <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="131"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="137"/>
     </row>
     <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
     </row>
     <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -6892,30 +10623,23 @@
     <row r="61" s="76" customFormat="1" ht="14.25"/>
     <row r="67" spans="1:12" ht="27.75" customHeight="1"/>
     <row r="68" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A68" s="122" t="s">
+      <c r="A68" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="123"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="123"/>
-      <c r="I68" s="123"/>
-      <c r="J68" s="123"/>
-      <c r="K68" s="123"/>
-      <c r="L68" s="124"/>
+      <c r="B68" s="132"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -6932,6 +10656,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -6999,6 +10730,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="128"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="128"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
@@ -7034,7 +10829,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="169" t="s">
+      <c r="K1" s="161" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -7055,7 +10850,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -7068,7 +10863,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -7083,152 +10878,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="184"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="187"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="177" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="180" t="s">
+      <c r="A14" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="181" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -7237,16 +11032,16 @@
       <c r="B16" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
@@ -7255,16 +11050,16 @@
       <c r="B17" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="187" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
@@ -7273,16 +11068,16 @@
       <c r="B18" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="167" t="s">
+      <c r="C18" s="187" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
@@ -7291,42 +11086,42 @@
       <c r="B19" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="187" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="A20" s="142"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="181" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="165"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="166"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
@@ -7335,16 +11130,16 @@
       <c r="B22" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="186"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -7353,16 +11148,16 @@
       <c r="B23" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="153" t="s">
+      <c r="C23" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -7371,16 +11166,16 @@
       <c r="B24" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="153" t="s">
+      <c r="C24" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="155"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="189"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
@@ -7389,16 +11184,16 @@
       <c r="B25" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="153" t="s">
+      <c r="C25" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="155"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="189"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -7407,56 +11202,56 @@
       <c r="B26" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="153" t="s">
+      <c r="C26" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="155"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="189"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="177"/>
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="178" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="189"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="190"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="180"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="181" t="s">
         <v>223</v>
       </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="166"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -7465,16 +11260,16 @@
       <c r="B30" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
@@ -7483,16 +11278,16 @@
       <c r="B31" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="193" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="161"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="195"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -7501,14 +11296,14 @@
       <c r="B32" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="198"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
@@ -7517,42 +11312,42 @@
       <c r="B33" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="153" t="s">
+      <c r="C33" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="143"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="156" t="s">
+      <c r="A35" s="181" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="191"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
@@ -7561,16 +11356,16 @@
       <c r="B36" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="152"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="186"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -7579,16 +11374,16 @@
       <c r="B37" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="153" t="s">
+      <c r="C37" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="155"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="189"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -7597,16 +11392,16 @@
       <c r="B38" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="153" t="s">
+      <c r="C38" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="155"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="189"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -7615,16 +11410,16 @@
       <c r="B39" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="153" t="s">
+      <c r="C39" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="155"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="189"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
@@ -7633,42 +11428,42 @@
       <c r="B40" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="153" t="s">
+      <c r="C40" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="155"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="189"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="147"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="149"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="143"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="142" t="s">
+      <c r="A42" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="144"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -7683,14 +11478,14 @@
       <c r="D43" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="145" t="s">
+      <c r="E43" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -7703,40 +11498,40 @@
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="199" t="s">
+      <c r="E44" s="152" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="149"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="143"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="174" t="s">
+      <c r="A46" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="175"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="175"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="176"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="165"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
@@ -7749,14 +11544,14 @@
         <v>146</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="199" t="s">
+      <c r="E47" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
@@ -7769,14 +11564,14 @@
         <v>146</v>
       </c>
       <c r="D48" s="90"/>
-      <c r="E48" s="171" t="s">
+      <c r="E48" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="172"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="172"/>
-      <c r="J48" s="173"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="141"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
@@ -7789,40 +11584,40 @@
         <v>146</v>
       </c>
       <c r="D49" s="91"/>
-      <c r="E49" s="171" t="s">
+      <c r="E49" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="172"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="172"/>
-      <c r="I49" s="172"/>
-      <c r="J49" s="173"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="141"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="149"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="159"/>
+      <c r="J50" s="143"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="200" t="s">
+      <c r="A51" s="153" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="201"/>
-      <c r="C51" s="201"/>
-      <c r="D51" s="201"/>
-      <c r="E51" s="201"/>
-      <c r="F51" s="201"/>
-      <c r="G51" s="201"/>
-      <c r="H51" s="201"/>
-      <c r="I51" s="201"/>
-      <c r="J51" s="202"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="155"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
@@ -7835,14 +11630,14 @@
         <v>146</v>
       </c>
       <c r="D52" s="93"/>
-      <c r="E52" s="199" t="s">
+      <c r="E52" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
@@ -7855,14 +11650,14 @@
         <v>146</v>
       </c>
       <c r="D53" s="90"/>
-      <c r="E53" s="139" t="s">
+      <c r="E53" s="156" t="s">
         <v>153</v>
       </c>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="141"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="158"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
@@ -7875,14 +11670,14 @@
         <v>146</v>
       </c>
       <c r="D54" s="90"/>
-      <c r="E54" s="139" t="s">
+      <c r="E54" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="141"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="158"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
@@ -7895,14 +11690,14 @@
         <v>146</v>
       </c>
       <c r="D55" s="90"/>
-      <c r="E55" s="139" t="s">
+      <c r="E55" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="F55" s="140"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="141"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="158"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
@@ -7915,14 +11710,14 @@
         <v>146</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="171" t="s">
+      <c r="E56" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A57" s="55">
@@ -7935,118 +11730,118 @@
         <v>172</v>
       </c>
       <c r="D57" s="90"/>
-      <c r="E57" s="139" t="s">
+      <c r="E57" s="156" t="s">
         <v>225</v>
       </c>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="141"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="158"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="148"/>
-      <c r="G58" s="148"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="149"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="159"/>
+      <c r="G58" s="159"/>
+      <c r="H58" s="159"/>
+      <c r="I58" s="159"/>
+      <c r="J58" s="143"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="196" t="s">
+      <c r="A59" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="197"/>
-      <c r="C59" s="197"/>
-      <c r="D59" s="197"/>
-      <c r="E59" s="197"/>
-      <c r="F59" s="197"/>
-      <c r="G59" s="197"/>
-      <c r="H59" s="197"/>
-      <c r="I59" s="197"/>
-      <c r="J59" s="198"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="150"/>
+      <c r="J59" s="151"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="194" t="s">
+      <c r="B60" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="195"/>
-      <c r="D60" s="171" t="s">
+      <c r="C60" s="148"/>
+      <c r="D60" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="121"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="113"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="191"/>
-      <c r="B61" s="192"/>
-      <c r="C61" s="192"/>
-      <c r="D61" s="192"/>
-      <c r="E61" s="192"/>
-      <c r="F61" s="192"/>
-      <c r="G61" s="192"/>
-      <c r="H61" s="192"/>
-      <c r="I61" s="192"/>
-      <c r="J61" s="193"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="146"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="171"/>
-      <c r="E62" s="172"/>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="172"/>
-      <c r="J62" s="173"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="141"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="171"/>
-      <c r="E63" s="172"/>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="172"/>
-      <c r="J63" s="173"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="141"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="191"/>
-      <c r="B64" s="192"/>
-      <c r="C64" s="192"/>
-      <c r="D64" s="192"/>
-      <c r="E64" s="192"/>
-      <c r="F64" s="192"/>
-      <c r="G64" s="192"/>
-      <c r="H64" s="192"/>
-      <c r="I64" s="192"/>
-      <c r="J64" s="193"/>
+      <c r="A64" s="144"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
+      <c r="J64" s="146"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="171"/>
-      <c r="E65" s="172"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="172"/>
-      <c r="H65" s="172"/>
-      <c r="I65" s="172"/>
-      <c r="J65" s="173"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="141"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
@@ -8069,14 +11864,14 @@
       <c r="B67" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="147"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="121"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="113"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
@@ -8085,22 +11880,60 @@
       <c r="B68" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
-      <c r="E68" s="168"/>
-      <c r="F68" s="168"/>
-      <c r="G68" s="168"/>
-      <c r="H68" s="168"/>
-      <c r="I68" s="168"/>
-      <c r="J68" s="168"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="160"/>
+      <c r="G68" s="160"/>
+      <c r="H68" s="160"/>
+      <c r="I68" s="160"/>
+      <c r="J68" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A59:J59"/>
@@ -8117,49 +11950,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B58:J58"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8177,7 +11972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
@@ -8212,7 +12007,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="169" t="s">
+      <c r="K1" s="161" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -8239,7 +12034,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -8257,7 +12052,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -8699,7 +12494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
@@ -8732,7 +12527,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="169" t="s">
+      <c r="K1" s="161" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -8753,7 +12548,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8766,7 +12561,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8781,152 +12576,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="184"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="187"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="177" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="180" t="s">
+      <c r="A14" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="181" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -8935,16 +12730,16 @@
       <c r="B16" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="184" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
@@ -8953,16 +12748,16 @@
       <c r="B17" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="187" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="45">
@@ -8971,16 +12766,16 @@
       <c r="B18" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="167" t="s">
+      <c r="C18" s="187" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="45">
@@ -8989,30 +12784,30 @@
       <c r="B19" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="187" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="181" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="166"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="183"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -9021,16 +12816,16 @@
       <c r="B21" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="186"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
@@ -9039,16 +12834,16 @@
       <c r="B22" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="206" t="s">
+      <c r="C22" s="219" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="207"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="211"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -9057,14 +12852,14 @@
       <c r="B23" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="207"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="211"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -9073,14 +12868,14 @@
       <c r="B24" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="207"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="55">
@@ -9089,14 +12884,14 @@
       <c r="B25" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="207"/>
-      <c r="D25" s="207"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="207"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -9105,56 +12900,56 @@
       <c r="B26" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="120" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="207"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="211"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="214"/>
-      <c r="B27" s="215"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="216"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="144"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="181" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="166"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -9163,16 +12958,16 @@
       <c r="B30" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="184" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="45">
@@ -9181,16 +12976,16 @@
       <c r="B31" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="187" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A32" s="45">
@@ -9199,16 +12994,16 @@
       <c r="B32" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="167" t="s">
+      <c r="C32" s="187" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="155"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1" ht="32.25" customHeight="1">
       <c r="A33" s="94">
@@ -9217,30 +13012,30 @@
       <c r="B33" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="219" t="s">
+      <c r="C33" s="212" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="221"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="214"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A34" s="156" t="s">
+      <c r="A34" s="181" t="s">
         <v>228</v>
       </c>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="166"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
@@ -9249,16 +13044,16 @@
       <c r="B35" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="150" t="s">
+      <c r="C35" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="186"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1">
       <c r="A36" s="55">
@@ -9267,16 +13062,16 @@
       <c r="B36" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="167" t="s">
+      <c r="C36" s="187" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="208"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="209"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="216"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -9285,16 +13080,16 @@
       <c r="B37" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="167" t="s">
+      <c r="C37" s="187" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="208"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="216"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -9303,16 +13098,16 @@
       <c r="B38" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="167" t="s">
+      <c r="C38" s="187" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="208"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="208"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="209"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="216"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -9321,16 +13116,16 @@
       <c r="B39" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="167" t="s">
+      <c r="C39" s="187" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="208"/>
-      <c r="E39" s="208"/>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="209"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="216"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="55">
@@ -9339,42 +13134,42 @@
       <c r="B40" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="167" t="s">
+      <c r="C40" s="187" t="s">
         <v>202</v>
       </c>
-      <c r="D40" s="208"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="208"/>
-      <c r="G40" s="208"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="209"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="216"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="177"/>
-      <c r="B41" s="217"/>
-      <c r="C41" s="217"/>
-      <c r="D41" s="217"/>
-      <c r="E41" s="217"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="217"/>
-      <c r="H41" s="217"/>
-      <c r="I41" s="217"/>
-      <c r="J41" s="218"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="210"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="142" t="s">
+      <c r="A42" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="190"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
     </row>
     <row r="43" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -9389,14 +13184,14 @@
       <c r="D43" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="145" t="s">
+      <c r="E43" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -9409,28 +13204,28 @@
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="199" t="s">
+      <c r="E44" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A45" s="174" t="s">
+      <c r="A45" s="163" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="211"/>
+      <c r="B45" s="220"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
+      <c r="E45" s="220"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="221"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="65">
@@ -9443,14 +13238,14 @@
         <v>49</v>
       </c>
       <c r="D46" s="93"/>
-      <c r="E46" s="199" t="s">
+      <c r="E46" s="152" t="s">
         <v>208</v>
       </c>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A47" s="65">
@@ -9463,14 +13258,14 @@
         <v>50</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="199" t="s">
+      <c r="E47" s="152" t="s">
         <v>207</v>
       </c>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="103"/>
@@ -9485,18 +13280,18 @@
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="174" t="s">
+      <c r="A49" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="175"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="175"/>
-      <c r="E49" s="175"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="175"/>
-      <c r="H49" s="175"/>
-      <c r="I49" s="175"/>
-      <c r="J49" s="176"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="165"/>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
     </row>
@@ -9511,14 +13306,14 @@
         <v>212</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="199" t="s">
+      <c r="E50" s="152" t="s">
         <v>248</v>
       </c>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
     </row>
     <row r="51" spans="1:12" s="52" customFormat="1" ht="136.5" customHeight="1">
       <c r="A51" s="63">
@@ -9531,14 +13326,14 @@
         <v>212</v>
       </c>
       <c r="D51" s="90"/>
-      <c r="E51" s="139" t="s">
+      <c r="E51" s="156" t="s">
         <v>238</v>
       </c>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="141"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="158"/>
     </row>
     <row r="52" spans="1:12" s="52" customFormat="1" ht="54.75" customHeight="1">
       <c r="A52" s="65">
@@ -9551,106 +13346,106 @@
         <v>212</v>
       </c>
       <c r="D52" s="91"/>
-      <c r="E52" s="171" t="s">
+      <c r="E52" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="121"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="196" t="s">
+      <c r="A53" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="197"/>
-      <c r="E53" s="197"/>
-      <c r="F53" s="197"/>
-      <c r="G53" s="197"/>
-      <c r="H53" s="197"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="198"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="151"/>
     </row>
     <row r="54" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="194" t="s">
+      <c r="B54" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="195"/>
-      <c r="D54" s="171" t="s">
+      <c r="C54" s="148"/>
+      <c r="D54" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="121"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="113"/>
     </row>
     <row r="55" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="191"/>
-      <c r="B55" s="212"/>
-      <c r="C55" s="212"/>
-      <c r="D55" s="212"/>
-      <c r="E55" s="212"/>
-      <c r="F55" s="212"/>
-      <c r="G55" s="212"/>
-      <c r="H55" s="212"/>
-      <c r="I55" s="212"/>
-      <c r="J55" s="213"/>
+      <c r="A55" s="144"/>
+      <c r="B55" s="217"/>
+      <c r="C55" s="217"/>
+      <c r="D55" s="217"/>
+      <c r="E55" s="217"/>
+      <c r="F55" s="217"/>
+      <c r="G55" s="217"/>
+      <c r="H55" s="217"/>
+      <c r="I55" s="217"/>
+      <c r="J55" s="218"/>
     </row>
     <row r="56" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="65"/>
-      <c r="B56" s="147"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="65"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="149"/>
-      <c r="D57" s="171"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="121"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="113"/>
     </row>
     <row r="58" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="191"/>
-      <c r="B58" s="212"/>
-      <c r="C58" s="212"/>
-      <c r="D58" s="212"/>
-      <c r="E58" s="212"/>
-      <c r="F58" s="212"/>
-      <c r="G58" s="212"/>
-      <c r="H58" s="212"/>
-      <c r="I58" s="212"/>
-      <c r="J58" s="213"/>
+      <c r="A58" s="144"/>
+      <c r="B58" s="217"/>
+      <c r="C58" s="217"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="217"/>
+      <c r="G58" s="217"/>
+      <c r="H58" s="217"/>
+      <c r="I58" s="217"/>
+      <c r="J58" s="218"/>
     </row>
     <row r="59" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="65"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="113"/>
     </row>
     <row r="60" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A60" s="68" t="s">
@@ -9673,14 +13468,14 @@
       <c r="B61" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="147"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="121"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="112"/>
+      <c r="J61" s="113"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="65">
@@ -9689,14 +13484,14 @@
       <c r="B62" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="168"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="160"/>
+      <c r="J62" s="160"/>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="50"/>
@@ -9709,12 +13504,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="A49:J49"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A28:J28"/>
@@ -9731,39 +13553,12 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="C35:J35"/>
     <mergeCell ref="C36:J36"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9781,7 +13576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
@@ -9816,7 +13611,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="169" t="s">
+      <c r="K1" s="161" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -9843,7 +13638,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -9861,7 +13656,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>

--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -2090,13 +2090,70 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2105,27 +2162,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2135,41 +2171,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2180,10 +2276,55 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,151 +2362,34 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2381,9 +2405,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2392,27 +2413,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9891,7 +9891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -10315,8 +10315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10331,15 +10331,15 @@
       <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="112" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="128"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="128"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -10356,226 +10356,226 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="121" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="112" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="113"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="121" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="112" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="138" t="s">
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="138" t="s">
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="112" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="113"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
     </row>
     <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="135"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="128"/>
     </row>
     <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="129" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="137"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="131"/>
     </row>
     <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="113"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -10623,23 +10623,30 @@
     <row r="61" s="76" customFormat="1" ht="14.25"/>
     <row r="67" spans="1:12" ht="27.75" customHeight="1"/>
     <row r="68" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A68" s="131" t="s">
+      <c r="A68" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="132"/>
-      <c r="C68" s="132"/>
-      <c r="D68" s="132"/>
-      <c r="E68" s="132"/>
-      <c r="F68" s="132"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="133"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="123"/>
+      <c r="G68" s="123"/>
+      <c r="H68" s="123"/>
+      <c r="I68" s="123"/>
+      <c r="J68" s="123"/>
+      <c r="K68" s="123"/>
+      <c r="L68" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -10656,13 +10663,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -10713,9 +10713,9 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>85</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -10740,15 +10740,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="127" t="s">
+      <c r="P1" s="112" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="128"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="128"/>
+      <c r="P3" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10829,7 +10829,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="161" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -10850,7 +10850,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="170"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10863,7 +10863,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="170"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10878,152 +10878,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="187"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="188" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="180" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="188" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="156" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -11032,16 +11032,16 @@
       <c r="B16" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="184" t="s">
+      <c r="C16" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
@@ -11050,16 +11050,16 @@
       <c r="B17" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="167" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
@@ -11068,16 +11068,16 @@
       <c r="B18" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="167" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
@@ -11086,42 +11086,42 @@
       <c r="B19" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="167" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="142"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="143"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="181" t="s">
+      <c r="A21" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
@@ -11130,16 +11130,16 @@
       <c r="B22" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="184" t="s">
+      <c r="C22" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="186"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -11148,16 +11148,16 @@
       <c r="B23" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="192" t="s">
+      <c r="C23" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -11166,16 +11166,16 @@
       <c r="B24" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="192" t="s">
+      <c r="C24" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="189"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="155"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
@@ -11184,16 +11184,16 @@
       <c r="B25" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="192" t="s">
+      <c r="C25" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="189"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="155"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -11202,56 +11202,56 @@
       <c r="B26" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="192" t="s">
+      <c r="C26" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="155"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="166"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
+      <c r="A27" s="177"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="179"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="180"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="190"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="181" t="s">
+      <c r="A29" s="156" t="s">
         <v>223</v>
       </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -11260,16 +11260,16 @@
       <c r="B30" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="184" t="s">
+      <c r="C30" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
@@ -11278,16 +11278,16 @@
       <c r="B31" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="193" t="s">
+      <c r="C31" s="159" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="195"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="161"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -11296,14 +11296,14 @@
       <c r="B32" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="196"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="198"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
@@ -11312,42 +11312,42 @@
       <c r="B33" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="192" t="s">
+      <c r="C33" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="142"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="143"/>
+      <c r="A34" s="147"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="149"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="181" t="s">
+      <c r="A35" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="191"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
@@ -11356,16 +11356,16 @@
       <c r="B36" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="184" t="s">
+      <c r="C36" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="186"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="152"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -11374,16 +11374,16 @@
       <c r="B37" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="189"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="155"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -11392,16 +11392,16 @@
       <c r="B38" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="192" t="s">
+      <c r="C38" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="189"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="155"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -11410,16 +11410,16 @@
       <c r="B39" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="192" t="s">
+      <c r="C39" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="189"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="155"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
@@ -11428,42 +11428,42 @@
       <c r="B40" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="192" t="s">
+      <c r="C40" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="189"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="155"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="142"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="143"/>
+      <c r="A41" s="147"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="149"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="199"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="199"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="199"/>
-      <c r="H42" s="199"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -11478,14 +11478,14 @@
       <c r="D43" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="201" t="s">
+      <c r="E43" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="202"/>
-      <c r="G43" s="202"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="202"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -11498,40 +11498,40 @@
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="152" t="s">
+      <c r="E44" s="199" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="159"/>
-      <c r="E45" s="159"/>
-      <c r="F45" s="159"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="159"/>
-      <c r="I45" s="159"/>
-      <c r="J45" s="143"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="149"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="163" t="s">
+      <c r="A46" s="174" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="165"/>
+      <c r="B46" s="175"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="176"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
@@ -11544,14 +11544,14 @@
         <v>146</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="152" t="s">
+      <c r="E47" s="199" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="130"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
@@ -11564,14 +11564,14 @@
         <v>146</v>
       </c>
       <c r="D48" s="90"/>
-      <c r="E48" s="139" t="s">
+      <c r="E48" s="171" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="141"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="173"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
@@ -11584,40 +11584,40 @@
         <v>146</v>
       </c>
       <c r="D49" s="91"/>
-      <c r="E49" s="139" t="s">
+      <c r="E49" s="171" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="141"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="173"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="143"/>
+      <c r="B50" s="148"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="149"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="153" t="s">
+      <c r="A51" s="200" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="155"/>
+      <c r="B51" s="201"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="201"/>
+      <c r="E51" s="201"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="201"/>
+      <c r="H51" s="201"/>
+      <c r="I51" s="201"/>
+      <c r="J51" s="202"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
@@ -11630,14 +11630,14 @@
         <v>146</v>
       </c>
       <c r="D52" s="93"/>
-      <c r="E52" s="152" t="s">
+      <c r="E52" s="199" t="s">
         <v>151</v>
       </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
@@ -11650,14 +11650,14 @@
         <v>146</v>
       </c>
       <c r="D53" s="90"/>
-      <c r="E53" s="156" t="s">
+      <c r="E53" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="158"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="141"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
@@ -11670,14 +11670,14 @@
         <v>146</v>
       </c>
       <c r="D54" s="90"/>
-      <c r="E54" s="156" t="s">
+      <c r="E54" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="158"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="141"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
@@ -11690,14 +11690,14 @@
         <v>146</v>
       </c>
       <c r="D55" s="90"/>
-      <c r="E55" s="156" t="s">
+      <c r="E55" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="158"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="141"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
@@ -11710,14 +11710,14 @@
         <v>146</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="139" t="s">
+      <c r="E56" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A57" s="55">
@@ -11730,118 +11730,118 @@
         <v>172</v>
       </c>
       <c r="D57" s="90"/>
-      <c r="E57" s="156" t="s">
+      <c r="E57" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="158"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="140"/>
+      <c r="J57" s="141"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="159"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="159"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="159"/>
-      <c r="I58" s="159"/>
-      <c r="J58" s="143"/>
+      <c r="B58" s="148"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="149"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="149" t="s">
+      <c r="A59" s="196" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="150"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="150"/>
-      <c r="E59" s="150"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="151"/>
+      <c r="B59" s="197"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="197"/>
+      <c r="F59" s="197"/>
+      <c r="G59" s="197"/>
+      <c r="H59" s="197"/>
+      <c r="I59" s="197"/>
+      <c r="J59" s="198"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="147" t="s">
+      <c r="B60" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="148"/>
-      <c r="D60" s="139" t="s">
+      <c r="C60" s="195"/>
+      <c r="D60" s="171" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="113"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="144"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="145"/>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="146"/>
+      <c r="A61" s="191"/>
+      <c r="B61" s="192"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="192"/>
+      <c r="F61" s="192"/>
+      <c r="G61" s="192"/>
+      <c r="H61" s="192"/>
+      <c r="I61" s="192"/>
+      <c r="J61" s="193"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="141"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="173"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="141"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="171"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="172"/>
+      <c r="G63" s="172"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="172"/>
+      <c r="J63" s="173"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="144"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="145"/>
-      <c r="G64" s="145"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="145"/>
-      <c r="J64" s="146"/>
+      <c r="A64" s="191"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="192"/>
+      <c r="D64" s="192"/>
+      <c r="E64" s="192"/>
+      <c r="F64" s="192"/>
+      <c r="G64" s="192"/>
+      <c r="H64" s="192"/>
+      <c r="I64" s="192"/>
+      <c r="J64" s="193"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="142"/>
-      <c r="C65" s="143"/>
-      <c r="D65" s="139"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="141"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="171"/>
+      <c r="E65" s="172"/>
+      <c r="F65" s="172"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="173"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
@@ -11864,14 +11864,14 @@
       <c r="B67" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="142"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="113"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="121"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
@@ -11880,44 +11880,38 @@
       <c r="B68" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="160"/>
-      <c r="D68" s="160"/>
-      <c r="E68" s="160"/>
-      <c r="F68" s="160"/>
-      <c r="G68" s="160"/>
-      <c r="H68" s="160"/>
-      <c r="I68" s="160"/>
-      <c r="J68" s="160"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="168"/>
+      <c r="F68" s="168"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="168"/>
+      <c r="I68" s="168"/>
+      <c r="J68" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B58:J58"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="K1:K3"/>
@@ -11934,27 +11928,33 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D62:J62"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12007,7 +12007,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="161" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -12034,7 +12034,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="170"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12052,7 +12052,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12527,7 +12527,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="161" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -12548,7 +12548,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="170"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -12561,7 +12561,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="170"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -12576,152 +12576,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="187"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="188" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="156" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -12730,16 +12730,16 @@
       <c r="B16" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="184" t="s">
+      <c r="C16" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
@@ -12748,16 +12748,16 @@
       <c r="B17" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="167" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="45">
@@ -12766,16 +12766,16 @@
       <c r="B18" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="167" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="45">
@@ -12784,30 +12784,30 @@
       <c r="B19" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="167" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A20" s="181" t="s">
+      <c r="A20" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -12816,16 +12816,16 @@
       <c r="B21" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="184" t="s">
+      <c r="C21" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
@@ -12834,16 +12834,16 @@
       <c r="B22" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="206" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="211"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="207"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -12852,14 +12852,14 @@
       <c r="B23" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="207"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -12868,14 +12868,14 @@
       <c r="B24" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="211"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="55">
@@ -12884,14 +12884,14 @@
       <c r="B25" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="211"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -12900,56 +12900,56 @@
       <c r="B26" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="120" t="s">
+      <c r="C26" s="130" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="211"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="211"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="207"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
+      <c r="A27" s="214"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="216"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="199"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="144"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A29" s="181" t="s">
+      <c r="A29" s="156" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -12958,16 +12958,16 @@
       <c r="B30" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="184" t="s">
+      <c r="C30" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="45">
@@ -12976,16 +12976,16 @@
       <c r="B31" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="187" t="s">
+      <c r="C31" s="167" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="155"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A32" s="45">
@@ -12994,16 +12994,16 @@
       <c r="B32" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="187" t="s">
+      <c r="C32" s="167" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="155"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1" ht="32.25" customHeight="1">
       <c r="A33" s="94">
@@ -13012,30 +13012,30 @@
       <c r="B33" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="212" t="s">
+      <c r="C33" s="219" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="214"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="221"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="156" t="s">
         <v>228</v>
       </c>
-      <c r="B34" s="182"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
@@ -13044,16 +13044,16 @@
       <c r="B35" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="184" t="s">
+      <c r="C35" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="186"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="152"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1">
       <c r="A36" s="55">
@@ -13062,16 +13062,16 @@
       <c r="B36" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="187" t="s">
+      <c r="C36" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="215"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="215"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="216"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="209"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -13080,16 +13080,16 @@
       <c r="B37" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="187" t="s">
+      <c r="C37" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="215"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="216"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="209"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -13098,16 +13098,16 @@
       <c r="B38" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="187" t="s">
+      <c r="C38" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="216"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="209"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -13116,16 +13116,16 @@
       <c r="B39" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="187" t="s">
+      <c r="C39" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="216"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="209"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="55">
@@ -13134,42 +13134,42 @@
       <c r="B40" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="187" t="s">
+      <c r="C40" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
-      <c r="F40" s="215"/>
-      <c r="G40" s="215"/>
-      <c r="H40" s="215"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="216"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="209"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="166"/>
-      <c r="B41" s="209"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="209"/>
-      <c r="F41" s="209"/>
-      <c r="G41" s="209"/>
-      <c r="H41" s="209"/>
-      <c r="I41" s="209"/>
-      <c r="J41" s="210"/>
+      <c r="A41" s="177"/>
+      <c r="B41" s="217"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="217"/>
+      <c r="E41" s="217"/>
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="218"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="179"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="180"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="190"/>
     </row>
     <row r="43" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -13184,14 +13184,14 @@
       <c r="D43" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="201" t="s">
+      <c r="E43" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="202"/>
-      <c r="G43" s="202"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="202"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -13204,28 +13204,28 @@
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="152" t="s">
+      <c r="E44" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="174" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="220"/>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="220"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="221"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="65">
@@ -13238,14 +13238,14 @@
         <v>49</v>
       </c>
       <c r="D46" s="93"/>
-      <c r="E46" s="152" t="s">
+      <c r="E46" s="199" t="s">
         <v>208</v>
       </c>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="120"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A47" s="65">
@@ -13258,14 +13258,14 @@
         <v>50</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="152" t="s">
+      <c r="E47" s="199" t="s">
         <v>207</v>
       </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="130"/>
     </row>
     <row r="48" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="103"/>
@@ -13280,18 +13280,18 @@
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="163" t="s">
+      <c r="A49" s="174" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="165"/>
+      <c r="B49" s="175"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
+      <c r="J49" s="176"/>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
     </row>
@@ -13306,14 +13306,14 @@
         <v>212</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="152" t="s">
+      <c r="E50" s="199" t="s">
         <v>248</v>
       </c>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="120"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
     </row>
     <row r="51" spans="1:12" s="52" customFormat="1" ht="136.5" customHeight="1">
       <c r="A51" s="63">
@@ -13326,14 +13326,14 @@
         <v>212</v>
       </c>
       <c r="D51" s="90"/>
-      <c r="E51" s="156" t="s">
+      <c r="E51" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="158"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="141"/>
     </row>
     <row r="52" spans="1:12" s="52" customFormat="1" ht="54.75" customHeight="1">
       <c r="A52" s="65">
@@ -13346,106 +13346,106 @@
         <v>212</v>
       </c>
       <c r="D52" s="91"/>
-      <c r="E52" s="139" t="s">
+      <c r="E52" s="171" t="s">
         <v>215</v>
       </c>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="113"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="121"/>
     </row>
     <row r="53" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="149" t="s">
+      <c r="A53" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="150"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="151"/>
+      <c r="B53" s="197"/>
+      <c r="C53" s="197"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="197"/>
+      <c r="G53" s="197"/>
+      <c r="H53" s="197"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="198"/>
     </row>
     <row r="54" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="147" t="s">
+      <c r="B54" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="148"/>
-      <c r="D54" s="139" t="s">
+      <c r="C54" s="195"/>
+      <c r="D54" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="113"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="121"/>
     </row>
     <row r="55" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="144"/>
-      <c r="B55" s="217"/>
-      <c r="C55" s="217"/>
-      <c r="D55" s="217"/>
-      <c r="E55" s="217"/>
-      <c r="F55" s="217"/>
-      <c r="G55" s="217"/>
-      <c r="H55" s="217"/>
-      <c r="I55" s="217"/>
-      <c r="J55" s="218"/>
+      <c r="A55" s="191"/>
+      <c r="B55" s="212"/>
+      <c r="C55" s="212"/>
+      <c r="D55" s="212"/>
+      <c r="E55" s="212"/>
+      <c r="F55" s="212"/>
+      <c r="G55" s="212"/>
+      <c r="H55" s="212"/>
+      <c r="I55" s="212"/>
+      <c r="J55" s="213"/>
     </row>
     <row r="56" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="65"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
     </row>
     <row r="57" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="65"/>
-      <c r="B57" s="142"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="113"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="121"/>
     </row>
     <row r="58" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="144"/>
-      <c r="B58" s="217"/>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="217"/>
-      <c r="G58" s="217"/>
-      <c r="H58" s="217"/>
-      <c r="I58" s="217"/>
-      <c r="J58" s="218"/>
+      <c r="A58" s="191"/>
+      <c r="B58" s="212"/>
+      <c r="C58" s="212"/>
+      <c r="D58" s="212"/>
+      <c r="E58" s="212"/>
+      <c r="F58" s="212"/>
+      <c r="G58" s="212"/>
+      <c r="H58" s="212"/>
+      <c r="I58" s="212"/>
+      <c r="J58" s="213"/>
     </row>
     <row r="59" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="65"/>
-      <c r="B59" s="142"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="113"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="121"/>
     </row>
     <row r="60" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A60" s="68" t="s">
@@ -13468,14 +13468,14 @@
       <c r="B61" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="142"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="113"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="121"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="65">
@@ -13484,14 +13484,14 @@
       <c r="B62" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="160"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="160"/>
-      <c r="G62" s="160"/>
-      <c r="H62" s="160"/>
-      <c r="I62" s="160"/>
-      <c r="J62" s="160"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="168"/>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="50"/>
@@ -13504,23 +13504,28 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:J59"/>
@@ -13537,28 +13542,23 @@
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="E44:J44"/>
     <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13611,7 +13611,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="161" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -13638,7 +13638,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="170"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -13656,7 +13656,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>

--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="252">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -837,10 +837,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FUNCTION_NAME_LEVEL_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1208,10 +1204,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>如功能勾選，則權限必須要勾選，可複選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1235,6 +1227,9 @@
   <si>
     <t>View</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -2090,6 +2085,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2102,24 +2142,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2129,12 +2151,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2145,31 +2161,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2180,9 +2226,126 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2194,225 +2357,57 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3459,7 +3454,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>333375</xdr:rowOff>
+          <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3509,9 +3504,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7846,7 +7841,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12039600" cy="523875"/>
+          <a:ext cx="12477750" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -8966,7 +8961,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12153900" cy="609600"/>
+          <a:ext cx="12582525" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -9906,7 +9901,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -9942,14 +9937,14 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -9975,7 +9970,7 @@
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="104" t="s">
         <v>121</v>
@@ -10315,8 +10310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10331,15 +10326,15 @@
       <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="127" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="113"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="113"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -10356,226 +10351,226 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="136" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="138"/>
+      <c r="A6" s="124" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="116" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="120" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113"/>
     </row>
     <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="120" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="132" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="113"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="132" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="120" t="s">
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="113"/>
     </row>
     <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="135"/>
     </row>
     <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="131"/>
+      <c r="A16" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="137"/>
     </row>
     <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
     </row>
     <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -10623,30 +10618,23 @@
     <row r="61" s="76" customFormat="1" ht="14.25"/>
     <row r="67" spans="1:12" ht="27.75" customHeight="1"/>
     <row r="68" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A68" s="122" t="s">
+      <c r="A68" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="123"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="123"/>
-      <c r="I68" s="123"/>
-      <c r="J68" s="123"/>
-      <c r="K68" s="123"/>
-      <c r="L68" s="124"/>
+      <c r="B68" s="132"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -10663,6 +10651,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -10690,7 +10685,7 @@
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>66</xdr:row>
-                <xdr:rowOff>333375</xdr:rowOff>
+                <xdr:rowOff>304800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -10740,15 +10735,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="112" t="s">
-        <v>249</v>
+      <c r="P1" s="127" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="113"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="113"/>
+      <c r="P3" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10798,7 +10793,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C31" sqref="C31:J32"/>
     </sheetView>
   </sheetViews>
@@ -10829,7 +10824,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="169" t="s">
+      <c r="K1" s="161" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -10850,7 +10845,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10863,7 +10858,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10878,152 +10873,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="184"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="187"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="177" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="180" t="s">
+      <c r="A14" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="156" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166"/>
+      <c r="A15" s="181" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -11032,16 +11027,16 @@
       <c r="B16" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
@@ -11050,16 +11045,16 @@
       <c r="B17" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="167" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
+      <c r="C17" s="187" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
@@ -11068,16 +11063,16 @@
       <c r="B18" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="167" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
+      <c r="C18" s="187" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
@@ -11086,42 +11081,42 @@
       <c r="B19" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="167" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
+      <c r="C19" s="187" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="A20" s="142"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="181" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="165"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="166"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
@@ -11130,16 +11125,16 @@
       <c r="B22" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="186"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -11148,16 +11143,16 @@
       <c r="B23" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="153" t="s">
+      <c r="C23" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -11166,16 +11161,16 @@
       <c r="B24" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="153" t="s">
+      <c r="C24" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="155"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="189"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
@@ -11184,16 +11179,16 @@
       <c r="B25" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="153" t="s">
+      <c r="C25" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="155"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="189"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -11202,56 +11197,56 @@
       <c r="B26" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="153" t="s">
+      <c r="C26" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="155"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="189"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="177"/>
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="178" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="189"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="190"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="180"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="156" t="s">
-        <v>223</v>
-      </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="166"/>
+      <c r="A29" s="181" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -11260,16 +11255,16 @@
       <c r="B30" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
@@ -11278,16 +11273,16 @@
       <c r="B31" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="159" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="161"/>
+      <c r="C31" s="193" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="195"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -11296,14 +11291,14 @@
       <c r="B32" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="198"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
@@ -11312,42 +11307,42 @@
       <c r="B33" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="153" t="s">
+      <c r="C33" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="143"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="156" t="s">
+      <c r="A35" s="181" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="191"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
@@ -11356,16 +11351,16 @@
       <c r="B36" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="152"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="186"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -11374,16 +11369,16 @@
       <c r="B37" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="153" t="s">
+      <c r="C37" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="155"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="189"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -11392,16 +11387,16 @@
       <c r="B38" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="153" t="s">
+      <c r="C38" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="155"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="189"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -11410,16 +11405,16 @@
       <c r="B39" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="153" t="s">
+      <c r="C39" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="155"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="189"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
@@ -11428,42 +11423,42 @@
       <c r="B40" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="153" t="s">
+      <c r="C40" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="155"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="189"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="147"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="149"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="143"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="142" t="s">
+      <c r="A42" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="144"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -11478,14 +11473,14 @@
       <c r="D43" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="145" t="s">
+      <c r="E43" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -11498,40 +11493,40 @@
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="199" t="s">
+      <c r="E44" s="152" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="149"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="143"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="174" t="s">
+      <c r="A46" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="175"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="175"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="176"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="165"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
@@ -11544,14 +11539,14 @@
         <v>146</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="199" t="s">
+      <c r="E47" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
@@ -11564,14 +11559,14 @@
         <v>146</v>
       </c>
       <c r="D48" s="90"/>
-      <c r="E48" s="171" t="s">
+      <c r="E48" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="172"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="172"/>
-      <c r="J48" s="173"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="141"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
@@ -11584,40 +11579,40 @@
         <v>146</v>
       </c>
       <c r="D49" s="91"/>
-      <c r="E49" s="171" t="s">
+      <c r="E49" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="172"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="172"/>
-      <c r="I49" s="172"/>
-      <c r="J49" s="173"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="141"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="149"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="159"/>
+      <c r="J50" s="143"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="200" t="s">
+      <c r="A51" s="153" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="201"/>
-      <c r="C51" s="201"/>
-      <c r="D51" s="201"/>
-      <c r="E51" s="201"/>
-      <c r="F51" s="201"/>
-      <c r="G51" s="201"/>
-      <c r="H51" s="201"/>
-      <c r="I51" s="201"/>
-      <c r="J51" s="202"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="155"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
@@ -11630,14 +11625,14 @@
         <v>146</v>
       </c>
       <c r="D52" s="93"/>
-      <c r="E52" s="199" t="s">
+      <c r="E52" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
@@ -11650,14 +11645,14 @@
         <v>146</v>
       </c>
       <c r="D53" s="90"/>
-      <c r="E53" s="139" t="s">
+      <c r="E53" s="156" t="s">
         <v>153</v>
       </c>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="141"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="158"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
@@ -11670,14 +11665,14 @@
         <v>146</v>
       </c>
       <c r="D54" s="90"/>
-      <c r="E54" s="139" t="s">
+      <c r="E54" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="141"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="158"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
@@ -11690,14 +11685,14 @@
         <v>146</v>
       </c>
       <c r="D55" s="90"/>
-      <c r="E55" s="139" t="s">
+      <c r="E55" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="F55" s="140"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="141"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="158"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
@@ -11710,14 +11705,14 @@
         <v>146</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="171" t="s">
+      <c r="E56" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A57" s="55">
@@ -11730,118 +11725,118 @@
         <v>172</v>
       </c>
       <c r="D57" s="90"/>
-      <c r="E57" s="139" t="s">
-        <v>225</v>
-      </c>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="141"/>
+      <c r="E57" s="156" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="158"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="148"/>
-      <c r="G58" s="148"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="149"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="159"/>
+      <c r="G58" s="159"/>
+      <c r="H58" s="159"/>
+      <c r="I58" s="159"/>
+      <c r="J58" s="143"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="196" t="s">
+      <c r="A59" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="197"/>
-      <c r="C59" s="197"/>
-      <c r="D59" s="197"/>
-      <c r="E59" s="197"/>
-      <c r="F59" s="197"/>
-      <c r="G59" s="197"/>
-      <c r="H59" s="197"/>
-      <c r="I59" s="197"/>
-      <c r="J59" s="198"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="150"/>
+      <c r="J59" s="151"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="194" t="s">
+      <c r="B60" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="195"/>
-      <c r="D60" s="171" t="s">
+      <c r="C60" s="148"/>
+      <c r="D60" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="121"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="113"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="191"/>
-      <c r="B61" s="192"/>
-      <c r="C61" s="192"/>
-      <c r="D61" s="192"/>
-      <c r="E61" s="192"/>
-      <c r="F61" s="192"/>
-      <c r="G61" s="192"/>
-      <c r="H61" s="192"/>
-      <c r="I61" s="192"/>
-      <c r="J61" s="193"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="146"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="171"/>
-      <c r="E62" s="172"/>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="172"/>
-      <c r="J62" s="173"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="141"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="171"/>
-      <c r="E63" s="172"/>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="172"/>
-      <c r="J63" s="173"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="141"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="191"/>
-      <c r="B64" s="192"/>
-      <c r="C64" s="192"/>
-      <c r="D64" s="192"/>
-      <c r="E64" s="192"/>
-      <c r="F64" s="192"/>
-      <c r="G64" s="192"/>
-      <c r="H64" s="192"/>
-      <c r="I64" s="192"/>
-      <c r="J64" s="193"/>
+      <c r="A64" s="144"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
+      <c r="J64" s="146"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="171"/>
-      <c r="E65" s="172"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="172"/>
-      <c r="H65" s="172"/>
-      <c r="I65" s="172"/>
-      <c r="J65" s="173"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="141"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
@@ -11864,14 +11859,14 @@
       <c r="B67" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="147"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="121"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="113"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
@@ -11880,22 +11875,60 @@
       <c r="B68" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
-      <c r="E68" s="168"/>
-      <c r="F68" s="168"/>
-      <c r="G68" s="168"/>
-      <c r="H68" s="168"/>
-      <c r="I68" s="168"/>
-      <c r="J68" s="168"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="160"/>
+      <c r="G68" s="160"/>
+      <c r="H68" s="160"/>
+      <c r="I68" s="160"/>
+      <c r="J68" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A59:J59"/>
@@ -11912,49 +11945,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B58:J58"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11977,7 +11972,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11990,7 +11985,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="38" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="38" customWidth="1"/>
     <col min="10" max="10" width="37" style="38" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -12007,7 +12002,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="169" t="s">
+      <c r="K1" s="161" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -12034,7 +12029,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12052,7 +12047,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12117,19 +12112,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>242</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>243</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -12138,10 +12133,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -12189,19 +12184,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>242</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>243</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -12210,10 +12205,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -12321,19 +12316,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="C17" s="39" t="s">
         <v>242</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>243</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -12342,10 +12337,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -12498,7 +12493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
@@ -12527,7 +12522,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="169" t="s">
+      <c r="K1" s="161" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -12548,7 +12543,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -12561,7 +12556,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -12576,152 +12571,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="184"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="187"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="188" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="177" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="180" t="s">
+      <c r="A14" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="156" t="s">
-        <v>231</v>
-      </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166"/>
+      <c r="A15" s="181" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -12730,16 +12725,16 @@
       <c r="B16" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="150" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
+      <c r="C16" s="184" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
@@ -12748,16 +12743,16 @@
       <c r="B17" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="167" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
+      <c r="C17" s="187" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="45">
@@ -12766,16 +12761,16 @@
       <c r="B18" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="167" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
+      <c r="C18" s="187" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="45">
@@ -12784,30 +12779,30 @@
       <c r="B19" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="167" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
+      <c r="C19" s="187" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A20" s="156" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="166"/>
+      <c r="A20" s="181" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="183"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -12816,16 +12811,16 @@
       <c r="B21" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="186"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
@@ -12834,122 +12829,122 @@
       <c r="B22" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="206" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="207"/>
+      <c r="C22" s="219" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="211"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="207"/>
+        <v>197</v>
+      </c>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="211"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="207"/>
+        <v>184</v>
+      </c>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="55">
         <v>4</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="207"/>
-      <c r="D25" s="207"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="207"/>
+        <v>185</v>
+      </c>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>5</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="207"/>
+        <v>232</v>
+      </c>
+      <c r="C26" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="211"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="214"/>
-      <c r="B27" s="215"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="216"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="144"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A29" s="156" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="166"/>
+      <c r="A29" s="181" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -12958,16 +12953,16 @@
       <c r="B30" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="150" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
+      <c r="C30" s="184" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="45">
@@ -12976,16 +12971,16 @@
       <c r="B31" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="167" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
+      <c r="C31" s="187" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A32" s="45">
@@ -12994,48 +12989,48 @@
       <c r="B32" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="167" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="155"/>
+      <c r="C32" s="187" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1" ht="32.25" customHeight="1">
       <c r="A33" s="94">
         <v>3</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" s="219" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="212" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="214"/>
+    </row>
+    <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A34" s="181" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="221"/>
-    </row>
-    <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A34" s="156" t="s">
-        <v>228</v>
-      </c>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="166"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
@@ -13044,16 +13039,16 @@
       <c r="B35" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="150" t="s">
+      <c r="C35" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="186"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1">
       <c r="A36" s="55">
@@ -13062,114 +13057,114 @@
       <c r="B36" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="208"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="209"/>
+      <c r="C36" s="187" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="215"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="216"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="C37" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="208"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
+        <v>197</v>
+      </c>
+      <c r="C37" s="187" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="216"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="208"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="208"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="209"/>
+        <v>184</v>
+      </c>
+      <c r="C38" s="187" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="215"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="216"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>4</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="208"/>
-      <c r="E39" s="208"/>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="209"/>
+        <v>185</v>
+      </c>
+      <c r="C39" s="187" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="216"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="55">
         <v>5</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C40" s="167" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="208"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="208"/>
-      <c r="G40" s="208"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="209"/>
+        <v>234</v>
+      </c>
+      <c r="C40" s="187" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="215"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="216"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="177"/>
-      <c r="B41" s="217"/>
-      <c r="C41" s="217"/>
-      <c r="D41" s="217"/>
-      <c r="E41" s="217"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="217"/>
-      <c r="H41" s="217"/>
-      <c r="I41" s="217"/>
-      <c r="J41" s="218"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="210"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="142" t="s">
+      <c r="A42" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="190"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
     </row>
     <row r="43" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -13184,14 +13179,14 @@
       <c r="D43" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="145" t="s">
+      <c r="E43" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -13200,52 +13195,52 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="199" t="s">
-        <v>205</v>
-      </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
+      <c r="E44" s="152" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A45" s="174" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="211"/>
+      <c r="A45" s="163" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="220"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
+      <c r="E45" s="220"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="221"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="65">
         <v>1</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C46" s="89" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="93"/>
-      <c r="E46" s="199" t="s">
-        <v>208</v>
-      </c>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
+      <c r="E46" s="152" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A47" s="65">
@@ -13258,14 +13253,14 @@
         <v>50</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="199" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
+      <c r="E47" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="103"/>
@@ -13280,18 +13275,18 @@
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="174" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" s="175"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="175"/>
-      <c r="E49" s="175"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="175"/>
-      <c r="H49" s="175"/>
-      <c r="I49" s="175"/>
-      <c r="J49" s="176"/>
+      <c r="A49" s="163" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="165"/>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
     </row>
@@ -13300,152 +13295,152 @@
         <v>1</v>
       </c>
       <c r="B50" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="89" t="s">
-        <v>212</v>
-      </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="199" t="s">
-        <v>248</v>
-      </c>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
+      <c r="E50" s="152" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
     </row>
     <row r="51" spans="1:12" s="52" customFormat="1" ht="136.5" customHeight="1">
       <c r="A51" s="63">
         <v>2</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51" s="90"/>
-      <c r="E51" s="139" t="s">
-        <v>238</v>
-      </c>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="141"/>
+      <c r="E51" s="156" t="s">
+        <v>237</v>
+      </c>
+      <c r="F51" s="157"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="158"/>
     </row>
     <row r="52" spans="1:12" s="52" customFormat="1" ht="54.75" customHeight="1">
       <c r="A52" s="65">
         <v>3</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D52" s="91"/>
-      <c r="E52" s="171" t="s">
-        <v>215</v>
-      </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="121"/>
+      <c r="E52" s="139" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="196" t="s">
+      <c r="A53" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="197"/>
-      <c r="E53" s="197"/>
-      <c r="F53" s="197"/>
-      <c r="G53" s="197"/>
-      <c r="H53" s="197"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="198"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="151"/>
     </row>
     <row r="54" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="194" t="s">
+      <c r="B54" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="195"/>
-      <c r="D54" s="171" t="s">
+      <c r="C54" s="148"/>
+      <c r="D54" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="121"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="113"/>
     </row>
     <row r="55" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="191"/>
-      <c r="B55" s="212"/>
-      <c r="C55" s="212"/>
-      <c r="D55" s="212"/>
-      <c r="E55" s="212"/>
-      <c r="F55" s="212"/>
-      <c r="G55" s="212"/>
-      <c r="H55" s="212"/>
-      <c r="I55" s="212"/>
-      <c r="J55" s="213"/>
+      <c r="A55" s="144"/>
+      <c r="B55" s="217"/>
+      <c r="C55" s="217"/>
+      <c r="D55" s="217"/>
+      <c r="E55" s="217"/>
+      <c r="F55" s="217"/>
+      <c r="G55" s="217"/>
+      <c r="H55" s="217"/>
+      <c r="I55" s="217"/>
+      <c r="J55" s="218"/>
     </row>
     <row r="56" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="65"/>
-      <c r="B56" s="147"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="65"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="149"/>
-      <c r="D57" s="171"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="121"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="113"/>
     </row>
     <row r="58" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="191"/>
-      <c r="B58" s="212"/>
-      <c r="C58" s="212"/>
-      <c r="D58" s="212"/>
-      <c r="E58" s="212"/>
-      <c r="F58" s="212"/>
-      <c r="G58" s="212"/>
-      <c r="H58" s="212"/>
-      <c r="I58" s="212"/>
-      <c r="J58" s="213"/>
+      <c r="A58" s="144"/>
+      <c r="B58" s="217"/>
+      <c r="C58" s="217"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="217"/>
+      <c r="G58" s="217"/>
+      <c r="H58" s="217"/>
+      <c r="I58" s="217"/>
+      <c r="J58" s="218"/>
     </row>
     <row r="59" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="65"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="113"/>
     </row>
     <row r="60" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A60" s="68" t="s">
@@ -13468,14 +13463,14 @@
       <c r="B61" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="147"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="121"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="112"/>
+      <c r="J61" s="113"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="65">
@@ -13484,14 +13479,14 @@
       <c r="B62" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="168"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="160"/>
+      <c r="J62" s="160"/>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="50"/>
@@ -13504,12 +13499,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="A49:J49"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A28:J28"/>
@@ -13526,39 +13548,12 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="C35:J35"/>
     <mergeCell ref="C36:J36"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13580,7 +13575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -13594,7 +13589,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="15" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="38" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -13611,7 +13606,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="169" t="s">
+      <c r="K1" s="161" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -13638,7 +13633,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -13656,7 +13651,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -13745,7 +13740,7 @@
         <v>178</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13779,7 +13774,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="204"/>
       <c r="C10" s="204"/>
@@ -13817,7 +13812,7 @@
         <v>178</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13831,24 +13826,24 @@
         <v>179</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
         <v>180</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -13909,7 +13904,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="203" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="204"/>
       <c r="C16" s="204"/>
@@ -13947,7 +13942,7 @@
         <v>178</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -13961,24 +13956,24 @@
         <v>98</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29.25" customHeight="1">
@@ -13986,14 +13981,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" s="77" t="s">
         <v>110</v>
@@ -14003,10 +13998,10 @@
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J19" s="222" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" customHeight="1">
@@ -14014,14 +14009,14 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F20" s="77" t="s">
         <v>112</v>
@@ -14031,7 +14026,7 @@
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J20" s="223"/>
     </row>
@@ -14040,24 +14035,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J21" s="224"/>
     </row>
@@ -14083,10 +14078,10 @@
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="250">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -194,10 +194,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1007,21 +1003,6 @@
   </si>
   <si>
     <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查詢角色
-1. 使用者輸入查詢條件篩選欲選取的角色
-2. 系統依查詢條件顯示資料於grid
-3. 使用者選取特定角色進行資料設定
-查詢功能清單資訊
-1. 系統人員於特定色角色下輸入查詢條件篩選功能清單
-2. 系統依查詢條件顯示資料於grid
-維護Mapping設定
-1. 使用者選取適當功能清單
-2. 功能清單加入角色 or 移除後點選儲存按鈕
-3. 系統依設定資訊儲存並回應設定成功資訊
-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1782,7 +1763,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2085,13 +2066,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2100,27 +2126,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2130,41 +2135,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2175,10 +2240,55 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2216,151 +2326,34 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2376,9 +2369,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2387,27 +2377,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3447,13 +3416,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3499,13 +3468,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>66</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>83</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9901,7 +9870,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="108" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -9909,106 +9878,106 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="109"/>
       <c r="B6" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="105"/>
       <c r="D7" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="111"/>
       <c r="B8" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="109"/>
       <c r="B10" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
@@ -10174,10 +10143,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="20">
         <v>41563</v>
@@ -10308,10 +10277,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10324,17 +10293,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="127" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="M1" s="112" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="128"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="128"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -10351,242 +10320,212 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="A6" s="132" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="134"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="121" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
+    </row>
+    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
+    </row>
+    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="113"/>
-    </row>
-    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
-    </row>
-    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="112" t="s">
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
+    </row>
+    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="125" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
+      <c r="A12" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
-    </row>
-    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
-    </row>
-    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="119" t="s">
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
+    </row>
+    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A14" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113"/>
-    </row>
-    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
-    </row>
-    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="113"/>
-    </row>
-    <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="135"/>
-    </row>
-    <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="136" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="137"/>
-    </row>
-    <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="113"/>
-    </row>
-    <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="20" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="21" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="22" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="23" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="24" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="25" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="26" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="27" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="28" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="29" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="30" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="31" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="32" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
+    </row>
+    <row r="15" spans="1:13" s="76" customFormat="1" ht="16.5">
+      <c r="A15" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
+    </row>
+    <row r="16" spans="1:13" s="76" customFormat="1" ht="14.25"/>
+    <row r="17" s="76" customFormat="1" ht="14.25"/>
+    <row r="18" s="76" customFormat="1" ht="14.25"/>
+    <row r="19" s="76" customFormat="1" ht="14.25"/>
+    <row r="20" s="76" customFormat="1" ht="14.25"/>
+    <row r="21" s="76" customFormat="1" ht="14.25"/>
+    <row r="22" s="76" customFormat="1" ht="14.25"/>
+    <row r="23" s="76" customFormat="1" ht="14.25"/>
+    <row r="24" s="76" customFormat="1" ht="14.25"/>
+    <row r="25" s="76" customFormat="1" ht="14.25"/>
+    <row r="26" s="76" customFormat="1" ht="14.25"/>
+    <row r="27" s="76" customFormat="1" ht="14.25"/>
+    <row r="28" s="76" customFormat="1" ht="14.25"/>
+    <row r="29" s="76" customFormat="1" ht="14.25"/>
+    <row r="30" s="76" customFormat="1" ht="14.25"/>
+    <row r="31" s="76" customFormat="1" ht="14.25"/>
+    <row r="32" s="76" customFormat="1" ht="14.25"/>
     <row r="33" s="76" customFormat="1" ht="14.25"/>
     <row r="34" s="76" customFormat="1" ht="14.25"/>
     <row r="35" s="76" customFormat="1" ht="14.25"/>
@@ -10614,35 +10553,38 @@
     <row r="57" s="76" customFormat="1" ht="14.25"/>
     <row r="58" s="76" customFormat="1" ht="14.25"/>
     <row r="59" s="76" customFormat="1" ht="14.25"/>
-    <row r="60" s="76" customFormat="1" ht="14.25"/>
-    <row r="61" s="76" customFormat="1" ht="14.25"/>
-    <row r="67" spans="1:12" ht="27.75" customHeight="1"/>
-    <row r="68" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A68" s="131" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="132"/>
-      <c r="C68" s="132"/>
-      <c r="D68" s="132"/>
-      <c r="E68" s="132"/>
-      <c r="F68" s="132"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="133"/>
+    <row r="65" spans="1:12" ht="27.75" customHeight="1"/>
+    <row r="66" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A66" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="123"/>
+      <c r="C66" s="123"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="123"/>
+      <c r="L66" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A66:L66"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -10651,13 +10593,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -10678,13 +10613,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>304800</xdr:rowOff>
               </to>
             </anchor>
@@ -10703,13 +10638,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>83</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -10735,15 +10670,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="127" t="s">
-        <v>247</v>
+      <c r="P1" s="112" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="128"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="128"/>
+      <c r="P3" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10824,8 +10759,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="161" t="s">
-        <v>46</v>
+      <c r="K1" s="165" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -10845,7 +10780,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10858,7 +10793,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10873,614 +10808,614 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="169" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="A5" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+    </row>
+    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
+      <c r="A11" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
+    </row>
+    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-    </row>
-    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
+    </row>
+    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="176" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="181" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="A15" s="152" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="C16" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="187" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
+        <v>131</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="187" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
+        <v>132</v>
+      </c>
+      <c r="C18" s="163" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="187" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
+        <v>133</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="142"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="143"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="181" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+      <c r="A21" s="152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="162"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="186"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="148"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+        <v>131</v>
+      </c>
+      <c r="C23" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="189"/>
+        <v>132</v>
+      </c>
+      <c r="C24" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
         <v>3</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="189"/>
+        <v>133</v>
+      </c>
+      <c r="C25" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
+    </row>
+    <row r="27" spans="1:10" s="52" customFormat="1">
+      <c r="A27" s="173"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
+    </row>
+    <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189"/>
-    </row>
-    <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="166"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
-    </row>
-    <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="179"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="180"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="181" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="A29" s="152" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="162"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="148"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="193" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="195"/>
+        <v>131</v>
+      </c>
+      <c r="C31" s="155" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="157"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="196"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="198"/>
+        <v>132</v>
+      </c>
+      <c r="C32" s="158"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="192" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+        <v>133</v>
+      </c>
+      <c r="C33" s="149" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="142"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="143"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="145"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="181" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="191"/>
+      <c r="A35" s="152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="186"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="148"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="189"/>
+        <v>131</v>
+      </c>
+      <c r="C37" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="151"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="189"/>
+        <v>132</v>
+      </c>
+      <c r="C38" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="151"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>3</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="189"/>
+        <v>133</v>
+      </c>
+      <c r="C39" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="151"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="189"/>
+      <c r="C40" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="142"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="143"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="145"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="178" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="199"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="199"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="199"/>
-      <c r="H42" s="199"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
+      <c r="A42" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="140"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="D43" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="E43" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="201" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="202"/>
-      <c r="G43" s="202"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="202"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -11489,358 +11424,358 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="152" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
+      <c r="E44" s="195" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="159"/>
-      <c r="E45" s="159"/>
-      <c r="F45" s="159"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="159"/>
-      <c r="I45" s="159"/>
-      <c r="J45" s="143"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="145"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="165"/>
+      <c r="A46" s="170" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="171"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="172"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
         <v>1</v>
       </c>
       <c r="B47" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="D47" s="93"/>
+      <c r="E47" s="195" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="152" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
         <v>2</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="90"/>
-      <c r="E48" s="139" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="141"/>
+      <c r="E48" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="169"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
         <v>3</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="91"/>
-      <c r="E49" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="141"/>
+      <c r="E49" s="167" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="169"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="143"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="145"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="153" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="155"/>
+      <c r="A51" s="196" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="197"/>
+      <c r="C51" s="197"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="197"/>
+      <c r="F51" s="197"/>
+      <c r="G51" s="197"/>
+      <c r="H51" s="197"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="198"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
         <v>1</v>
       </c>
       <c r="B52" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="93"/>
+      <c r="E52" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
         <v>2</v>
       </c>
       <c r="B53" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="90"/>
+      <c r="E53" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="156" t="s">
-        <v>153</v>
-      </c>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="158"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="137"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
         <v>3</v>
       </c>
       <c r="B54" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="90"/>
+      <c r="E54" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="156" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="158"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="136"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="137"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
         <v>4</v>
       </c>
       <c r="B55" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="90"/>
+      <c r="E55" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="90"/>
-      <c r="E55" s="156" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="158"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="136"/>
+      <c r="H55" s="136"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="137"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="E56" s="167" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A57" s="55">
         <v>2</v>
       </c>
       <c r="B57" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="89" t="s">
-        <v>172</v>
-      </c>
       <c r="D57" s="90"/>
-      <c r="E57" s="156" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="158"/>
+      <c r="E57" s="135" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="137"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="159"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="159"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="159"/>
-      <c r="I58" s="159"/>
-      <c r="J58" s="143"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="144"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="145"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="149" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="150"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="150"/>
-      <c r="E59" s="150"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="151"/>
+      <c r="A59" s="192" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="193"/>
+      <c r="C59" s="193"/>
+      <c r="D59" s="193"/>
+      <c r="E59" s="193"/>
+      <c r="F59" s="193"/>
+      <c r="G59" s="193"/>
+      <c r="H59" s="193"/>
+      <c r="I59" s="193"/>
+      <c r="J59" s="194"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="190" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="191"/>
+      <c r="D60" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="148"/>
-      <c r="D60" s="139" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="113"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="144"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="145"/>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="146"/>
+      <c r="A61" s="187"/>
+      <c r="B61" s="188"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="188"/>
+      <c r="E61" s="188"/>
+      <c r="F61" s="188"/>
+      <c r="G61" s="188"/>
+      <c r="H61" s="188"/>
+      <c r="I61" s="188"/>
+      <c r="J61" s="189"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="141"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="169"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="141"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="167"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="168"/>
+      <c r="J63" s="169"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="144"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="145"/>
-      <c r="G64" s="145"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="145"/>
-      <c r="J64" s="146"/>
+      <c r="A64" s="187"/>
+      <c r="B64" s="188"/>
+      <c r="C64" s="188"/>
+      <c r="D64" s="188"/>
+      <c r="E64" s="188"/>
+      <c r="F64" s="188"/>
+      <c r="G64" s="188"/>
+      <c r="H64" s="188"/>
+      <c r="I64" s="188"/>
+      <c r="J64" s="189"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="142"/>
-      <c r="C65" s="143"/>
-      <c r="D65" s="139"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="141"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="167"/>
+      <c r="E65" s="168"/>
+      <c r="F65" s="168"/>
+      <c r="G65" s="168"/>
+      <c r="H65" s="168"/>
+      <c r="I65" s="168"/>
+      <c r="J65" s="169"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="69"/>
       <c r="C66" s="70"/>
@@ -11857,62 +11792,56 @@
         <v>1</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" s="142"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="113"/>
+        <v>162</v>
+      </c>
+      <c r="C67" s="143"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="121"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
         <v>2</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="160"/>
-      <c r="D68" s="160"/>
-      <c r="E68" s="160"/>
-      <c r="F68" s="160"/>
-      <c r="G68" s="160"/>
-      <c r="H68" s="160"/>
-      <c r="I68" s="160"/>
-      <c r="J68" s="160"/>
+        <v>162</v>
+      </c>
+      <c r="C68" s="164"/>
+      <c r="D68" s="164"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="164"/>
+      <c r="G68" s="164"/>
+      <c r="H68" s="164"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B58:J58"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="K1:K3"/>
@@ -11929,27 +11858,33 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D62:J62"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12002,8 +11937,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="161" t="s">
-        <v>46</v>
+      <c r="K1" s="165" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -12029,7 +11964,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="166"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12047,7 +11982,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="166"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12091,18 +12026,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="203" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="205"/>
+      <c r="A6" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="201"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -12112,19 +12047,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="D7" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>241</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>243</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -12133,10 +12068,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -12169,34 +12104,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="203" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
+      <c r="A10" s="199" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="D11" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>241</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>243</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -12205,10 +12140,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -12219,26 +12154,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="D12" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="E12" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="F12" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="G12" s="42" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -12247,26 +12182,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="F13" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="G13" s="42" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -12275,60 +12210,60 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>86</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="46" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="203" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="205"/>
+      <c r="A16" s="199" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="D17" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>241</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>243</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -12337,10 +12272,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -12351,24 +12286,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="G18" s="42" t="s">
         <v>76</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>77</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -12377,24 +12312,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="G19" s="42" t="s">
         <v>83</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>84</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -12403,27 +12338,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="46" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>88</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" s="81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -12431,27 +12366,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="80" t="s">
         <v>93</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>94</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>95</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>96</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -12522,8 +12457,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="161" t="s">
-        <v>46</v>
+      <c r="K1" s="165" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -12543,7 +12478,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -12556,7 +12491,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -12571,622 +12506,622 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="169" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="A5" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="177" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="A11" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="181" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="A15" s="152" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="184" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
+      <c r="C16" s="146" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="187" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
+        <v>178</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="187" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
+        <v>97</v>
+      </c>
+      <c r="C18" s="163" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="45">
         <v>3</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="187" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
+        <v>102</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A20" s="181" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
+      <c r="A20" s="152" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="162"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="184" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="219" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="211"/>
+        <v>97</v>
+      </c>
+      <c r="C22" s="202" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
+        <v>196</v>
+      </c>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="203"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="211"/>
+        <v>183</v>
+      </c>
+      <c r="C24" s="203"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="203"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="203"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="55">
         <v>4</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="211"/>
+        <v>184</v>
+      </c>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="203"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>5</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" s="211"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="211"/>
+        <v>230</v>
+      </c>
+      <c r="C26" s="127" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="203"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
+      <c r="A27" s="210"/>
+      <c r="B27" s="211"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="212"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="199"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="140"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A29" s="181" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="A29" s="152" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="162"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="184" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
+      <c r="C30" s="146" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="148"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="45">
         <v>1</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="187" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+        <v>178</v>
+      </c>
+      <c r="C31" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="151"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A32" s="45">
         <v>2</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="187" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
+        <v>97</v>
+      </c>
+      <c r="C32" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="151"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1" ht="32.25" customHeight="1">
       <c r="A33" s="94">
         <v>3</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" s="212" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="214"/>
+        <v>221</v>
+      </c>
+      <c r="C33" s="215" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="217"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A34" s="181" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="182"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
+      <c r="A34" s="152" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="162"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="184" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="186"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="148"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1">
       <c r="A36" s="55">
         <v>1</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="187" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="215"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="215"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="216"/>
+        <v>97</v>
+      </c>
+      <c r="C36" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="205"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="187" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="215"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="216"/>
+        <v>196</v>
+      </c>
+      <c r="C37" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="205"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="187" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="216"/>
+        <v>183</v>
+      </c>
+      <c r="C38" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="204"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="205"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>4</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="187" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="216"/>
+        <v>184</v>
+      </c>
+      <c r="C39" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="204"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="205"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="55">
         <v>5</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="C40" s="187" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
-      <c r="F40" s="215"/>
-      <c r="G40" s="215"/>
-      <c r="H40" s="215"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="216"/>
+        <v>232</v>
+      </c>
+      <c r="C40" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
+      <c r="J40" s="205"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="166"/>
-      <c r="B41" s="209"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="209"/>
-      <c r="F41" s="209"/>
-      <c r="G41" s="209"/>
-      <c r="H41" s="209"/>
-      <c r="I41" s="209"/>
-      <c r="J41" s="210"/>
+      <c r="A41" s="173"/>
+      <c r="B41" s="213"/>
+      <c r="C41" s="213"/>
+      <c r="D41" s="213"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="213"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="213"/>
+      <c r="J41" s="214"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="178" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="179"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="180"/>
+      <c r="A42" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="185"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="186"/>
     </row>
     <row r="43" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="D43" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="E43" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="202"/>
-      <c r="G43" s="202"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="202"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -13195,72 +13130,72 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="152" t="s">
-        <v>204</v>
-      </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
+      <c r="E44" s="195" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A45" s="163" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="220"/>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="220"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="221"/>
+      <c r="A45" s="170" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="206"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="206"/>
+      <c r="E45" s="206"/>
+      <c r="F45" s="206"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
+      <c r="I45" s="206"/>
+      <c r="J45" s="207"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="65">
         <v>1</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="93"/>
-      <c r="E46" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="120"/>
+      <c r="E46" s="195" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A47" s="65">
         <v>2</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="E47" s="195" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
     </row>
     <row r="48" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="103"/>
@@ -13275,18 +13210,18 @@
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="163" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="165"/>
+      <c r="A49" s="170" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="171"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="171"/>
+      <c r="F49" s="171"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="172"/>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
     </row>
@@ -13295,152 +13230,152 @@
         <v>1</v>
       </c>
       <c r="B50" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="89" t="s">
-        <v>211</v>
-      </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="152" t="s">
-        <v>246</v>
-      </c>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="120"/>
+      <c r="E50" s="195" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
     </row>
     <row r="51" spans="1:12" s="52" customFormat="1" ht="136.5" customHeight="1">
       <c r="A51" s="63">
         <v>2</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D51" s="90"/>
-      <c r="E51" s="156" t="s">
-        <v>237</v>
-      </c>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="158"/>
+      <c r="E51" s="135" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="137"/>
     </row>
     <row r="52" spans="1:12" s="52" customFormat="1" ht="54.75" customHeight="1">
       <c r="A52" s="65">
         <v>3</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D52" s="91"/>
-      <c r="E52" s="139" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="113"/>
+      <c r="E52" s="167" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="121"/>
     </row>
     <row r="53" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="149" t="s">
+      <c r="A53" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="150"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="151"/>
+      <c r="B53" s="193"/>
+      <c r="C53" s="193"/>
+      <c r="D53" s="193"/>
+      <c r="E53" s="193"/>
+      <c r="F53" s="193"/>
+      <c r="G53" s="193"/>
+      <c r="H53" s="193"/>
+      <c r="I53" s="193"/>
+      <c r="J53" s="194"/>
     </row>
     <row r="54" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="147" t="s">
+      <c r="B54" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="148"/>
-      <c r="D54" s="139" t="s">
+      <c r="C54" s="191"/>
+      <c r="D54" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="113"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="121"/>
     </row>
     <row r="55" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="144"/>
-      <c r="B55" s="217"/>
-      <c r="C55" s="217"/>
-      <c r="D55" s="217"/>
-      <c r="E55" s="217"/>
-      <c r="F55" s="217"/>
-      <c r="G55" s="217"/>
-      <c r="H55" s="217"/>
-      <c r="I55" s="217"/>
-      <c r="J55" s="218"/>
+      <c r="A55" s="187"/>
+      <c r="B55" s="208"/>
+      <c r="C55" s="208"/>
+      <c r="D55" s="208"/>
+      <c r="E55" s="208"/>
+      <c r="F55" s="208"/>
+      <c r="G55" s="208"/>
+      <c r="H55" s="208"/>
+      <c r="I55" s="208"/>
+      <c r="J55" s="209"/>
     </row>
     <row r="56" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="65"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="167"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
     </row>
     <row r="57" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="65"/>
-      <c r="B57" s="142"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="113"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="167"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="121"/>
     </row>
     <row r="58" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="144"/>
-      <c r="B58" s="217"/>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="217"/>
-      <c r="G58" s="217"/>
-      <c r="H58" s="217"/>
-      <c r="I58" s="217"/>
-      <c r="J58" s="218"/>
+      <c r="A58" s="187"/>
+      <c r="B58" s="208"/>
+      <c r="C58" s="208"/>
+      <c r="D58" s="208"/>
+      <c r="E58" s="208"/>
+      <c r="F58" s="208"/>
+      <c r="G58" s="208"/>
+      <c r="H58" s="208"/>
+      <c r="I58" s="208"/>
+      <c r="J58" s="209"/>
     </row>
     <row r="59" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="65"/>
-      <c r="B59" s="142"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="113"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="121"/>
     </row>
     <row r="60" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A60" s="68" t="s">
@@ -13463,14 +13398,14 @@
       <c r="B61" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="142"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="113"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="121"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="65">
@@ -13479,14 +13414,14 @@
       <c r="B62" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="160"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="160"/>
-      <c r="G62" s="160"/>
-      <c r="H62" s="160"/>
-      <c r="I62" s="160"/>
-      <c r="J62" s="160"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="164"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
+      <c r="I62" s="164"/>
+      <c r="J62" s="164"/>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="50"/>
@@ -13499,23 +13434,28 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:J59"/>
@@ -13532,28 +13472,23 @@
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="E44:J44"/>
     <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13575,7 +13510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -13606,8 +13541,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="161" t="s">
-        <v>46</v>
+      <c r="K1" s="165" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -13633,7 +13568,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="166"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -13651,7 +13586,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="166"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -13695,18 +13630,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="203" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="205"/>
+      <c r="A6" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="201"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -13716,19 +13651,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>176</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>177</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -13737,10 +13672,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13773,34 +13708,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="203" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
+      <c r="A10" s="199" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D11" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>176</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>177</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -13809,10 +13744,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13823,27 +13758,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -13851,27 +13786,27 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="221" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="225" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="226"/>
+      <c r="G13" s="222"/>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13879,58 +13814,58 @@
         <v>3</v>
       </c>
       <c r="B14" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="D14" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="E14" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="F14" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="G14" s="77" t="s">
         <v>107</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>108</v>
       </c>
       <c r="H14" s="80"/>
       <c r="I14" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" s="95"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="203" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="205"/>
+      <c r="A16" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="C17" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="D17" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>176</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>177</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -13939,10 +13874,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -13953,27 +13888,27 @@
         <v>1</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29.25" customHeight="1">
@@ -13981,27 +13916,27 @@
         <v>2</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>110</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>111</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="J19" s="222" t="s">
-        <v>202</v>
+        <v>227</v>
+      </c>
+      <c r="J19" s="218" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" customHeight="1">
@@ -14009,79 +13944,79 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="77" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="J20" s="223"/>
+        <v>227</v>
+      </c>
+      <c r="J20" s="219"/>
     </row>
     <row r="21" spans="1:10" ht="33.75" customHeight="1">
       <c r="A21" s="45">
         <v>4</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="J21" s="224"/>
+        <v>227</v>
+      </c>
+      <c r="J21" s="220"/>
     </row>
     <row r="22" spans="1:10" ht="82.5">
       <c r="A22" s="45">
         <v>5</v>
       </c>
       <c r="B22" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>114</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>115</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="G22" s="77" t="s">
         <v>117</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" s="102" t="s">
         <v>229</v>
-      </c>
-      <c r="J22" s="102" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -43,12 +38,12 @@
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="253">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -194,6 +189,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -833,6 +832,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>FUNCTION_NAME_LEVEL_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -982,18 +985,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>儲存</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>此按鈕功是將頁面上已做的功能權限設定清除，所以必須很僅慎，系統會有確認提示，若選擇是，則清除所有欄位，若選擇否，則不做任何動作，訊息內容請參考APF訊息表APF_NO 44</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>角色功能清單設定新增頁面</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1006,20 +1001,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
-如先輸入角色代號或角色名稱，則角色來源被自動帶出且該欄位是disable，不可點選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-如先輸入角色名稱，則角色代號被自動帶出且該欄位是disable，不可再輸入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:中文20(控制項控制)
-如先輸入角色代號，則角色名稱自動帶出且該欄位是disable，不可再輸入</t>
+    <t xml:space="preserve">查詢角色
+1. 使用者輸入查詢條件篩選欲選取的角色
+2. 系統依查詢條件顯示資料於grid
+3. 使用者選取特定角色進行資料設定
+查詢功能清單資訊
+1. 系統人員於特定色角色下輸入查詢條件篩選功能清單
+2. 系統依查詢條件顯示資料於grid
+維護Mapping設定
+1. 使用者選取適當功能清單
+2. 功能清單加入角色 or 移除後點選儲存按鈕
+3. 系統依設定資訊儲存並回應設定成功資訊
+</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1047,6 +1040,153 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>輸入之功能名稱必須存在於APF apf_menu_root 或 apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0101MA1_Grid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：按下『儲存』鈕時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lblROLE_NO_NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O/I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>於第三階功能右後方，配有對應的功能權限名稱(查詢、新增、維護、刪除、匯出)，及前設有checkbox，供權限管理者點選設定各功能對應的權限(可複選)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.勾選上層功能則下層所有功能均全數選取。EX:勾選第一層角色設定功能清單，則第二層角色主檔、角色功能對應及第三層角色維護、及其所有權限將一併被勾選。
+2.勾選下層功能，則其上層功能至第一層功能清單均被選取。EX:勾選第三層角色維護的查詢權限，第三層角色維護、第二層角色主檔、第一層角色設定將一併勾選。
+3.如功能勾選，則權限必須要勾選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>權限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0202_角色功能清單設定 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色功能清單設定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前畫面:APF0202MM1
+1.1 SESSION內容:
+1.2 成立條件:該使用者擁有此功能新增/修改/權限
+1.3 如是角色來源是選擇職稱角色，此角色所含的功能及權限，已事先於其他系統定義好，於APF 中，僅能查詢，
+    所以APF0202MA1_Grid的相關 checkbox, button均是反灰 disable。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>對應Table Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如功能勾選，則權限必須要勾選，可複選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入型態:string
+最大長度限制:英文10(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入型態:string
+最大長度限制:中文20(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重新載入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>此按鈕是將頁面上資料重新載入，回復至未做設定前的初始狀態</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">APF0202MA1_Grid
 </t>
@@ -1063,12 +1203,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之功能名稱必須存在於APF apf_menu_root 或 apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">APF0101MA1_Grid
+      <t xml:space="preserve">APF0202MA1_Query
 </t>
     </r>
     <r>
@@ -1083,134 +1219,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>lblROLE_NO_NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>O/I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0202MA1_Query
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：各欄位輸入後</t>
-    </r>
+    <t xml:space="preserve">
+點選回上一頁按鈕則以導頁方式開啟APF0202MM1，並帶回原先的查詢條件。</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>於第三階功能右後方，配有對應的功能權限名稱(查詢、新增、維護、刪除、匯出)，及前設有checkbox，供權限管理者點選設定各功能對應的權限(可複選)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.勾選上層功能則下層所有功能均全數選取。EX:勾選第一層角色設定功能清單，則第二層角色主檔、角色功能對應及第三層角色維護、及其所有權限將一併被勾選。
-2.勾選下層功能，則其上層功能至第一層功能清單均被選取。EX:勾選第三層角色維護的查詢權限，第三層角色維護、第二層角色主檔、第一層角色設定將一併勾選。
-3.如功能勾選，則權限必須要勾選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>權限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RA006_APF0202_角色功能清單設定 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色功能清單設定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 ，若選擇是，則進行儲存所選的角色及其對應的功能和權限，若選擇否，則不做任何動作。
 儲存成功:
-1.原畫面顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
-2.點回上一頁按鈕，則以導頁方式開啟APF0202MM1，並帶回原先的查詢條件
+1.以導頁方式開啟APF0202MM1，並帶回原先的查詢條件，及顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
 儲存失敗:顯示修改資料失敗訊息，訊息內容請參考APF訊息表APF_NO 13</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:APF0202MM1
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能新增/修改/權限
-1.3 如是角色來源是選擇職稱角色，此角色所含的功能及權限，已事先於其他系統定義好，於APF 中，僅能查詢，
-    所以APF0202MA1_Grid的相關 checkbox, button均是反灰 disable。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI控制項代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>對應Table Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>如功能勾選，則權限必須要勾選，可複選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>如角色功能清單點選已設定，而尚未儲存即點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消頁面已做的的設定，再以導頁方式開啟APF0202MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
-如已點選角色功能清單設定，且已儲存，點選回上一頁按鈕則導頁方式開啟APF0202MM1，並帶回原先的查詢條件。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1781,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2066,6 +2084,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2078,24 +2141,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2105,35 +2150,71 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2144,9 +2225,126 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2158,225 +2356,57 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3416,14 +3446,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>304800</xdr:rowOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3436,7 +3466,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3444,17 +3474,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3468,13 +3487,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3488,7 +3507,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3496,17 +3515,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6641,7 +6649,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6649,17 +6657,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7216,7 +7213,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9458325" cy="597958"/>
+          <a:ext cx="9458325" cy="590550"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -7810,7 +7807,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12477750" cy="523875"/>
+          <a:ext cx="12039600" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -8861,19 +8858,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>6341</xdr:rowOff>
+      <xdr:colOff>185259</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="圖片 9"/>
+        <xdr:cNvPr id="11" name="圖片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8892,8 +8889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38099" y="1076326"/>
-          <a:ext cx="4752975" cy="3568690"/>
+          <a:off x="38100" y="1076325"/>
+          <a:ext cx="4719159" cy="3543300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8930,7 +8927,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12582525" cy="609600"/>
+          <a:ext cx="12153900" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -9870,7 +9867,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="108" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -9878,63 +9875,63 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="79" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="79" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="109"/>
       <c r="B6" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -9942,42 +9939,42 @@
         <v>214</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="105"/>
       <c r="D7" s="106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="111"/>
       <c r="B8" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="109"/>
       <c r="B10" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
@@ -10143,10 +10140,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="20">
         <v>41563</v>
@@ -10277,10 +10274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10293,17 +10290,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="112" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="M1" s="127" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="113"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="113"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -10320,212 +10317,242 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="131"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="132" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="134"/>
+      <c r="A6" s="124" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="116" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
+      <c r="A8" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113"/>
     </row>
     <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="129" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="120" t="s">
+      <c r="A10" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="112" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="128" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="129" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="A12" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="113"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="128" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="129" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="120" t="s">
+      <c r="A14" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
-    </row>
-    <row r="15" spans="1:13" s="76" customFormat="1" ht="16.5">
-      <c r="A15" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
-    </row>
-    <row r="16" spans="1:13" s="76" customFormat="1" ht="14.25"/>
-    <row r="17" s="76" customFormat="1" ht="14.25"/>
-    <row r="18" s="76" customFormat="1" ht="14.25"/>
-    <row r="19" s="76" customFormat="1" ht="14.25"/>
-    <row r="20" s="76" customFormat="1" ht="14.25"/>
-    <row r="21" s="76" customFormat="1" ht="14.25"/>
-    <row r="22" s="76" customFormat="1" ht="14.25"/>
-    <row r="23" s="76" customFormat="1" ht="14.25"/>
-    <row r="24" s="76" customFormat="1" ht="14.25"/>
-    <row r="25" s="76" customFormat="1" ht="14.25"/>
-    <row r="26" s="76" customFormat="1" ht="14.25"/>
-    <row r="27" s="76" customFormat="1" ht="14.25"/>
-    <row r="28" s="76" customFormat="1" ht="14.25"/>
-    <row r="29" s="76" customFormat="1" ht="14.25"/>
-    <row r="30" s="76" customFormat="1" ht="14.25"/>
-    <row r="31" s="76" customFormat="1" ht="14.25"/>
-    <row r="32" s="76" customFormat="1" ht="14.25"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="113"/>
+    </row>
+    <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="135"/>
+    </row>
+    <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
+      <c r="A16" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="137"/>
+    </row>
+    <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
+      <c r="A17" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
+    </row>
+    <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="20" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="21" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="22" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="23" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="24" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="25" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="26" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="27" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="28" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="29" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="30" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="31" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="32" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="33" s="76" customFormat="1" ht="14.25"/>
     <row r="34" s="76" customFormat="1" ht="14.25"/>
     <row r="35" s="76" customFormat="1" ht="14.25"/>
@@ -10553,38 +10580,35 @@
     <row r="57" s="76" customFormat="1" ht="14.25"/>
     <row r="58" s="76" customFormat="1" ht="14.25"/>
     <row r="59" s="76" customFormat="1" ht="14.25"/>
-    <row r="65" spans="1:12" ht="27.75" customHeight="1"/>
-    <row r="66" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A66" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="123"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="123"/>
-      <c r="J66" s="123"/>
-      <c r="K66" s="123"/>
-      <c r="L66" s="124"/>
+    <row r="60" s="76" customFormat="1" ht="14.25"/>
+    <row r="61" s="76" customFormat="1" ht="14.25"/>
+    <row r="67" spans="1:12" ht="27.75" customHeight="1"/>
+    <row r="68" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A68" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="132"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="133"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
+  <mergeCells count="23">
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -10593,6 +10617,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -10613,14 +10644,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>304800</xdr:rowOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -10638,13 +10669,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -10670,15 +10701,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="112" t="s">
-        <v>245</v>
+      <c r="P1" s="127" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="113"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="113"/>
+      <c r="P3" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10728,8 +10759,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:J32"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10759,8 +10790,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="165" t="s">
-        <v>45</v>
+      <c r="K1" s="161" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -10780,7 +10811,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10793,7 +10824,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10808,614 +10839,614 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="176" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="A10" s="169" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="184" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="177" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="176" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="A12" s="169" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="184" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="A13" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="176" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="A14" s="169" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="152" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="A15" s="181" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+      <c r="C16" s="184" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="163" t="s">
-        <v>218</v>
-      </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
+        <v>132</v>
+      </c>
+      <c r="C17" s="187" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="163" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
+        <v>133</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="163" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
+        <v>134</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="A20" s="142"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="152" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="162"/>
+      <c r="A21" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="148"/>
+      <c r="C22" s="184" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="186"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="151"/>
+        <v>132</v>
+      </c>
+      <c r="C23" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="151"/>
+        <v>133</v>
+      </c>
+      <c r="C24" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="189"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
         <v>3</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="151"/>
+        <v>134</v>
+      </c>
+      <c r="C25" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="189"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="189"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="173"/>
-      <c r="B27" s="174"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
+      <c r="A28" s="178" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="180"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="152" t="s">
-        <v>220</v>
-      </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
+      <c r="A29" s="181" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="148"/>
+      <c r="C30" s="184" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="155" t="s">
-        <v>237</v>
-      </c>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="157"/>
+        <v>132</v>
+      </c>
+      <c r="C31" s="193" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="195"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="158"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="160"/>
+        <v>133</v>
+      </c>
+      <c r="C32" s="196"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="198"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="149" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+        <v>134</v>
+      </c>
+      <c r="C33" s="192" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="145"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="143"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="152" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="154"/>
+      <c r="A35" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="191"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="148"/>
+      <c r="C36" s="184" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="186"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="151"/>
+        <v>132</v>
+      </c>
+      <c r="C37" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="189"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="151"/>
+        <v>133</v>
+      </c>
+      <c r="C38" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="189"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>3</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="151"/>
+        <v>134</v>
+      </c>
+      <c r="C39" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="189"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="189"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="143"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="145"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="143"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="140"/>
+      <c r="A42" s="178" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="199"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
+      <c r="E43" s="201" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="202"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -11424,358 +11455,358 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="195" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
+      <c r="E44" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="145"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="143"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="170" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="171"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="172"/>
+      <c r="A46" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="165"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
         <v>1</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C47" s="89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="195" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="127"/>
+      <c r="E47" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
         <v>2</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="90"/>
-      <c r="E48" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
-      <c r="J48" s="169"/>
+      <c r="E48" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="141"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
         <v>3</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="91"/>
-      <c r="E49" s="167" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="169"/>
+      <c r="E49" s="139" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="140"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="141"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="145"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="159"/>
+      <c r="J50" s="143"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="196" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="198"/>
+      <c r="A51" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="154"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="155"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
         <v>1</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D52" s="93"/>
-      <c r="E52" s="195" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
+      <c r="E52" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
         <v>2</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C53" s="89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D53" s="90"/>
-      <c r="E53" s="135" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
-      <c r="J53" s="137"/>
+      <c r="E53" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="158"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
         <v>3</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C54" s="89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D54" s="90"/>
-      <c r="E54" s="135" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="136"/>
-      <c r="J54" s="137"/>
+      <c r="E54" s="156" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="158"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
         <v>4</v>
       </c>
       <c r="B55" s="85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C55" s="89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D55" s="90"/>
-      <c r="E55" s="135" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="137"/>
+      <c r="E55" s="156" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="158"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="E56" s="139" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A57" s="55">
         <v>2</v>
       </c>
       <c r="B57" s="85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C57" s="89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="90"/>
-      <c r="E57" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="136"/>
-      <c r="J57" s="137"/>
+      <c r="E57" s="156" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="158"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="144"/>
-      <c r="C58" s="144"/>
-      <c r="D58" s="144"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="144"/>
-      <c r="G58" s="144"/>
-      <c r="H58" s="144"/>
-      <c r="I58" s="144"/>
-      <c r="J58" s="145"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="159"/>
+      <c r="G58" s="159"/>
+      <c r="H58" s="159"/>
+      <c r="I58" s="159"/>
+      <c r="J58" s="143"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="192" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="193"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="193"/>
-      <c r="F59" s="193"/>
-      <c r="G59" s="193"/>
-      <c r="H59" s="193"/>
-      <c r="I59" s="193"/>
-      <c r="J59" s="194"/>
+      <c r="A59" s="149" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="150"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="150"/>
+      <c r="J59" s="151"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="190" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="191"/>
-      <c r="D60" s="167" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="121"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="139" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="113"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="187"/>
-      <c r="B61" s="188"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="188"/>
-      <c r="F61" s="188"/>
-      <c r="G61" s="188"/>
-      <c r="H61" s="188"/>
-      <c r="I61" s="188"/>
-      <c r="J61" s="189"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="146"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="169"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="141"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="167"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="168"/>
-      <c r="G63" s="168"/>
-      <c r="H63" s="168"/>
-      <c r="I63" s="168"/>
-      <c r="J63" s="169"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="141"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="187"/>
-      <c r="B64" s="188"/>
-      <c r="C64" s="188"/>
-      <c r="D64" s="188"/>
-      <c r="E64" s="188"/>
-      <c r="F64" s="188"/>
-      <c r="G64" s="188"/>
-      <c r="H64" s="188"/>
-      <c r="I64" s="188"/>
-      <c r="J64" s="189"/>
+      <c r="A64" s="144"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
+      <c r="J64" s="146"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="143"/>
-      <c r="C65" s="145"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="168"/>
-      <c r="F65" s="168"/>
-      <c r="G65" s="168"/>
-      <c r="H65" s="168"/>
-      <c r="I65" s="168"/>
-      <c r="J65" s="169"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="141"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B66" s="69"/>
       <c r="C66" s="70"/>
@@ -11792,40 +11823,78 @@
         <v>1</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="143"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="121"/>
+        <v>163</v>
+      </c>
+      <c r="C67" s="142"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="113"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
         <v>2</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="164"/>
-      <c r="D68" s="164"/>
-      <c r="E68" s="164"/>
-      <c r="F68" s="164"/>
-      <c r="G68" s="164"/>
-      <c r="H68" s="164"/>
-      <c r="I68" s="164"/>
-      <c r="J68" s="164"/>
+        <v>163</v>
+      </c>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="160"/>
+      <c r="G68" s="160"/>
+      <c r="H68" s="160"/>
+      <c r="I68" s="160"/>
+      <c r="J68" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A59:J59"/>
@@ -11842,49 +11911,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B58:J58"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11907,7 +11938,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11920,7 +11951,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="38" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" style="38" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -11937,8 +11968,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="165" t="s">
-        <v>45</v>
+      <c r="K1" s="161" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -11964,7 +11995,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -11982,7 +12013,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12026,18 +12057,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="201"/>
+      <c r="A6" s="203" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="205"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -12047,19 +12078,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -12068,10 +12099,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -12104,34 +12135,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="199" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
+      <c r="A10" s="203" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -12140,10 +12171,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -12154,26 +12185,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -12182,26 +12213,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -12210,60 +12241,60 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="199" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201"/>
+      <c r="A16" s="203" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="204"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="205"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -12272,10 +12303,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -12286,24 +12317,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -12312,24 +12343,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -12338,27 +12369,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J20" s="81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -12366,27 +12397,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -12428,8 +12459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12457,8 +12488,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="165" t="s">
-        <v>45</v>
+      <c r="K1" s="161" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -12478,7 +12509,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -12491,7 +12522,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -12506,622 +12537,622 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="184" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="177" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="152" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="A15" s="181" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="146" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+        <v>130</v>
+      </c>
+      <c r="C16" s="184" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="163" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="187" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="163" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
+        <v>98</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="45">
         <v>3</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="163" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
+        <v>103</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A20" s="152" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="162"/>
+      <c r="A20" s="181" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="183"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="C21" s="184" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="186"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="202" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="203"/>
+        <v>98</v>
+      </c>
+      <c r="C22" s="219" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="211"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="203"/>
+        <v>198</v>
+      </c>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="211"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="203"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="203"/>
+        <v>185</v>
+      </c>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="55">
         <v>4</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="203"/>
+        <v>186</v>
+      </c>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>5</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="127" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="203"/>
+        <v>226</v>
+      </c>
+      <c r="C26" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="211"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="210"/>
-      <c r="B27" s="211"/>
-      <c r="C27" s="211"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="212"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="140"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A29" s="152" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
+      <c r="A29" s="181" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="146" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="148"/>
+        <v>130</v>
+      </c>
+      <c r="C30" s="184" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="45">
         <v>1</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="163" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="151"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A32" s="45">
         <v>2</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="151"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1" ht="32.25" customHeight="1">
       <c r="A33" s="94">
         <v>3</v>
       </c>
       <c r="B33" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="212" t="s">
         <v>221</v>
       </c>
-      <c r="C33" s="215" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="216"/>
-      <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="217"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="214"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A34" s="152" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="162"/>
+      <c r="A34" s="181" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="148"/>
+      <c r="C35" s="184" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="186"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1">
       <c r="A36" s="55">
         <v>1</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="163" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="205"/>
+        <v>98</v>
+      </c>
+      <c r="C36" s="187" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="215"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="216"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="163" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="204"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="205"/>
+        <v>198</v>
+      </c>
+      <c r="C37" s="187" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="216"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="163" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="205"/>
+        <v>185</v>
+      </c>
+      <c r="C38" s="187" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="215"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="216"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>4</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="163" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="204"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="205"/>
+        <v>186</v>
+      </c>
+      <c r="C39" s="187" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="216"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="55">
         <v>5</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="C40" s="163" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" s="204"/>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="205"/>
+        <v>228</v>
+      </c>
+      <c r="C40" s="187" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="215"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="216"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="173"/>
-      <c r="B41" s="213"/>
-      <c r="C41" s="213"/>
-      <c r="D41" s="213"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="214"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="210"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="186"/>
+      <c r="A42" s="178" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
     </row>
     <row r="43" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
+      <c r="E43" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="202"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -13130,72 +13161,72 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="195" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
+      <c r="E44" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A45" s="170" t="s">
-        <v>208</v>
-      </c>
-      <c r="B45" s="206"/>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="206"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="207"/>
+      <c r="A45" s="163" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="220"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
+      <c r="E45" s="220"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="221"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="65">
         <v>1</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" s="93"/>
-      <c r="E46" s="195" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
+      <c r="E46" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A47" s="65">
         <v>2</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="195" t="s">
-        <v>205</v>
-      </c>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="127"/>
+      <c r="E47" s="152" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="103"/>
@@ -13210,18 +13241,18 @@
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="170" t="s">
-        <v>207</v>
-      </c>
-      <c r="B49" s="171"/>
-      <c r="C49" s="171"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="172"/>
+      <c r="A49" s="163" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="165"/>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
     </row>
@@ -13230,152 +13261,152 @@
         <v>1</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="195" t="s">
-        <v>244</v>
-      </c>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
+      <c r="E50" s="152" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
     </row>
     <row r="51" spans="1:12" s="52" customFormat="1" ht="136.5" customHeight="1">
       <c r="A51" s="63">
         <v>2</v>
       </c>
       <c r="B51" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="89" t="s">
-        <v>210</v>
-      </c>
       <c r="D51" s="90"/>
-      <c r="E51" s="135" t="s">
-        <v>235</v>
-      </c>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="137"/>
+      <c r="E51" s="156" t="s">
+        <v>252</v>
+      </c>
+      <c r="F51" s="157"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="158"/>
     </row>
     <row r="52" spans="1:12" s="52" customFormat="1" ht="54.75" customHeight="1">
       <c r="A52" s="65">
         <v>3</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D52" s="91"/>
-      <c r="E52" s="167" t="s">
-        <v>213</v>
-      </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="121"/>
+      <c r="E52" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="192" t="s">
+      <c r="A53" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="193"/>
-      <c r="C53" s="193"/>
-      <c r="D53" s="193"/>
-      <c r="E53" s="193"/>
-      <c r="F53" s="193"/>
-      <c r="G53" s="193"/>
-      <c r="H53" s="193"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="194"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="151"/>
     </row>
     <row r="54" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="190" t="s">
+      <c r="B54" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="191"/>
-      <c r="D54" s="167" t="s">
+      <c r="C54" s="148"/>
+      <c r="D54" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="121"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="113"/>
     </row>
     <row r="55" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="187"/>
-      <c r="B55" s="208"/>
-      <c r="C55" s="208"/>
-      <c r="D55" s="208"/>
-      <c r="E55" s="208"/>
-      <c r="F55" s="208"/>
-      <c r="G55" s="208"/>
-      <c r="H55" s="208"/>
-      <c r="I55" s="208"/>
-      <c r="J55" s="209"/>
+      <c r="A55" s="144"/>
+      <c r="B55" s="217"/>
+      <c r="C55" s="217"/>
+      <c r="D55" s="217"/>
+      <c r="E55" s="217"/>
+      <c r="F55" s="217"/>
+      <c r="G55" s="217"/>
+      <c r="H55" s="217"/>
+      <c r="I55" s="217"/>
+      <c r="J55" s="218"/>
     </row>
     <row r="56" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="65"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="65"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="121"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="113"/>
     </row>
     <row r="58" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="187"/>
-      <c r="B58" s="208"/>
-      <c r="C58" s="208"/>
-      <c r="D58" s="208"/>
-      <c r="E58" s="208"/>
-      <c r="F58" s="208"/>
-      <c r="G58" s="208"/>
-      <c r="H58" s="208"/>
-      <c r="I58" s="208"/>
-      <c r="J58" s="209"/>
+      <c r="A58" s="144"/>
+      <c r="B58" s="217"/>
+      <c r="C58" s="217"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="217"/>
+      <c r="G58" s="217"/>
+      <c r="H58" s="217"/>
+      <c r="I58" s="217"/>
+      <c r="J58" s="218"/>
     </row>
     <row r="59" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="65"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="113"/>
     </row>
     <row r="60" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A60" s="68" t="s">
@@ -13398,14 +13429,14 @@
       <c r="B61" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="143"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="121"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="112"/>
+      <c r="J61" s="113"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="65">
@@ -13414,14 +13445,14 @@
       <c r="B62" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="164"/>
-      <c r="D62" s="164"/>
-      <c r="E62" s="164"/>
-      <c r="F62" s="164"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="164"/>
-      <c r="I62" s="164"/>
-      <c r="J62" s="164"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="160"/>
+      <c r="J62" s="160"/>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="50"/>
@@ -13434,12 +13465,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="A49:J49"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A28:J28"/>
@@ -13456,39 +13514,12 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="C35:J35"/>
     <mergeCell ref="C36:J36"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13524,7 +13555,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="15" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="15" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -13541,8 +13572,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="165" t="s">
-        <v>45</v>
+      <c r="K1" s="161" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -13568,7 +13599,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -13586,7 +13617,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -13630,18 +13661,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="199" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="201"/>
+      <c r="A6" s="203" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="205"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -13651,19 +13682,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>172</v>
-      </c>
       <c r="E7" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -13672,10 +13703,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13708,34 +13739,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="199" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
+      <c r="A10" s="203" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>172</v>
-      </c>
       <c r="E11" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -13744,10 +13775,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13758,27 +13789,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -13786,27 +13817,27 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="221" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="222"/>
+        <v>57</v>
+      </c>
+      <c r="F13" s="225" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="226"/>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13814,58 +13845,58 @@
         <v>3</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E14" s="96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H14" s="80"/>
       <c r="I14" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J14" s="95"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="199" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201"/>
+      <c r="A16" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="204"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="205"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>172</v>
-      </c>
       <c r="E17" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -13874,10 +13905,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -13888,27 +13919,27 @@
         <v>1</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29.25" customHeight="1">
@@ -13916,27 +13947,27 @@
         <v>2</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="101" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F19" s="77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="J19" s="218" t="s">
-        <v>201</v>
+        <v>224</v>
+      </c>
+      <c r="J19" s="222" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" customHeight="1">
@@ -13944,79 +13975,79 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="84" t="s">
         <v>183</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>181</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="86" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="77" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="J20" s="219"/>
+        <v>224</v>
+      </c>
+      <c r="J20" s="223"/>
     </row>
     <row r="21" spans="1:10" ht="33.75" customHeight="1">
       <c r="A21" s="45">
         <v>4</v>
       </c>
       <c r="B21" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="84" t="s">
         <v>184</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>182</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="86" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="J21" s="220"/>
+        <v>224</v>
+      </c>
+      <c r="J21" s="224"/>
     </row>
     <row r="22" spans="1:10" ht="82.5">
       <c r="A22" s="45">
         <v>5</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -38,12 +43,12 @@
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="254">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -449,10 +454,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0:預設角色 1:職稱角色 2:自定角色</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>GROUP_ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -917,10 +918,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>下拉式選單，為必填欄位，若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，並將cursor停留於該欄位且顏色反橘</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>檢核項目</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1040,10 +1037,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之功能名稱必須存在於APF apf_menu_root 或 apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">APF0101MA1_Grid
 </t>
@@ -1228,6 +1221,21 @@
 儲存成功:
 1.以導頁方式開啟APF0202MM1，並帶回原先的查詢條件，及顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
 儲存失敗:顯示修改資料失敗訊息，訊息內容請參考APF訊息表APF_NO 13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:預設角色 1:職稱角色 2:自訂角色</t>
+  </si>
+  <si>
+    <t>0:預設角色 1:職稱角色 2:自訂角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉式選單，為必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2084,13 +2092,70 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2099,27 +2164,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2129,41 +2173,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2174,10 +2278,55 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2215,151 +2364,34 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2375,9 +2407,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2386,27 +2415,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3466,7 +3474,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3474,6 +3482,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3493,8 +3512,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>85</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:row>90</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3507,7 +3526,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3515,6 +3534,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6649,7 +6679,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6657,6 +6687,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -9867,7 +9908,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="108" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -9903,14 +9944,14 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -9918,7 +9959,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>62</v>
@@ -9927,7 +9968,7 @@
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="109"/>
       <c r="B6" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="79" t="s">
@@ -9936,10 +9977,10 @@
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="105"/>
       <c r="D7" s="106" t="s">
@@ -9949,7 +9990,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="111"/>
       <c r="B8" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="107" t="s">
@@ -10276,8 +10317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10292,15 +10333,15 @@
       <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="112" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="128"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="128"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -10317,226 +10358,226 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="A6" s="136" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="121" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="112" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="113"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="121" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="112" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="138" t="s">
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="138" t="s">
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="112" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="113"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
     </row>
     <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="135"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="128"/>
     </row>
     <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="136" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="137"/>
+      <c r="A16" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="131"/>
     </row>
     <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="113"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -10584,23 +10625,30 @@
     <row r="61" s="76" customFormat="1" ht="14.25"/>
     <row r="67" spans="1:12" ht="27.75" customHeight="1"/>
     <row r="68" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A68" s="131" t="s">
+      <c r="A68" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="132"/>
-      <c r="C68" s="132"/>
-      <c r="D68" s="132"/>
-      <c r="E68" s="132"/>
-      <c r="F68" s="132"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="133"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="123"/>
+      <c r="G68" s="123"/>
+      <c r="H68" s="123"/>
+      <c r="I68" s="123"/>
+      <c r="J68" s="123"/>
+      <c r="K68" s="123"/>
+      <c r="L68" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -10617,13 +10665,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -10675,8 +10716,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>90</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -10701,15 +10742,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="127" t="s">
-        <v>240</v>
+      <c r="P1" s="112" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="128"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="128"/>
+      <c r="P3" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10759,7 +10800,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -10790,7 +10831,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="161" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -10811,7 +10852,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="170"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10824,7 +10865,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="170"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10839,614 +10880,614 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="187"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="180" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+    </row>
+    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
+      <c r="A11" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
+    </row>
+    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-    </row>
-    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
+    </row>
+    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="181" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="A15" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="C16" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="187" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
+        <v>131</v>
+      </c>
+      <c r="C17" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="187" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
+        <v>132</v>
+      </c>
+      <c r="C18" s="167" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="187" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
+        <v>133</v>
+      </c>
+      <c r="C19" s="167" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="142"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="143"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="181" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+      <c r="A21" s="156" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="186"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+        <v>131</v>
+      </c>
+      <c r="C23" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="189"/>
+        <v>132</v>
+      </c>
+      <c r="C24" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="155"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
         <v>3</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="189"/>
+        <v>133</v>
+      </c>
+      <c r="C25" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="155"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="155"/>
+    </row>
+    <row r="27" spans="1:10" s="52" customFormat="1">
+      <c r="A27" s="177"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
+    </row>
+    <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189"/>
-    </row>
-    <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="166"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
-    </row>
-    <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="179"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="180"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="190"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="181" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="A29" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="193" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="195"/>
+        <v>131</v>
+      </c>
+      <c r="C31" s="159" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="161"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="196"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="198"/>
+        <v>132</v>
+      </c>
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="192" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+        <v>133</v>
+      </c>
+      <c r="C33" s="153" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="142"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="143"/>
+      <c r="A34" s="147"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="149"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="181" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="191"/>
+      <c r="A35" s="156" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="186"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="152"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="189"/>
+        <v>131</v>
+      </c>
+      <c r="C37" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="155"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="189"/>
+        <v>132</v>
+      </c>
+      <c r="C38" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="155"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>3</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="189"/>
+        <v>133</v>
+      </c>
+      <c r="C39" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="155"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="189"/>
+      <c r="C40" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="155"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="142"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="143"/>
+      <c r="A41" s="147"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="149"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="178" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="199"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="199"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="199"/>
-      <c r="H42" s="199"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
+      <c r="A42" s="142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="D43" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="E43" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="201" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="202"/>
-      <c r="G43" s="202"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="202"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -11455,358 +11496,358 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="152" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
+      <c r="E44" s="199" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="159"/>
-      <c r="E45" s="159"/>
-      <c r="F45" s="159"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="159"/>
-      <c r="I45" s="159"/>
-      <c r="J45" s="143"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="149"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="165"/>
+      <c r="A46" s="174" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="175"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="176"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
         <v>1</v>
       </c>
       <c r="B47" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="D47" s="93"/>
+      <c r="E47" s="199" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="152" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="130"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
         <v>2</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="90"/>
-      <c r="E48" s="139" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="141"/>
+      <c r="E48" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="172"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="173"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
         <v>3</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="91"/>
-      <c r="E49" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="141"/>
+      <c r="E49" s="171" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="172"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="173"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="143"/>
+      <c r="B50" s="148"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="149"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="153" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="155"/>
+      <c r="A51" s="200" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="201"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="201"/>
+      <c r="E51" s="201"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="201"/>
+      <c r="H51" s="201"/>
+      <c r="I51" s="201"/>
+      <c r="J51" s="202"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
         <v>1</v>
       </c>
       <c r="B52" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="93"/>
+      <c r="E52" s="199" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
         <v>2</v>
       </c>
       <c r="B53" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="90"/>
+      <c r="E53" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="156" t="s">
-        <v>153</v>
-      </c>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="158"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="141"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
         <v>3</v>
       </c>
       <c r="B54" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="90"/>
+      <c r="E54" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="156" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="158"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="141"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
         <v>4</v>
       </c>
       <c r="B55" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="90"/>
+      <c r="E55" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="90"/>
-      <c r="E55" s="156" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="158"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="141"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="E56" s="171" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A57" s="55">
         <v>2</v>
       </c>
       <c r="B57" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="89" t="s">
-        <v>172</v>
-      </c>
       <c r="D57" s="90"/>
-      <c r="E57" s="156" t="s">
-        <v>220</v>
-      </c>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="158"/>
+      <c r="E57" s="139" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="140"/>
+      <c r="J57" s="141"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="159"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="159"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="159"/>
-      <c r="I58" s="159"/>
-      <c r="J58" s="143"/>
+      <c r="B58" s="148"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="149"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="149" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="150"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="150"/>
-      <c r="E59" s="150"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="151"/>
+      <c r="A59" s="196" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="197"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="197"/>
+      <c r="F59" s="197"/>
+      <c r="G59" s="197"/>
+      <c r="H59" s="197"/>
+      <c r="I59" s="197"/>
+      <c r="J59" s="198"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="194" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="195"/>
+      <c r="D60" s="171" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="148"/>
-      <c r="D60" s="139" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="113"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="144"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="145"/>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="146"/>
+      <c r="A61" s="191"/>
+      <c r="B61" s="192"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="192"/>
+      <c r="F61" s="192"/>
+      <c r="G61" s="192"/>
+      <c r="H61" s="192"/>
+      <c r="I61" s="192"/>
+      <c r="J61" s="193"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="141"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="173"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="141"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="171"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="172"/>
+      <c r="G63" s="172"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="172"/>
+      <c r="J63" s="173"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="144"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="145"/>
-      <c r="G64" s="145"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="145"/>
-      <c r="J64" s="146"/>
+      <c r="A64" s="191"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="192"/>
+      <c r="D64" s="192"/>
+      <c r="E64" s="192"/>
+      <c r="F64" s="192"/>
+      <c r="G64" s="192"/>
+      <c r="H64" s="192"/>
+      <c r="I64" s="192"/>
+      <c r="J64" s="193"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="142"/>
-      <c r="C65" s="143"/>
-      <c r="D65" s="139"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="141"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="171"/>
+      <c r="E65" s="172"/>
+      <c r="F65" s="172"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="173"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="69"/>
       <c r="C66" s="70"/>
@@ -11823,62 +11864,56 @@
         <v>1</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" s="142"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="113"/>
+        <v>162</v>
+      </c>
+      <c r="C67" s="147"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="121"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
         <v>2</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="160"/>
-      <c r="D68" s="160"/>
-      <c r="E68" s="160"/>
-      <c r="F68" s="160"/>
-      <c r="G68" s="160"/>
-      <c r="H68" s="160"/>
-      <c r="I68" s="160"/>
-      <c r="J68" s="160"/>
+        <v>162</v>
+      </c>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="168"/>
+      <c r="F68" s="168"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="168"/>
+      <c r="I68" s="168"/>
+      <c r="J68" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B58:J58"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="K1:K3"/>
@@ -11895,27 +11930,33 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D62:J62"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11938,7 +11979,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11968,7 +12009,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="161" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -11995,7 +12036,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="170"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12013,7 +12054,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12078,19 +12119,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>233</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>236</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -12099,10 +12140,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -12150,19 +12191,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>233</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>236</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -12171,10 +12212,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -12260,10 +12301,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -12282,19 +12323,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>233</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>236</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -12303,10 +12344,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -12320,7 +12361,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
@@ -12334,7 +12375,7 @@
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -12346,7 +12387,7 @@
         <v>79</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
@@ -12360,7 +12401,7 @@
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -12372,7 +12413,7 @@
         <v>85</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
@@ -12386,10 +12427,10 @@
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" s="81" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -12397,24 +12438,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="80" t="s">
         <v>93</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>94</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>95</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>96</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="43" t="s">
         <v>58</v>
@@ -12459,8 +12500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:J51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12488,7 +12529,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="161" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -12509,7 +12550,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="170"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -12522,7 +12563,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="170"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -12537,238 +12578,238 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="187"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="177" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="A11" s="188" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="181" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="A15" s="156" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="184" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
+      <c r="C16" s="150" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="187" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
+        <v>178</v>
+      </c>
+      <c r="C17" s="167" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="187" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
+        <v>97</v>
+      </c>
+      <c r="C18" s="167" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="45">
         <v>3</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="187" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
+        <v>102</v>
+      </c>
+      <c r="C19" s="167" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A20" s="181" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
+      <c r="A20" s="156" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -12777,226 +12818,226 @@
       <c r="B21" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="184" t="s">
+      <c r="C21" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="219" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="211"/>
+        <v>97</v>
+      </c>
+      <c r="C22" s="206" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="207"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
+        <v>197</v>
+      </c>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="207"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="211"/>
+        <v>184</v>
+      </c>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="55">
         <v>4</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="211"/>
+        <v>185</v>
+      </c>
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>5</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="211"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="211"/>
+        <v>223</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="207"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
+      <c r="A27" s="214"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="216"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="199"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="144"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A29" s="181" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="A29" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="184" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
+      <c r="C30" s="150" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="45">
         <v>1</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="187" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+        <v>178</v>
+      </c>
+      <c r="C31" s="167" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="155"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A32" s="45">
         <v>2</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="187" t="s">
-        <v>216</v>
-      </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
+        <v>97</v>
+      </c>
+      <c r="C32" s="167" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="155"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1" ht="32.25" customHeight="1">
       <c r="A33" s="94">
         <v>3</v>
       </c>
       <c r="B33" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="219" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="221"/>
+    </row>
+    <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A34" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="212" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="214"/>
-    </row>
-    <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A34" s="181" t="s">
-        <v>222</v>
-      </c>
-      <c r="B34" s="182"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
@@ -13005,132 +13046,132 @@
       <c r="B35" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="184" t="s">
+      <c r="C35" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="186"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="152"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1">
       <c r="A36" s="55">
         <v>1</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="187" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="215"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="215"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="216"/>
+        <v>97</v>
+      </c>
+      <c r="C36" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="209"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="C37" s="187" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="215"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="216"/>
+        <v>197</v>
+      </c>
+      <c r="C37" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="208"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="209"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="187" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="216"/>
+        <v>184</v>
+      </c>
+      <c r="C38" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="208"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="209"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>4</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="187" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="216"/>
+        <v>185</v>
+      </c>
+      <c r="C39" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="208"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="209"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="55">
         <v>5</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="187" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
-      <c r="F40" s="215"/>
-      <c r="G40" s="215"/>
-      <c r="H40" s="215"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="216"/>
+        <v>225</v>
+      </c>
+      <c r="C40" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="208"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="209"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="166"/>
-      <c r="B41" s="209"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="209"/>
-      <c r="F41" s="209"/>
-      <c r="G41" s="209"/>
-      <c r="H41" s="209"/>
-      <c r="I41" s="209"/>
-      <c r="J41" s="210"/>
+      <c r="A41" s="177"/>
+      <c r="B41" s="217"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="217"/>
+      <c r="E41" s="217"/>
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="218"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="179"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="180"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="190"/>
     </row>
     <row r="43" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -13145,14 +13186,14 @@
       <c r="D43" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="201" t="s">
+      <c r="E43" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="202"/>
-      <c r="G43" s="202"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="202"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -13161,52 +13202,52 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="152" t="s">
-        <v>205</v>
-      </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
+      <c r="E44" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A45" s="163" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="220"/>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="220"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="221"/>
+      <c r="A45" s="174" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="65">
         <v>1</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C46" s="89" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="93"/>
-      <c r="E46" s="152" t="s">
-        <v>208</v>
-      </c>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="120"/>
+      <c r="E46" s="199" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A47" s="65">
@@ -13219,14 +13260,14 @@
         <v>50</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="E47" s="199" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="130"/>
     </row>
     <row r="48" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="103"/>
@@ -13241,18 +13282,18 @@
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="163" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="165"/>
+      <c r="A49" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="175"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
+      <c r="J49" s="176"/>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
     </row>
@@ -13261,152 +13302,152 @@
         <v>1</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="152" t="s">
-        <v>251</v>
-      </c>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="120"/>
+      <c r="E50" s="199" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
     </row>
     <row r="51" spans="1:12" s="52" customFormat="1" ht="136.5" customHeight="1">
       <c r="A51" s="63">
         <v>2</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D51" s="90"/>
-      <c r="E51" s="156" t="s">
-        <v>252</v>
-      </c>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="158"/>
+      <c r="E51" s="139" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="141"/>
     </row>
     <row r="52" spans="1:12" s="52" customFormat="1" ht="54.75" customHeight="1">
       <c r="A52" s="65">
         <v>3</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D52" s="91"/>
-      <c r="E52" s="139" t="s">
-        <v>248</v>
-      </c>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="113"/>
+      <c r="E52" s="171" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="121"/>
     </row>
     <row r="53" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="149" t="s">
+      <c r="A53" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="150"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="151"/>
+      <c r="B53" s="197"/>
+      <c r="C53" s="197"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="197"/>
+      <c r="G53" s="197"/>
+      <c r="H53" s="197"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="198"/>
     </row>
     <row r="54" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="147" t="s">
+      <c r="B54" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="148"/>
-      <c r="D54" s="139" t="s">
+      <c r="C54" s="195"/>
+      <c r="D54" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="113"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="121"/>
     </row>
     <row r="55" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="144"/>
-      <c r="B55" s="217"/>
-      <c r="C55" s="217"/>
-      <c r="D55" s="217"/>
-      <c r="E55" s="217"/>
-      <c r="F55" s="217"/>
-      <c r="G55" s="217"/>
-      <c r="H55" s="217"/>
-      <c r="I55" s="217"/>
-      <c r="J55" s="218"/>
+      <c r="A55" s="191"/>
+      <c r="B55" s="212"/>
+      <c r="C55" s="212"/>
+      <c r="D55" s="212"/>
+      <c r="E55" s="212"/>
+      <c r="F55" s="212"/>
+      <c r="G55" s="212"/>
+      <c r="H55" s="212"/>
+      <c r="I55" s="212"/>
+      <c r="J55" s="213"/>
     </row>
     <row r="56" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="65"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
     </row>
     <row r="57" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="65"/>
-      <c r="B57" s="142"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="113"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="121"/>
     </row>
     <row r="58" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="144"/>
-      <c r="B58" s="217"/>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="217"/>
-      <c r="G58" s="217"/>
-      <c r="H58" s="217"/>
-      <c r="I58" s="217"/>
-      <c r="J58" s="218"/>
+      <c r="A58" s="191"/>
+      <c r="B58" s="212"/>
+      <c r="C58" s="212"/>
+      <c r="D58" s="212"/>
+      <c r="E58" s="212"/>
+      <c r="F58" s="212"/>
+      <c r="G58" s="212"/>
+      <c r="H58" s="212"/>
+      <c r="I58" s="212"/>
+      <c r="J58" s="213"/>
     </row>
     <row r="59" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="65"/>
-      <c r="B59" s="142"/>
-      <c r="C59" s="143"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="113"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="121"/>
     </row>
     <row r="60" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A60" s="68" t="s">
@@ -13429,14 +13470,14 @@
       <c r="B61" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="142"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="113"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="121"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="65">
@@ -13445,14 +13486,14 @@
       <c r="B62" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="160"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="160"/>
-      <c r="G62" s="160"/>
-      <c r="H62" s="160"/>
-      <c r="I62" s="160"/>
-      <c r="J62" s="160"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="168"/>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="50"/>
@@ -13465,23 +13506,28 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:J59"/>
@@ -13498,28 +13544,23 @@
     <mergeCell ref="A53:J53"/>
     <mergeCell ref="E44:J44"/>
     <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13541,7 +13582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -13572,7 +13613,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="161" t="s">
+      <c r="K1" s="169" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -13599,7 +13640,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="170"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -13617,7 +13658,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -13682,19 +13723,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>176</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>177</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -13703,10 +13744,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13740,7 +13781,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="204"/>
       <c r="C10" s="204"/>
@@ -13754,19 +13795,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D11" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>176</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>177</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -13775,10 +13816,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13789,27 +13830,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -13817,19 +13858,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>99</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>100</v>
       </c>
       <c r="E13" s="78" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="225" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="226"/>
       <c r="H13" s="42"/>
@@ -13837,7 +13878,7 @@
         <v>78</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13845,32 +13886,32 @@
         <v>3</v>
       </c>
       <c r="B14" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="D14" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="E14" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="F14" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="G14" s="77" t="s">
         <v>107</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>108</v>
       </c>
       <c r="H14" s="80"/>
       <c r="I14" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" s="95"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="203" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="204"/>
       <c r="C16" s="204"/>
@@ -13884,19 +13925,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="C17" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="D17" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>176</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>177</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -13905,10 +13946,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -13919,27 +13960,27 @@
         <v>1</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29.25" customHeight="1">
@@ -13947,27 +13988,27 @@
         <v>2</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>110</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>111</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J19" s="222" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" customHeight="1">
@@ -13975,24 +14016,24 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F20" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="77" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J20" s="223"/>
     </row>
@@ -14001,24 +14042,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J21" s="224"/>
     </row>
@@ -14027,27 +14068,27 @@
         <v>5</v>
       </c>
       <c r="B22" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>114</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>115</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="G22" s="77" t="s">
         <v>117</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="252">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -194,10 +194,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -995,21 +991,6 @@
   </si>
   <si>
     <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查詢角色
-1. 使用者輸入查詢條件篩選欲選取的角色
-2. 系統依查詢條件顯示資料於grid
-3. 使用者選取特定角色進行資料設定
-查詢功能清單資訊
-1. 系統人員於特定色角色下輸入查詢條件篩選功能清單
-2. 系統依查詢條件顯示資料於grid
-維護Mapping設定
-1. 使用者選取適當功能清單
-2. 功能清單加入角色 or 移除後點選儲存按鈕
-3. 系統依設定資訊儲存並回應設定成功資訊
-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1789,7 +1770,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2092,6 +2073,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2104,24 +2130,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2131,47 +2139,59 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2182,9 +2202,126 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2196,225 +2333,57 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3454,13 +3423,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3506,13 +3475,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>66</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>88</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9908,7 +9877,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -9916,106 +9885,106 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="79" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="109"/>
       <c r="B6" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="105"/>
       <c r="D7" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="111"/>
       <c r="B8" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="109"/>
       <c r="B10" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
@@ -10181,10 +10150,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="20">
         <v>41563</v>
@@ -10315,10 +10284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10331,17 +10300,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="112" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="M1" s="127" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="113"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="113"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -10358,242 +10327,212 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="136" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="138"/>
+      <c r="A6" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="116" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113"/>
+    </row>
+    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
+    </row>
+    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
-    </row>
-    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
-    </row>
-    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="133" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="120" t="s">
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
+    </row>
+    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
+    </row>
+    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
+      <c r="A12" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
-    </row>
-    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
-    </row>
-    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="133" t="s">
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="113"/>
+    </row>
+    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
+    </row>
+    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A14" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
-    </row>
-    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="132" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
-    </row>
-    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="133" t="s">
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
-    </row>
-    <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
-    </row>
-    <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="131"/>
-    </row>
-    <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
-    </row>
-    <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="20" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="21" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="22" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="23" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="24" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="25" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="26" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="27" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="28" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="29" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="30" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="31" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="32" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="113"/>
+    </row>
+    <row r="15" spans="1:13" s="76" customFormat="1" ht="16.5">
+      <c r="A15" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="113"/>
+    </row>
+    <row r="16" spans="1:13" s="76" customFormat="1" ht="14.25"/>
+    <row r="17" s="76" customFormat="1" ht="14.25"/>
+    <row r="18" s="76" customFormat="1" ht="14.25"/>
+    <row r="19" s="76" customFormat="1" ht="14.25"/>
+    <row r="20" s="76" customFormat="1" ht="14.25"/>
+    <row r="21" s="76" customFormat="1" ht="14.25"/>
+    <row r="22" s="76" customFormat="1" ht="14.25"/>
+    <row r="23" s="76" customFormat="1" ht="14.25"/>
+    <row r="24" s="76" customFormat="1" ht="14.25"/>
+    <row r="25" s="76" customFormat="1" ht="14.25"/>
+    <row r="26" s="76" customFormat="1" ht="14.25"/>
+    <row r="27" s="76" customFormat="1" ht="14.25"/>
+    <row r="28" s="76" customFormat="1" ht="14.25"/>
+    <row r="29" s="76" customFormat="1" ht="14.25"/>
+    <row r="30" s="76" customFormat="1" ht="14.25"/>
+    <row r="31" s="76" customFormat="1" ht="14.25"/>
+    <row r="32" s="76" customFormat="1" ht="14.25"/>
     <row r="33" s="76" customFormat="1" ht="14.25"/>
     <row r="34" s="76" customFormat="1" ht="14.25"/>
     <row r="35" s="76" customFormat="1" ht="14.25"/>
@@ -10621,42 +10560,31 @@
     <row r="57" s="76" customFormat="1" ht="14.25"/>
     <row r="58" s="76" customFormat="1" ht="14.25"/>
     <row r="59" s="76" customFormat="1" ht="14.25"/>
-    <row r="60" s="76" customFormat="1" ht="14.25"/>
-    <row r="61" s="76" customFormat="1" ht="14.25"/>
-    <row r="67" spans="1:12" ht="27.75" customHeight="1"/>
-    <row r="68" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A68" s="122" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="123"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="123"/>
-      <c r="I68" s="123"/>
-      <c r="J68" s="123"/>
-      <c r="K68" s="123"/>
-      <c r="L68" s="124"/>
+    <row r="65" spans="1:12" ht="27.75" customHeight="1"/>
+    <row r="66" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A66" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="132"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="132"/>
+      <c r="E66" s="132"/>
+      <c r="F66" s="132"/>
+      <c r="G66" s="132"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="132"/>
+      <c r="J66" s="132"/>
+      <c r="K66" s="132"/>
+      <c r="L66" s="133"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
+  <mergeCells count="21">
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A66:L66"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -10665,6 +10593,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -10685,13 +10620,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
@@ -10710,13 +10645,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>88</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -10742,15 +10677,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="112" t="s">
-        <v>237</v>
+      <c r="P1" s="127" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="113"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="113"/>
+      <c r="P3" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10831,8 +10766,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="169" t="s">
-        <v>46</v>
+      <c r="K1" s="157" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -10852,7 +10787,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="158"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10865,7 +10800,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10880,614 +10815,614 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="180" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="184"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="187"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="165" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+    </row>
+    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
+      <c r="A11" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="188" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
+    </row>
+    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
-    </row>
-    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="180" t="s">
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
+    </row>
+    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="188" t="s">
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
+    </row>
+    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="180" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="156" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166"/>
+      <c r="A15" s="177" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="179"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="C16" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="150" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="182"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
+        <v>130</v>
+      </c>
+      <c r="C17" s="183" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="185"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="167" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
+        <v>131</v>
+      </c>
+      <c r="C18" s="183" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="185"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="167" t="s">
-        <v>243</v>
-      </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
+        <v>132</v>
+      </c>
+      <c r="C19" s="183" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="156" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="165"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="166"/>
+      <c r="A21" s="177" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="179"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="150" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="182"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
+        <v>130</v>
+      </c>
+      <c r="C23" s="188" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="155"/>
+        <v>131</v>
+      </c>
+      <c r="C24" s="188" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="185"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
         <v>3</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="155"/>
+        <v>132</v>
+      </c>
+      <c r="C25" s="188" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="185"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="188" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="185"/>
+    </row>
+    <row r="27" spans="1:10" s="52" customFormat="1">
+      <c r="A27" s="162"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
+    </row>
+    <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="155"/>
-    </row>
-    <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="177"/>
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
-    </row>
-    <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="142" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="189"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="190"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="156" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="166"/>
+      <c r="A29" s="177" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="150" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="182"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="159" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="161"/>
+        <v>130</v>
+      </c>
+      <c r="C31" s="189" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="191"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="162"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
+        <v>131</v>
+      </c>
+      <c r="C32" s="192"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="153" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
+        <v>132</v>
+      </c>
+      <c r="C33" s="188" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="185"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="139"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="156" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="A35" s="177" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="187"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="150" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="152"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="182"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="155"/>
+        <v>130</v>
+      </c>
+      <c r="C37" s="188" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="185"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="155"/>
+        <v>131</v>
+      </c>
+      <c r="C38" s="188" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="185"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>3</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="155"/>
+        <v>132</v>
+      </c>
+      <c r="C39" s="188" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="184"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="185"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="153" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="155"/>
+      <c r="C40" s="188" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="184"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="185"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="147"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="149"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="142" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="144"/>
+      <c r="A42" s="174" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="195"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="196"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="D43" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="E43" s="197" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="145" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="198"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -11496,358 +11431,358 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="199" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
+      <c r="E44" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="149"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="155"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="139"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="174" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="175"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="175"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="176"/>
+      <c r="A46" s="159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="160"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="161"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
         <v>1</v>
       </c>
       <c r="B47" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="D47" s="93"/>
+      <c r="E47" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="199" t="s">
-        <v>146</v>
-      </c>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
         <v>2</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="90"/>
-      <c r="E48" s="171" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="172"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="172"/>
-      <c r="J48" s="173"/>
+      <c r="E48" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="137"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
         <v>3</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="91"/>
-      <c r="E49" s="171" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="172"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="172"/>
-      <c r="I49" s="172"/>
-      <c r="J49" s="173"/>
+      <c r="E49" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="137"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="149"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="139"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="200" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="201"/>
-      <c r="C51" s="201"/>
-      <c r="D51" s="201"/>
-      <c r="E51" s="201"/>
-      <c r="F51" s="201"/>
-      <c r="G51" s="201"/>
-      <c r="H51" s="201"/>
-      <c r="I51" s="201"/>
-      <c r="J51" s="202"/>
+      <c r="A51" s="149" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="150"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="151"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
         <v>1</v>
       </c>
       <c r="B52" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="93"/>
+      <c r="E52" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="199" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
         <v>2</v>
       </c>
       <c r="B53" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="90"/>
+      <c r="E53" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="139" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="140"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="141"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="153"/>
+      <c r="J53" s="154"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
         <v>3</v>
       </c>
       <c r="B54" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="90"/>
+      <c r="E54" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="139" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="141"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="153"/>
+      <c r="J54" s="154"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
         <v>4</v>
       </c>
       <c r="B55" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="90"/>
+      <c r="E55" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="C55" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="90"/>
-      <c r="E55" s="139" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" s="140"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="141"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="153"/>
+      <c r="H55" s="153"/>
+      <c r="I55" s="153"/>
+      <c r="J55" s="154"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="171" t="s">
-        <v>169</v>
-      </c>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="E56" s="135" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A57" s="55">
         <v>2</v>
       </c>
       <c r="B57" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="89" t="s">
-        <v>171</v>
-      </c>
       <c r="D57" s="90"/>
-      <c r="E57" s="139" t="s">
-        <v>218</v>
-      </c>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="141"/>
+      <c r="E57" s="152" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" s="153"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="153"/>
+      <c r="I57" s="153"/>
+      <c r="J57" s="154"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="148"/>
-      <c r="G58" s="148"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="149"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="139"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="196" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="197"/>
-      <c r="C59" s="197"/>
-      <c r="D59" s="197"/>
-      <c r="E59" s="197"/>
-      <c r="F59" s="197"/>
-      <c r="G59" s="197"/>
-      <c r="H59" s="197"/>
-      <c r="I59" s="197"/>
-      <c r="J59" s="198"/>
+      <c r="A59" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="146"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="146"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
+      <c r="J59" s="147"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="194" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="143" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="144"/>
+      <c r="D60" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="C60" s="195"/>
-      <c r="D60" s="171" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="121"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="113"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="191"/>
-      <c r="B61" s="192"/>
-      <c r="C61" s="192"/>
-      <c r="D61" s="192"/>
-      <c r="E61" s="192"/>
-      <c r="F61" s="192"/>
-      <c r="G61" s="192"/>
-      <c r="H61" s="192"/>
-      <c r="I61" s="192"/>
-      <c r="J61" s="193"/>
+      <c r="A61" s="140"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="141"/>
+      <c r="H61" s="141"/>
+      <c r="I61" s="141"/>
+      <c r="J61" s="142"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="171"/>
-      <c r="E62" s="172"/>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="172"/>
-      <c r="J62" s="173"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="136"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="136"/>
+      <c r="I62" s="136"/>
+      <c r="J62" s="137"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="171"/>
-      <c r="E63" s="172"/>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="172"/>
-      <c r="J63" s="173"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="136"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="137"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="191"/>
-      <c r="B64" s="192"/>
-      <c r="C64" s="192"/>
-      <c r="D64" s="192"/>
-      <c r="E64" s="192"/>
-      <c r="F64" s="192"/>
-      <c r="G64" s="192"/>
-      <c r="H64" s="192"/>
-      <c r="I64" s="192"/>
-      <c r="J64" s="193"/>
+      <c r="A64" s="140"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="141"/>
+      <c r="F64" s="141"/>
+      <c r="G64" s="141"/>
+      <c r="H64" s="141"/>
+      <c r="I64" s="141"/>
+      <c r="J64" s="142"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="171"/>
-      <c r="E65" s="172"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="172"/>
-      <c r="H65" s="172"/>
-      <c r="I65" s="172"/>
-      <c r="J65" s="173"/>
+      <c r="B65" s="138"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="136"/>
+      <c r="G65" s="136"/>
+      <c r="H65" s="136"/>
+      <c r="I65" s="136"/>
+      <c r="J65" s="137"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B66" s="69"/>
       <c r="C66" s="70"/>
@@ -11864,40 +11799,78 @@
         <v>1</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="147"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="121"/>
+        <v>161</v>
+      </c>
+      <c r="C67" s="138"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="113"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
         <v>2</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
-      <c r="E68" s="168"/>
-      <c r="F68" s="168"/>
-      <c r="G68" s="168"/>
-      <c r="H68" s="168"/>
-      <c r="I68" s="168"/>
-      <c r="J68" s="168"/>
+        <v>161</v>
+      </c>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="156"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A59:J59"/>
@@ -11914,49 +11887,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B58:J58"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12009,8 +11944,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="169" t="s">
-        <v>46</v>
+      <c r="K1" s="157" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -12036,7 +11971,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="158"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12054,7 +11989,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12098,18 +12033,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="203" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="205"/>
+      <c r="A6" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="201"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -12119,19 +12054,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="D7" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>231</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>233</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -12140,10 +12075,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -12176,34 +12111,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="203" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
+      <c r="A10" s="199" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="D11" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>231</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>233</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -12212,10 +12147,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -12226,26 +12161,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="D12" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="E12" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="F12" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="G12" s="42" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -12254,26 +12189,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="F13" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="G13" s="42" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -12282,60 +12217,60 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>86</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="46" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="203" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="205"/>
+      <c r="A16" s="199" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="D17" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>231</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>233</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -12344,10 +12279,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -12358,24 +12293,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="G18" s="42" t="s">
         <v>76</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>77</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -12384,24 +12319,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="G19" s="42" t="s">
         <v>83</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>84</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -12410,27 +12345,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="46" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>88</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" s="81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -12438,27 +12373,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="80" t="s">
         <v>92</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>93</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>94</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>95</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -12500,7 +12435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:J33"/>
     </sheetView>
   </sheetViews>
@@ -12529,8 +12464,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="169" t="s">
-        <v>46</v>
+      <c r="K1" s="157" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -12550,7 +12485,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="158"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -12563,7 +12498,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -12578,266 +12513,266 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="180" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="184"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="187"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="188" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="173" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="180" t="s">
+      <c r="A14" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="156" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="166"/>
+      <c r="A15" s="177" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="179"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="150" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
+      <c r="C16" s="180" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="182"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="167" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
+        <v>177</v>
+      </c>
+      <c r="C17" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="185"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="167" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
+        <v>96</v>
+      </c>
+      <c r="C18" s="183" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="185"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="45">
         <v>3</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="167" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
+        <v>101</v>
+      </c>
+      <c r="C19" s="183" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A20" s="156" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="166"/>
+      <c r="A20" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="179"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="150" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="206" t="s">
-        <v>224</v>
+        <v>96</v>
+      </c>
+      <c r="C22" s="215" t="s">
+        <v>222</v>
       </c>
       <c r="D22" s="207"/>
       <c r="E22" s="207"/>
@@ -12852,7 +12787,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="207"/>
       <c r="D23" s="207"/>
@@ -12868,7 +12803,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="207"/>
       <c r="D24" s="207"/>
@@ -12884,7 +12819,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="207"/>
       <c r="D25" s="207"/>
@@ -12900,10 +12835,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="130" t="s">
-        <v>236</v>
+        <v>221</v>
+      </c>
+      <c r="C26" s="120" t="s">
+        <v>234</v>
       </c>
       <c r="D26" s="207"/>
       <c r="E26" s="207"/>
@@ -12914,286 +12849,286 @@
       <c r="J26" s="207"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="214"/>
-      <c r="B27" s="215"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="216"/>
+      <c r="A27" s="202"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="204"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="144"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A29" s="156" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="166"/>
+      <c r="A29" s="177" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="150" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
+      <c r="C30" s="180" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="182"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="45">
         <v>1</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
+        <v>177</v>
+      </c>
+      <c r="C31" s="183" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A32" s="45">
         <v>2</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="155"/>
+        <v>96</v>
+      </c>
+      <c r="C32" s="183" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="185"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1" ht="32.25" customHeight="1">
       <c r="A33" s="94">
         <v>3</v>
       </c>
       <c r="B33" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="208" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="209"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="210"/>
+    </row>
+    <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A34" s="177" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="219" t="s">
-        <v>253</v>
-      </c>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="221"/>
-    </row>
-    <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A34" s="156" t="s">
-        <v>219</v>
-      </c>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="166"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="179"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="150" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="182"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1">
       <c r="A36" s="55">
         <v>1</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="208"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="209"/>
+        <v>96</v>
+      </c>
+      <c r="C36" s="183" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="212"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="208"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
+        <v>196</v>
+      </c>
+      <c r="C37" s="183" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="211"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="211"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="211"/>
+      <c r="J37" s="212"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="208"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="208"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="209"/>
+        <v>183</v>
+      </c>
+      <c r="C38" s="183" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="211"/>
+      <c r="J38" s="212"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>4</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="208"/>
-      <c r="E39" s="208"/>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="209"/>
+        <v>184</v>
+      </c>
+      <c r="C39" s="183" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="211"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="211"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="211"/>
+      <c r="J39" s="212"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="55">
         <v>5</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="C40" s="167" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" s="208"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="208"/>
-      <c r="G40" s="208"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="209"/>
+        <v>223</v>
+      </c>
+      <c r="C40" s="183" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="211"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="212"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="177"/>
-      <c r="B41" s="217"/>
-      <c r="C41" s="217"/>
-      <c r="D41" s="217"/>
-      <c r="E41" s="217"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="217"/>
-      <c r="H41" s="217"/>
-      <c r="I41" s="217"/>
-      <c r="J41" s="218"/>
+      <c r="A41" s="162"/>
+      <c r="B41" s="205"/>
+      <c r="C41" s="205"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="205"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="205"/>
+      <c r="I41" s="205"/>
+      <c r="J41" s="206"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="190"/>
+      <c r="A42" s="174" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="175"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="175"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="176"/>
     </row>
     <row r="43" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="D43" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="E43" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="145" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="198"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -13202,72 +13137,72 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="199" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
+      <c r="E44" s="148" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A45" s="174" t="s">
-        <v>208</v>
-      </c>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="211"/>
+      <c r="A45" s="159" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" s="216"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="217"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="65">
         <v>1</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="93"/>
-      <c r="E46" s="199" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
+      <c r="E46" s="148" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A47" s="65">
         <v>2</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="199" t="s">
-        <v>205</v>
-      </c>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
+      <c r="E47" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="103"/>
@@ -13282,18 +13217,18 @@
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="174" t="s">
-        <v>207</v>
-      </c>
-      <c r="B49" s="175"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="175"/>
-      <c r="E49" s="175"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="175"/>
-      <c r="H49" s="175"/>
-      <c r="I49" s="175"/>
-      <c r="J49" s="176"/>
+      <c r="A49" s="159" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="160"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="161"/>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
     </row>
@@ -13302,152 +13237,152 @@
         <v>1</v>
       </c>
       <c r="B50" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="89" t="s">
-        <v>210</v>
-      </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="199" t="s">
-        <v>248</v>
-      </c>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
+      <c r="E50" s="148" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
     </row>
     <row r="51" spans="1:12" s="52" customFormat="1" ht="136.5" customHeight="1">
       <c r="A51" s="63">
         <v>2</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51" s="90"/>
-      <c r="E51" s="139" t="s">
-        <v>249</v>
-      </c>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="141"/>
+      <c r="E51" s="152" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="154"/>
     </row>
     <row r="52" spans="1:12" s="52" customFormat="1" ht="54.75" customHeight="1">
       <c r="A52" s="65">
         <v>3</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="91"/>
-      <c r="E52" s="171" t="s">
-        <v>245</v>
-      </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="121"/>
+      <c r="E52" s="135" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="196" t="s">
+      <c r="A53" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="197"/>
-      <c r="E53" s="197"/>
-      <c r="F53" s="197"/>
-      <c r="G53" s="197"/>
-      <c r="H53" s="197"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="198"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
+      <c r="J53" s="147"/>
     </row>
     <row r="54" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="194" t="s">
+      <c r="B54" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="195"/>
-      <c r="D54" s="171" t="s">
+      <c r="C54" s="144"/>
+      <c r="D54" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="121"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="113"/>
     </row>
     <row r="55" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="191"/>
-      <c r="B55" s="212"/>
-      <c r="C55" s="212"/>
-      <c r="D55" s="212"/>
-      <c r="E55" s="212"/>
-      <c r="F55" s="212"/>
-      <c r="G55" s="212"/>
-      <c r="H55" s="212"/>
-      <c r="I55" s="212"/>
-      <c r="J55" s="213"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="213"/>
+      <c r="C55" s="213"/>
+      <c r="D55" s="213"/>
+      <c r="E55" s="213"/>
+      <c r="F55" s="213"/>
+      <c r="G55" s="213"/>
+      <c r="H55" s="213"/>
+      <c r="I55" s="213"/>
+      <c r="J55" s="214"/>
     </row>
     <row r="56" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="65"/>
-      <c r="B56" s="147"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="65"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="149"/>
-      <c r="D57" s="171"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="121"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="113"/>
     </row>
     <row r="58" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="191"/>
-      <c r="B58" s="212"/>
-      <c r="C58" s="212"/>
-      <c r="D58" s="212"/>
-      <c r="E58" s="212"/>
-      <c r="F58" s="212"/>
-      <c r="G58" s="212"/>
-      <c r="H58" s="212"/>
-      <c r="I58" s="212"/>
-      <c r="J58" s="213"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="213"/>
+      <c r="C58" s="213"/>
+      <c r="D58" s="213"/>
+      <c r="E58" s="213"/>
+      <c r="F58" s="213"/>
+      <c r="G58" s="213"/>
+      <c r="H58" s="213"/>
+      <c r="I58" s="213"/>
+      <c r="J58" s="214"/>
     </row>
     <row r="59" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="65"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
+      <c r="B59" s="138"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="113"/>
     </row>
     <row r="60" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A60" s="68" t="s">
@@ -13470,14 +13405,14 @@
       <c r="B61" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="147"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="121"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="112"/>
+      <c r="J61" s="113"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="65">
@@ -13486,14 +13421,14 @@
       <c r="B62" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="168"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="156"/>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="50"/>
@@ -13506,12 +13441,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="C22:J25"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="A49:J49"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A28:J28"/>
@@ -13528,39 +13490,12 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="C35:J35"/>
     <mergeCell ref="C36:J36"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="C22:J25"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13613,8 +13548,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="169" t="s">
-        <v>46</v>
+      <c r="K1" s="157" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -13640,7 +13575,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="170"/>
+      <c r="K2" s="158"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -13658,7 +13593,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="170"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -13702,18 +13637,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="203" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="205"/>
+      <c r="A6" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="201"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -13723,19 +13658,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>175</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>176</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -13744,10 +13679,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13780,34 +13715,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="203" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
+      <c r="A10" s="199" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D11" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>175</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>176</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -13816,10 +13751,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13830,27 +13765,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -13858,27 +13793,27 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="221" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="225" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="226"/>
+      <c r="G13" s="222"/>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13886,58 +13821,58 @@
         <v>3</v>
       </c>
       <c r="B14" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="D14" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="E14" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="F14" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="G14" s="77" t="s">
         <v>106</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>107</v>
       </c>
       <c r="H14" s="80"/>
       <c r="I14" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J14" s="95"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="203" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="205"/>
+      <c r="A16" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="C17" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="D17" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>175</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>176</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -13946,10 +13881,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -13960,27 +13895,27 @@
         <v>1</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29.25" customHeight="1">
@@ -13988,27 +13923,27 @@
         <v>2</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="77" t="s">
         <v>109</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="J19" s="222" t="s">
-        <v>201</v>
+        <v>219</v>
+      </c>
+      <c r="J19" s="218" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" customHeight="1">
@@ -14016,79 +13951,79 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="77" t="s">
         <v>111</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="J20" s="223"/>
+        <v>219</v>
+      </c>
+      <c r="J20" s="219"/>
     </row>
     <row r="21" spans="1:10" ht="33.75" customHeight="1">
       <c r="A21" s="45">
         <v>4</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="J21" s="224"/>
+        <v>219</v>
+      </c>
+      <c r="J21" s="220"/>
     </row>
     <row r="22" spans="1:10" ht="82.5">
       <c r="A22" s="45">
         <v>5</v>
       </c>
       <c r="B22" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>113</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>114</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="G22" s="77" t="s">
         <v>116</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="281">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -825,10 +825,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>輸入/輸出</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -848,10 +844,6 @@
   </si>
   <si>
     <t>第三階功能名稱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_root</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -881,11 +873,6 @@
   </si>
   <si>
     <t>自APF0202MA1_Query帶入</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自APF0202MM1_Grid帶入，
-角色代號-角色名稱的組合，唯讀</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1034,10 +1021,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>lblROLE_NO_NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>O/I</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1048,12 +1031,6 @@
   <si>
     <t>權限</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.勾選上層功能則下層所有功能均全數選取。EX:勾選第一層角色設定功能清單，則第二層角色主檔、角色功能對應及第三層角色維護、及其所有權限將一併被勾選。
-2.勾選下層功能，則其上層功能至第一層功能清單均被選取。EX:勾選第三層角色維護的查詢權限，第三層角色維護、第二層角色主檔、第一層角色設定將一併勾選。
-3.如功能勾選，則權限必須要勾選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>權限</t>
@@ -1219,6 +1196,144 @@
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>apf_menu_root</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.勾選上層功能則下層所有功能均全數選取。EX:勾選第一層角色設定功能清單，則第二層角色主檔、角色功能對應及第三層角色維護、及其所有權限將一併被勾選。
+2.勾選下層功能，則其上層功能至第一層功能清單均被選取。EX:勾選第三層角色維護的查詢權限，第三層角色維護、第二層角色主檔、第一層角色設定將一併勾選。
+3.如功能勾選，則權限必須要勾選(查詢、新增、維護、刪除、匯出，可複選)，反之亦然。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtRID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不顯示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtGROUP_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由APF0202MM1帶過來</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由APF0202MM1帶過來</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePermissionExport_yyyyMMdd.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_permission</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模組代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_TYPE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODULE_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1227,7 +1342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1424,6 +1539,19 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1759,7 +1887,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -1769,8 +1897,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2031,12 +2162,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2061,6 +2186,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2073,74 +2210,74 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2401,9 +2538,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般_12312" xfId="4"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="標準_Ⅱ011" xfId="1"/>
   </cellStyles>
@@ -3424,13 +3562,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3475,13 +3613,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>70</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>88</xdr:row>
+          <xdr:row>92</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6632,10 +6770,10 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8348,7 +8486,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9458325" cy="590550"/>
+          <a:ext cx="9466608" cy="581853"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -9876,12 +10014,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="108" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="A1" s="110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
@@ -9913,18 +10051,18 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="79" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="111" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -9935,7 +10073,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="109"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="31" t="s">
         <v>118</v>
       </c>
@@ -9945,29 +10083,29 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="110" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="104" t="s">
+      <c r="A7" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="104" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="111"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="34" t="s">
         <v>120</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="105" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="111" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -9978,7 +10116,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A10" s="109"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="31" t="s">
         <v>59</v>
       </c>
@@ -10284,10 +10422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10302,15 +10440,15 @@
       <c r="A1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="126" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="128"/>
+      <c r="M2" s="127"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="128"/>
+      <c r="M3" s="127"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -10327,194 +10465,194 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="136"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="A6" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="125"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="121" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="120"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="112" t="s">
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="113"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
     </row>
     <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="121" t="s">
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="112" t="s">
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
       <c r="F11" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="122"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="120"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="112" t="s">
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="113"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="122"/>
     </row>
     <row r="15" spans="1:13" s="76" customFormat="1" ht="16.5">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="113"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
     </row>
     <row r="16" spans="1:13" s="76" customFormat="1" ht="14.25"/>
     <row r="17" s="76" customFormat="1" ht="14.25"/>
@@ -10560,22 +10698,22 @@
     <row r="57" s="76" customFormat="1" ht="14.25"/>
     <row r="58" s="76" customFormat="1" ht="14.25"/>
     <row r="59" s="76" customFormat="1" ht="14.25"/>
-    <row r="65" spans="1:12" ht="27.75" customHeight="1"/>
-    <row r="66" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A66" s="131" t="s">
+    <row r="69" spans="1:12" ht="27.75" customHeight="1"/>
+    <row r="70" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A70" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="132"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="133"/>
+      <c r="B70" s="132"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="132"/>
+      <c r="F70" s="132"/>
+      <c r="G70" s="132"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="132"/>
+      <c r="J70" s="132"/>
+      <c r="K70" s="132"/>
+      <c r="L70" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -10583,7 +10721,7 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A70:L70"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -10626,8 +10764,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>219075</xdr:rowOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -10645,13 +10783,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>88</xdr:row>
+                <xdr:row>92</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -10670,22 +10808,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="127" t="s">
-        <v>235</v>
+      <c r="P1" s="126" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="128"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="128"/>
+      <c r="P3" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10713,10 +10851,10 @@
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>45</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -10735,7 +10873,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -10766,7 +10904,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="157" t="s">
+      <c r="K1" s="159" t="s">
         <v>45</v>
       </c>
       <c r="L1" s="50"/>
@@ -10787,7 +10925,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="158"/>
+      <c r="K2" s="160"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10800,7 +10938,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="158"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10815,152 +10953,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="166"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="166"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
+      <c r="A8" s="168"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="174"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="177" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
+      <c r="A15" s="179" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="181"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -10969,16 +11107,16 @@
       <c r="B16" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="180" t="s">
+      <c r="C16" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="182"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="184"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
@@ -10987,16 +11125,16 @@
       <c r="B17" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="183" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="184"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="185"/>
+      <c r="C17" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="187"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
@@ -11005,16 +11143,16 @@
       <c r="B18" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="183" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="185"/>
+      <c r="C18" s="185" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="187"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
@@ -11023,42 +11161,42 @@
       <c r="B19" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="183" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="185"/>
+      <c r="C19" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="187"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="139"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="141"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="177" t="s">
+      <c r="A21" s="179" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="178"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="181"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
@@ -11067,16 +11205,16 @@
       <c r="B22" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="180" t="s">
+      <c r="C22" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="184"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -11085,16 +11223,16 @@
       <c r="B23" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="188" t="s">
+      <c r="C23" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="187"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -11103,16 +11241,16 @@
       <c r="B24" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="188" t="s">
+      <c r="C24" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="185"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="187"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
@@ -11121,16 +11259,16 @@
       <c r="B25" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="185"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="187"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -11139,56 +11277,56 @@
       <c r="B26" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="188" t="s">
+      <c r="C26" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="185"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="187"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="162"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="A27" s="164"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="176"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="178"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="177" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="A29" s="179" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="181"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -11197,16 +11335,16 @@
       <c r="B30" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="180" t="s">
+      <c r="C30" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="182"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="184"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
@@ -11215,16 +11353,16 @@
       <c r="B31" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="189" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="191"/>
+      <c r="C31" s="191" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="193"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -11233,14 +11371,14 @@
       <c r="B32" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="192"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="196"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
@@ -11249,42 +11387,42 @@
       <c r="B33" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="188" t="s">
+      <c r="C33" s="190" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="185"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="187"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="138"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="139"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="141"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="177" t="s">
+      <c r="A35" s="179" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="187"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="189"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
@@ -11293,16 +11431,16 @@
       <c r="B36" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="180" t="s">
+      <c r="C36" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="181"/>
-      <c r="E36" s="181"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="181"/>
-      <c r="I36" s="181"/>
-      <c r="J36" s="182"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="184"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -11311,16 +11449,16 @@
       <c r="B37" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="188" t="s">
+      <c r="C37" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="185"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="187"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -11329,16 +11467,16 @@
       <c r="B38" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="188" t="s">
+      <c r="C38" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="185"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="187"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -11347,16 +11485,16 @@
       <c r="B39" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="188" t="s">
+      <c r="C39" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="185"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="187"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
@@ -11365,42 +11503,42 @@
       <c r="B40" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="188" t="s">
+      <c r="C40" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="184"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="185"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="187"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="138"/>
-      <c r="B41" s="155"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="139"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="141"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="174" t="s">
+      <c r="A42" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="195"/>
-      <c r="C42" s="195"/>
-      <c r="D42" s="195"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="195"/>
-      <c r="H42" s="195"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="196"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="198"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -11415,14 +11553,14 @@
       <c r="D43" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="197" t="s">
+      <c r="E43" s="199" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="198"/>
-      <c r="G43" s="198"/>
-      <c r="H43" s="198"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="198"/>
+      <c r="F43" s="200"/>
+      <c r="G43" s="200"/>
+      <c r="H43" s="200"/>
+      <c r="I43" s="200"/>
+      <c r="J43" s="200"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -11435,40 +11573,40 @@
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="148" t="s">
+      <c r="E44" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="155"/>
-      <c r="C45" s="155"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="155"/>
-      <c r="G45" s="155"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="139"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="141"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="159" t="s">
+      <c r="A46" s="161" t="s">
         <v>165</v>
       </c>
-      <c r="B46" s="160"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="161"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="162"/>
+      <c r="D46" s="162"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="162"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="163"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
@@ -11481,14 +11619,14 @@
         <v>144</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="148" t="s">
+      <c r="E47" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
@@ -11501,14 +11639,14 @@
         <v>144</v>
       </c>
       <c r="D48" s="90"/>
-      <c r="E48" s="135" t="s">
+      <c r="E48" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="137"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="139"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
@@ -11521,40 +11659,40 @@
         <v>144</v>
       </c>
       <c r="D49" s="91"/>
-      <c r="E49" s="135" t="s">
+      <c r="E49" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="137"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="139"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="155"/>
-      <c r="H50" s="155"/>
-      <c r="I50" s="155"/>
-      <c r="J50" s="139"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="141"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="149" t="s">
+      <c r="A51" s="151" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="150"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="151"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="153"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
@@ -11567,14 +11705,14 @@
         <v>144</v>
       </c>
       <c r="D52" s="93"/>
-      <c r="E52" s="148" t="s">
+      <c r="E52" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
@@ -11587,14 +11725,14 @@
         <v>144</v>
       </c>
       <c r="D53" s="90"/>
-      <c r="E53" s="152" t="s">
+      <c r="E53" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="F53" s="153"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="154"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="156"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
@@ -11607,14 +11745,14 @@
         <v>144</v>
       </c>
       <c r="D54" s="90"/>
-      <c r="E54" s="152" t="s">
+      <c r="E54" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="F54" s="153"/>
-      <c r="G54" s="153"/>
-      <c r="H54" s="153"/>
-      <c r="I54" s="153"/>
-      <c r="J54" s="154"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="156"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
@@ -11627,14 +11765,14 @@
         <v>144</v>
       </c>
       <c r="D55" s="90"/>
-      <c r="E55" s="152" t="s">
+      <c r="E55" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="153"/>
-      <c r="G55" s="153"/>
-      <c r="H55" s="153"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="154"/>
+      <c r="F55" s="155"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="155"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="156"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
@@ -11647,14 +11785,14 @@
         <v>144</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="135" t="s">
+      <c r="E56" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="122"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A57" s="55">
@@ -11667,118 +11805,118 @@
         <v>170</v>
       </c>
       <c r="D57" s="90"/>
-      <c r="E57" s="152" t="s">
-        <v>216</v>
-      </c>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="154"/>
+      <c r="E57" s="154" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="155"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="155"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="156"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="155"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="139"/>
+      <c r="B58" s="157"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="157"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="141"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="145" t="s">
+      <c r="A59" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="146"/>
-      <c r="C59" s="146"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="147"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+      <c r="G59" s="148"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="149"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="143" t="s">
+      <c r="B60" s="145" t="s">
         <v>158</v>
       </c>
-      <c r="C60" s="144"/>
-      <c r="D60" s="135" t="s">
+      <c r="C60" s="146"/>
+      <c r="D60" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="113"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="122"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="140"/>
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="141"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="141"/>
-      <c r="J61" s="142"/>
+      <c r="A61" s="142"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="143"/>
+      <c r="I61" s="143"/>
+      <c r="J61" s="144"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="139"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="136"/>
-      <c r="F62" s="136"/>
-      <c r="G62" s="136"/>
-      <c r="H62" s="136"/>
-      <c r="I62" s="136"/>
-      <c r="J62" s="137"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="139"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="139"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="136"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
-      <c r="J63" s="137"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="138"/>
+      <c r="G63" s="138"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="138"/>
+      <c r="J63" s="139"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="141"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="141"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="141"/>
-      <c r="I64" s="141"/>
-      <c r="J64" s="142"/>
+      <c r="A64" s="142"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="143"/>
+      <c r="G64" s="143"/>
+      <c r="H64" s="143"/>
+      <c r="I64" s="143"/>
+      <c r="J64" s="144"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="136"/>
-      <c r="F65" s="136"/>
-      <c r="G65" s="136"/>
-      <c r="H65" s="136"/>
-      <c r="I65" s="136"/>
-      <c r="J65" s="137"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="138"/>
+      <c r="F65" s="138"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="138"/>
+      <c r="J65" s="139"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
@@ -11801,14 +11939,14 @@
       <c r="B67" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="C67" s="138"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="113"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="121"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="121"/>
+      <c r="H67" s="121"/>
+      <c r="I67" s="121"/>
+      <c r="J67" s="122"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
@@ -11817,14 +11955,14 @@
       <c r="B68" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="156"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="156"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="156"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="156"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="158"/>
+      <c r="I68" s="158"/>
+      <c r="J68" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -11911,10 +12049,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11944,7 +12082,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="157" t="s">
+      <c r="K1" s="159" t="s">
         <v>45</v>
       </c>
       <c r="L1" s="36"/>
@@ -11971,7 +12109,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="158"/>
+      <c r="K2" s="160"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -11989,7 +12127,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="158"/>
+      <c r="K3" s="160"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12033,18 +12171,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="201"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -12054,19 +12192,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>171</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -12075,10 +12213,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -12111,34 +12249,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="199" t="s">
+      <c r="A10" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>171</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -12147,10 +12285,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -12239,38 +12377,38 @@
         <v>121</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="203"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>171</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -12279,10 +12417,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -12365,7 +12503,7 @@
         <v>89</v>
       </c>
       <c r="J20" s="81" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -12408,12 +12546,201 @@
       <c r="J22" s="48"/>
       <c r="K22" s="49"/>
     </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="201" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" s="202"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="203"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="45">
+        <v>1</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="45"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="45">
+        <v>2</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="45">
+        <v>3</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="106" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" s="42"/>
+      <c r="I28" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="45">
+        <v>4</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="45">
+        <v>5</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="87"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="45"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -12435,8 +12762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:J33"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12464,7 +12791,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="157" t="s">
+      <c r="K1" s="159" t="s">
         <v>45</v>
       </c>
       <c r="L1" s="50"/>
@@ -12485,7 +12812,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="158"/>
+      <c r="K2" s="160"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -12498,7 +12825,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="158"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -12513,152 +12840,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="166"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="166"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
+      <c r="A8" s="168"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="174"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="173" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="A11" s="175" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="177" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
+      <c r="A15" s="179" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="181"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -12667,16 +12994,16 @@
       <c r="B16" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="180" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="182"/>
+      <c r="C16" s="182" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="184"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
@@ -12685,16 +13012,16 @@
       <c r="B17" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="183" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="184"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="185"/>
+      <c r="C17" s="185" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="187"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="45">
@@ -12703,16 +13030,16 @@
       <c r="B18" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="183" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="185"/>
+      <c r="C18" s="185" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="187"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="45">
@@ -12721,30 +13048,30 @@
       <c r="B19" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="183" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="185"/>
+      <c r="C19" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="187"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A20" s="177" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
+      <c r="A20" s="179" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="180"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="181"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -12753,16 +13080,16 @@
       <c r="B21" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="184"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
@@ -12771,122 +13098,122 @@
       <c r="B22" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="215" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="207"/>
+      <c r="C22" s="217" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="209"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="207"/>
+        <v>193</v>
+      </c>
+      <c r="C23" s="209"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="209"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="207"/>
+        <v>182</v>
+      </c>
+      <c r="C24" s="209"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="209"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="209"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="55">
         <v>4</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="207"/>
-      <c r="D25" s="207"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="207"/>
+        <v>183</v>
+      </c>
+      <c r="C25" s="209"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>5</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="207"/>
+        <v>217</v>
+      </c>
+      <c r="C26" s="117" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="209"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="209"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="202"/>
-      <c r="B27" s="203"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="204"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="206"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="195"/>
-      <c r="C28" s="195"/>
-      <c r="D28" s="195"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="196"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="198"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A29" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="A29" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="181"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -12895,16 +13222,16 @@
       <c r="B30" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="180" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="182"/>
+      <c r="C30" s="182" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="184"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="45">
@@ -12913,16 +13240,16 @@
       <c r="B31" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="183" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="185"/>
+      <c r="C31" s="185" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="187"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A32" s="45">
@@ -12931,48 +13258,48 @@
       <c r="B32" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="183" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="185"/>
+      <c r="C32" s="185" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="187"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1" ht="32.25" customHeight="1">
       <c r="A33" s="94">
         <v>3</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="208" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="209"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="210"/>
+        <v>212</v>
+      </c>
+      <c r="C33" s="210" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="211"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="212"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A34" s="177" t="s">
-        <v>217</v>
-      </c>
-      <c r="B34" s="178"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="179"/>
+      <c r="A34" s="179" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="180"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="181"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
@@ -12981,16 +13308,16 @@
       <c r="B35" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="180" t="s">
+      <c r="C35" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="182"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="184"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1">
       <c r="A36" s="55">
@@ -12999,114 +13326,114 @@
       <c r="B36" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="212"/>
+      <c r="C36" s="185" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="213"/>
+      <c r="E36" s="213"/>
+      <c r="F36" s="213"/>
+      <c r="G36" s="213"/>
+      <c r="H36" s="213"/>
+      <c r="I36" s="213"/>
+      <c r="J36" s="214"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="185" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="211"/>
-      <c r="E37" s="211"/>
-      <c r="F37" s="211"/>
-      <c r="G37" s="211"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="212"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="214"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="211"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="211"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="212"/>
+        <v>182</v>
+      </c>
+      <c r="C38" s="185" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="213"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="214"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>4</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="211"/>
-      <c r="E39" s="211"/>
-      <c r="F39" s="211"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="C39" s="185" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="213"/>
+      <c r="E39" s="213"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="213"/>
+      <c r="I39" s="213"/>
+      <c r="J39" s="214"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="55">
         <v>5</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" s="211"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="211"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="212"/>
+        <v>218</v>
+      </c>
+      <c r="C40" s="185" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="213"/>
+      <c r="E40" s="213"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="213"/>
+      <c r="J40" s="214"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="162"/>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="205"/>
-      <c r="G41" s="205"/>
-      <c r="H41" s="205"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="206"/>
+      <c r="A41" s="164"/>
+      <c r="B41" s="207"/>
+      <c r="C41" s="207"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="208"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="174" t="s">
+      <c r="A42" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="175"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="175"/>
-      <c r="H42" s="175"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="176"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="178"/>
     </row>
     <row r="43" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -13121,14 +13448,14 @@
       <c r="D43" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="197" t="s">
+      <c r="E43" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="198"/>
-      <c r="G43" s="198"/>
-      <c r="H43" s="198"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="198"/>
+      <c r="F43" s="200"/>
+      <c r="G43" s="200"/>
+      <c r="H43" s="200"/>
+      <c r="I43" s="200"/>
+      <c r="J43" s="200"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -13137,52 +13464,52 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="148" t="s">
-        <v>202</v>
-      </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
+      <c r="E44" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A45" s="159" t="s">
-        <v>207</v>
-      </c>
-      <c r="B45" s="216"/>
-      <c r="C45" s="216"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="216"/>
-      <c r="G45" s="216"/>
-      <c r="H45" s="216"/>
-      <c r="I45" s="216"/>
-      <c r="J45" s="217"/>
+      <c r="A45" s="161" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="218"/>
+      <c r="C45" s="218"/>
+      <c r="D45" s="218"/>
+      <c r="E45" s="218"/>
+      <c r="F45" s="218"/>
+      <c r="G45" s="218"/>
+      <c r="H45" s="218"/>
+      <c r="I45" s="218"/>
+      <c r="J45" s="219"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="65">
         <v>1</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C46" s="89" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="93"/>
-      <c r="E46" s="148" t="s">
-        <v>205</v>
-      </c>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="120"/>
+      <c r="E46" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A47" s="65">
@@ -13195,17 +13522,17 @@
         <v>49</v>
       </c>
       <c r="D47" s="93"/>
-      <c r="E47" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="E47" s="150" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
     </row>
     <row r="48" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="103"/>
+      <c r="A48" s="101"/>
       <c r="B48" s="88"/>
       <c r="C48" s="97"/>
       <c r="D48" s="92"/>
@@ -13217,18 +13544,18 @@
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="159" t="s">
-        <v>206</v>
-      </c>
-      <c r="B49" s="160"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="160"/>
-      <c r="E49" s="160"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="160"/>
-      <c r="J49" s="161"/>
+      <c r="A49" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="162"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="162"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="162"/>
+      <c r="J49" s="163"/>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
     </row>
@@ -13237,152 +13564,152 @@
         <v>1</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="148" t="s">
-        <v>246</v>
-      </c>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="120"/>
+      <c r="E50" s="150" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="117"/>
     </row>
     <row r="51" spans="1:12" s="52" customFormat="1" ht="136.5" customHeight="1">
       <c r="A51" s="63">
         <v>2</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C51" s="89" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D51" s="90"/>
-      <c r="E51" s="152" t="s">
-        <v>247</v>
-      </c>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="154"/>
+      <c r="E51" s="154" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="156"/>
     </row>
     <row r="52" spans="1:12" s="52" customFormat="1" ht="54.75" customHeight="1">
       <c r="A52" s="65">
         <v>3</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D52" s="91"/>
-      <c r="E52" s="135" t="s">
-        <v>243</v>
-      </c>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="113"/>
+      <c r="E52" s="137" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="121"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="122"/>
     </row>
     <row r="53" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="145" t="s">
+      <c r="A53" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="146"/>
-      <c r="C53" s="146"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146"/>
-      <c r="F53" s="146"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="147"/>
+      <c r="B53" s="148"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="149"/>
     </row>
     <row r="54" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="143" t="s">
+      <c r="B54" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="144"/>
-      <c r="D54" s="135" t="s">
+      <c r="C54" s="146"/>
+      <c r="D54" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="113"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122"/>
     </row>
     <row r="55" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="140"/>
-      <c r="B55" s="213"/>
-      <c r="C55" s="213"/>
-      <c r="D55" s="213"/>
-      <c r="E55" s="213"/>
-      <c r="F55" s="213"/>
-      <c r="G55" s="213"/>
-      <c r="H55" s="213"/>
-      <c r="I55" s="213"/>
-      <c r="J55" s="214"/>
+      <c r="A55" s="142"/>
+      <c r="B55" s="215"/>
+      <c r="C55" s="215"/>
+      <c r="D55" s="215"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="215"/>
+      <c r="G55" s="215"/>
+      <c r="H55" s="215"/>
+      <c r="I55" s="215"/>
+      <c r="J55" s="216"/>
     </row>
     <row r="56" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="65"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="122"/>
     </row>
     <row r="57" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="65"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="113"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="122"/>
     </row>
     <row r="58" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="140"/>
-      <c r="B58" s="213"/>
-      <c r="C58" s="213"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="213"/>
-      <c r="F58" s="213"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="213"/>
-      <c r="I58" s="213"/>
-      <c r="J58" s="214"/>
+      <c r="A58" s="142"/>
+      <c r="B58" s="215"/>
+      <c r="C58" s="215"/>
+      <c r="D58" s="215"/>
+      <c r="E58" s="215"/>
+      <c r="F58" s="215"/>
+      <c r="G58" s="215"/>
+      <c r="H58" s="215"/>
+      <c r="I58" s="215"/>
+      <c r="J58" s="216"/>
     </row>
     <row r="59" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="65"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="113"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="121"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="122"/>
     </row>
     <row r="60" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A60" s="68" t="s">
@@ -13405,14 +13732,14 @@
       <c r="B61" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="138"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="113"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="122"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="65">
@@ -13421,14 +13748,14 @@
       <c r="B62" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="156"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="156"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="156"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="158"/>
+      <c r="F62" s="158"/>
+      <c r="G62" s="158"/>
+      <c r="H62" s="158"/>
+      <c r="I62" s="158"/>
+      <c r="J62" s="158"/>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="50"/>
@@ -13515,10 +13842,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13548,7 +13875,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="157" t="s">
+      <c r="K1" s="159" t="s">
         <v>45</v>
       </c>
       <c r="L1" s="36"/>
@@ -13575,7 +13902,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="158"/>
+      <c r="K2" s="160"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -13593,7 +13920,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="158"/>
+      <c r="K3" s="160"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -13637,18 +13964,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="201"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -13682,7 +14009,7 @@
         <v>176</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13715,18 +14042,18 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="199" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
+      <c r="A10" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
@@ -13754,284 +14081,346 @@
         <v>176</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="33">
-      <c r="A12" s="45">
+    <row r="12" spans="1:23">
+      <c r="A12" s="40">
         <v>1</v>
       </c>
-      <c r="B12" s="98" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45" t="s">
+      <c r="B12" s="106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="109" t="s">
+        <v>251</v>
+      </c>
+      <c r="H12" s="106"/>
+      <c r="I12" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="40">
+        <v>2</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="106"/>
+      <c r="I13" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="J13" s="100" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="40">
+        <v>3</v>
+      </c>
+      <c r="B14" s="106" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="106"/>
+      <c r="I14" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="J14" s="100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="40">
+        <v>4</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="223" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="224"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A16" s="40">
+        <v>5</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="80"/>
+      <c r="I16" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="95"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="201" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="J12" s="99" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="45">
-        <v>2</v>
-      </c>
-      <c r="B13" s="46" t="s">
+      <c r="J19" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="45">
+        <v>1</v>
+      </c>
+      <c r="B20" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="221" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="222"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="22.5" customHeight="1">
-      <c r="A14" s="45">
-        <v>3</v>
-      </c>
-      <c r="B14" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="95"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="199" t="s">
+      <c r="C20" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="45">
-        <v>1</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A19" s="45">
-        <v>2</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="J19" s="218" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="33" customHeight="1">
-      <c r="A20" s="45">
-        <v>3</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>111</v>
+      <c r="F20" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>187</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="J20" s="219"/>
-    </row>
-    <row r="21" spans="1:10" ht="33.75" customHeight="1">
+        <v>215</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="29.25" customHeight="1">
       <c r="A21" s="45">
-        <v>4</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>182</v>
+        <v>2</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>179</v>
       </c>
       <c r="D21" s="42"/>
-      <c r="E21" s="86" t="s">
-        <v>190</v>
+      <c r="E21" s="99" t="s">
+        <v>247</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="J21" s="220"/>
-    </row>
-    <row r="22" spans="1:10" ht="82.5">
+        <v>215</v>
+      </c>
+      <c r="J21" s="220" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="33" customHeight="1">
       <c r="A22" s="45">
-        <v>5</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>180</v>
       </c>
       <c r="D22" s="42"/>
-      <c r="E22" s="100" t="s">
-        <v>114</v>
+      <c r="E22" s="86" t="s">
+        <v>188</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="J22" s="102" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="J22" s="221"/>
+    </row>
+    <row r="23" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A23" s="45">
+        <v>4</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" s="222"/>
+    </row>
+    <row r="24" spans="1:10" ht="82.5">
+      <c r="A24" s="45">
+        <v>5</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" s="100" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J21:J23"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
   </mergeCells>

--- a/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/RA006/RA006_APF0202_角色功能清單設定.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
     <sheet name="IPO" sheetId="38" r:id="rId4"/>
-    <sheet name="畫面_APF0202MM1" sheetId="7" r:id="rId5"/>
+    <sheet name="畫面_APF0202MM1" sheetId="39" r:id="rId5"/>
     <sheet name="欄位_APF0202MM1" sheetId="14" r:id="rId6"/>
     <sheet name="畫面_APF0202MA1" sheetId="33" r:id="rId7"/>
     <sheet name="欄位_APF0202MA1" sheetId="34" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0202MA1!$A$1:$J$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0202MA1!$A$1:$J$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0202MM1!$A$1:$J$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0202MA1!$A$1:$J$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0202MM1!$A$1:$J$14</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="348">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -202,19 +202,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -294,10 +282,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>項目名稱</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -584,28 +568,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>事前檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:首頁
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能查詢權限</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事後檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前端檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -614,46 +576,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色來源</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>顯示用。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色生效</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>後端檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>控制項名稱</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -662,123 +584,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>主要處理內容</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新增</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以導頁方式開啟APF0102MA1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有項目勾選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有項目取消勾選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有勾選項目刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>匯出EXCEL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將所有查詢結果匯出Excel檔案</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>明細</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>應用時機</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>內容說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>參考資料說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>共通元件</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0202MM1_Grid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>『APF0202MM1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0202MM1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0202MM1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0202MM1_Grid，並將查詢角色結果置於APF0202MM1_Grid中</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除APF0202MM1_Query畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>導頁方式開啟APF0202MA1，並將本頁的角色明細組成一欄，格式為「角色代號-角色名稱」，帶入將開啟的APF0202MA1角色欄位，此欄是唯讀顯示(Label欄位)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>匯出EXCEL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -926,29 +736,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>點選清除重填按鈕，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>則清除所有欄位。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>按下確認按鈕後，在下方顯示模組及各階功能清單查詢結果，以及此角色相對應的權限設定。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APF0202MA1_Edit</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -958,10 +745,6 @@
   </si>
   <si>
     <t>回上一頁</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -981,28 +764,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">APF0202MM1_Query
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：各欄位輸入後</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>功能名稱</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統將角色功能清單對應查詢結果匯出成Excel檔案，附檔名為xls，檔名為RolePermissionExport_yyyyMMdd.xls。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1065,10 +828,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1111,27 +870,6 @@
   <si>
     <t>View</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">輸入型態:string
-最大長度限制:英文10(控制項控制)
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">輸入型態:string
-最大長度限制:中文20(控制項控制)
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重新載入</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>此按鈕是將頁面上資料重新載入，回復至未做設定前的初始狀態</t>
@@ -1170,18 +908,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">
-點選回上一頁按鈕則以導頁方式開啟APF0202MM1，並帶回原先的查詢條件。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 ，若選擇是，則進行儲存所選的角色及其對應的功能和權限，若選擇否，則不做任何動作。
-儲存成功:
-1.以導頁方式開啟APF0202MM1，並帶回原先的查詢條件，及顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
-儲存失敗:顯示修改資料失敗訊息，訊息內容請參考APF訊息表APF_NO 13</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>0:預設角色 1:職稱角色 2:自訂角色</t>
   </si>
   <si>
@@ -1333,6 +1059,567 @@
   <si>
     <t>function_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form Attribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A. _Load</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除重填</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除APF0202MM1_Query畫面所有欄位
+1.txtINPUT_GROUP_ID=""
+  txtINPUT_NAME=""
+  rbtINPUT_SOURCE_TYPE =(value="2" checked)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面示意圖</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事前檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.前畫面:首頁
+1.1 SESSION內容:
+1.2 成立條件:該使用者擁有此功能查詢權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事後檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前端檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0202MM1_Query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：各欄位輸入後</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色代號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入型態:string
+最大長度限制:英文10(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入型態:string
+最大長度限制:中文20(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色來源</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202MM1_Grid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顯示用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色生效</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後端檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0202MM1_Query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：各欄位輸入後</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色來源</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202MM1_Grid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色代號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顯示用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色生效</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Form Attribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202_Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Attribute名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>namespace</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Base Class</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIPermissionHelper</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SUDA3G.APF.WEB.Utils</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ActionFilterAttribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OnActionExecuting()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI按鈕權限檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button Attribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202_Button</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LogAction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記錄使用者執行功能Log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『APF0202MM1』Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A. _Load</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.APFPermissionController.RoleQuery()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1 APFPermissionController.RoleQuery()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0202MM1_Query</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202MM1_Query</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[LogAction]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.記錄使用者執行功能Log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A._CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[APFRoleController.GetRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1
+APFRoleController.GetRole()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apfModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.開啟APF0202MM1_Grid，並回傳JsonResult(List&lt;apf_role_profile&gt; Model to List)資料,資料連結並將查詢結果置於APF0202MM1_Grid中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>匯出EXCEL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫[Utils.Excel]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1 Utils.Excel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fileName,List&lt;ExcelModel&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.fileName=RolePermissionExport_yyyyMMdd.xlsx
+2.將所有查詢結果匯出Excel檔案</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明細</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[APFPermissionController.Permission()]</t>
+  </si>
+  <si>
+    <t>A.1 
+APFPermissionController.Permission()[HttpGet]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uiModel,Rid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.以導頁方式開啟APF0202MA1，被選取角色內所有的帳號資訊顯示在開啟的APF0202MA_Grid 右半部(角色帳號區)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特殊說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>應用時機</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>內容說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>參考資料說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通元件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202_Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Attribute名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>namespace</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Base Class</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIPermissionHelper</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SUDA3G.APF.WEB.Utils</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ActionFilterAttribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OnActionExecuting()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI按鈕權限檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button Attribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202_Button</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LogAction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記錄使用者執行功能Log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1 
+APFPermissionController.Permission()[HttpGet]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uiModel,rid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[LogAction]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.記錄使用者執行功能Log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A. _CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.執行APFPermissionController.PermissionFilter()
+</t>
+  </si>
+  <si>
+    <t>A.1 APFPermissionController.PermissionFilter()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lblROLE_NO_NAME,
+ddlINPUT_MODULE_ID,
+txtINPUT_FUNCTION_NAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">按下確認按鈕後，在下方顯示模組及各階功能清單查詢結果，以及此角色相對應的權限設定。
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選清除重填按鈕，則清除所有欄位。
+1.lblROLE_NO_NAME=""
+  ddlINPUT_MODULE_ID=""
+  txtINPUT_FUNCTION_NAME=""</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1
+APFPermissionController.RoleQuery()[HttpPost]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uiModel,PageName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.點選回上一頁按鈕則以導頁方式開啟APF0202MM1，並帶回原先的查詢條件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A _CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1  APFPermissionController.Permission()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt; ActionList, RoleID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重新載入</t>
+  </si>
+  <si>
+    <t>A._CLICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫APFRoleRelationController.Permission()
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1 APFPermissionController.PermissionReload()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rid,
+lblROLE_NO_NAME,
+ddlINPUT_MODULE_ID,
+txtINPUT_FUNCTION_NAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 02001。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫WinConfirm( "APF_NO 15002") JavaScript
+2.呼叫 APFPermissionController.RoleQuery()
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫WinConfirm( "APF_NO 04004") JavaScript
+2.呼叫 APFPermissionController.Permission()
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 04004 ，若選擇是，則進行儲存所選的角色及其對應的功能和權限，若選擇否，則不做任何動作。
+儲存成功:
+1.以導頁方式開啟APF0202MM1，並帶回原先的查詢條件，及顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 04001
+儲存失敗:顯示修改資料失敗訊息，訊息內容請參考APF訊息表APF_NO 04002</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1342,7 +1629,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1554,6 +1841,19 @@
       <sz val="12"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -1887,7 +2187,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -1900,8 +2200,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2055,23 +2356,8 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2118,232 +2404,439 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2351,27 +2844,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2392,88 +2864,106 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2483,12 +2973,6 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2507,24 +2991,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2534,13 +3003,11 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般 3" xfId="5"/>
     <cellStyle name="一般_12312" xfId="4"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="標準_Ⅱ011" xfId="1"/>
@@ -3562,13 +4029,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7353,7 +7820,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1627" name="群組 1"/>
+        <xdr:cNvPr id="2" name="群組 1"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -7361,14 +7828,14 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9458325" cy="590550"/>
+          <a:ext cx="10106025" cy="590550"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1049" name="Rectangle 25"/>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7441,7 +7908,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1050" name="Rectangle 26"/>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7518,7 +7985,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1051" name="Rectangle 27"/>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7591,7 +8058,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1052" name="Rectangle 28"/>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7697,7 +8164,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1053" name="Rectangle 29"/>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7773,7 +8240,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1054" name="Rectangle 30"/>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7849,7 +8316,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1643" name="Line 31"/>
+          <xdr:cNvPr id="9" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7891,14 +8358,14 @@
       <xdr:rowOff>43175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>116200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1040125</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1324841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPr id="10" name="圖片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7917,8 +8384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25977" y="1090925"/>
-          <a:ext cx="4670882" cy="3507052"/>
+          <a:off x="25977" y="1100450"/>
+          <a:ext cx="4662223" cy="3510516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8486,7 +8953,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9466608" cy="581853"/>
+          <a:ext cx="9458325" cy="590550"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -10014,115 +10481,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="110" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
+      <c r="A1" s="123" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="C4" s="31"/>
-      <c r="D4" s="79" t="s">
-        <v>233</v>
+      <c r="D4" s="74" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="111" t="s">
-        <v>62</v>
+      <c r="A5" s="124" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>61</v>
+        <v>113</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="111"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="79" t="s">
-        <v>53</v>
+      <c r="D6" s="74" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104" t="s">
+      <c r="A7" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
+      <c r="A8" s="126"/>
+      <c r="B8" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
+      <c r="A9" s="124" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="113"/>
-      <c r="B8" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="105" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="111" t="s">
-        <v>58</v>
-      </c>
       <c r="B9" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A10" s="111"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="31"/>
-      <c r="D10" s="79" t="s">
-        <v>41</v>
+      <c r="D10" s="74" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
@@ -10288,10 +10755,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="20">
         <v>41563</v>
@@ -10424,7 +10891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
@@ -10438,17 +10905,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="126" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="M1" s="139" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="127"/>
+      <c r="M2" s="140"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="127"/>
+      <c r="M3" s="140"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -10464,256 +10931,256 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="130" t="s">
+    <row r="5" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="136"/>
-    </row>
-    <row r="6" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="123" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="125"/>
-    </row>
-    <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="114" t="s">
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="149"/>
+    </row>
+    <row r="6" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="136" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="138"/>
+    </row>
+    <row r="7" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="118" t="s">
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
-    </row>
-    <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="133"/>
+    </row>
+    <row r="8" spans="1:13" s="70" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="134" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="135"/>
+    </row>
+    <row r="9" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="133"/>
+    </row>
+    <row r="10" spans="1:13" s="70" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="135"/>
+    </row>
+    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="133"/>
+    </row>
+    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
+      <c r="A12" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="135"/>
+    </row>
+    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="133"/>
+    </row>
+    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A14" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
-    </row>
-    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
-    </row>
-    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="121" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
-    </row>
-    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="120"/>
-    </row>
-    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="122"/>
-    </row>
-    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="120"/>
-    </row>
-    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
-    </row>
-    <row r="15" spans="1:13" s="76" customFormat="1" ht="16.5">
-      <c r="A15" s="130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-    </row>
-    <row r="16" spans="1:13" s="76" customFormat="1" ht="14.25"/>
-    <row r="17" s="76" customFormat="1" ht="14.25"/>
-    <row r="18" s="76" customFormat="1" ht="14.25"/>
-    <row r="19" s="76" customFormat="1" ht="14.25"/>
-    <row r="20" s="76" customFormat="1" ht="14.25"/>
-    <row r="21" s="76" customFormat="1" ht="14.25"/>
-    <row r="22" s="76" customFormat="1" ht="14.25"/>
-    <row r="23" s="76" customFormat="1" ht="14.25"/>
-    <row r="24" s="76" customFormat="1" ht="14.25"/>
-    <row r="25" s="76" customFormat="1" ht="14.25"/>
-    <row r="26" s="76" customFormat="1" ht="14.25"/>
-    <row r="27" s="76" customFormat="1" ht="14.25"/>
-    <row r="28" s="76" customFormat="1" ht="14.25"/>
-    <row r="29" s="76" customFormat="1" ht="14.25"/>
-    <row r="30" s="76" customFormat="1" ht="14.25"/>
-    <row r="31" s="76" customFormat="1" ht="14.25"/>
-    <row r="32" s="76" customFormat="1" ht="14.25"/>
-    <row r="33" s="76" customFormat="1" ht="14.25"/>
-    <row r="34" s="76" customFormat="1" ht="14.25"/>
-    <row r="35" s="76" customFormat="1" ht="14.25"/>
-    <row r="36" s="76" customFormat="1" ht="14.25"/>
-    <row r="37" s="76" customFormat="1" ht="14.25"/>
-    <row r="38" s="76" customFormat="1" ht="14.25"/>
-    <row r="39" s="76" customFormat="1" ht="14.25"/>
-    <row r="40" s="76" customFormat="1" ht="14.25"/>
-    <row r="41" s="76" customFormat="1" ht="14.25"/>
-    <row r="42" s="76" customFormat="1" ht="14.25"/>
-    <row r="43" s="76" customFormat="1" ht="14.25"/>
-    <row r="44" s="76" customFormat="1" ht="14.25"/>
-    <row r="45" s="76" customFormat="1" ht="14.25"/>
-    <row r="46" s="76" customFormat="1" ht="14.25"/>
-    <row r="47" s="76" customFormat="1" ht="14.25"/>
-    <row r="48" s="76" customFormat="1" ht="14.25"/>
-    <row r="49" s="76" customFormat="1" ht="14.25"/>
-    <row r="50" s="76" customFormat="1" ht="14.25"/>
-    <row r="51" s="76" customFormat="1" ht="14.25"/>
-    <row r="52" s="76" customFormat="1" ht="14.25"/>
-    <row r="53" s="76" customFormat="1" ht="14.25"/>
-    <row r="54" s="76" customFormat="1" ht="14.25"/>
-    <row r="55" s="76" customFormat="1" ht="14.25"/>
-    <row r="56" s="76" customFormat="1" ht="14.25"/>
-    <row r="57" s="76" customFormat="1" ht="14.25"/>
-    <row r="58" s="76" customFormat="1" ht="14.25"/>
-    <row r="59" s="76" customFormat="1" ht="14.25"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="135"/>
+    </row>
+    <row r="15" spans="1:13" s="71" customFormat="1" ht="16.5">
+      <c r="A15" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="135"/>
+    </row>
+    <row r="16" spans="1:13" s="71" customFormat="1" ht="14.25"/>
+    <row r="17" s="71" customFormat="1" ht="14.25"/>
+    <row r="18" s="71" customFormat="1" ht="14.25"/>
+    <row r="19" s="71" customFormat="1" ht="14.25"/>
+    <row r="20" s="71" customFormat="1" ht="14.25"/>
+    <row r="21" s="71" customFormat="1" ht="14.25"/>
+    <row r="22" s="71" customFormat="1" ht="14.25"/>
+    <row r="23" s="71" customFormat="1" ht="14.25"/>
+    <row r="24" s="71" customFormat="1" ht="14.25"/>
+    <row r="25" s="71" customFormat="1" ht="14.25"/>
+    <row r="26" s="71" customFormat="1" ht="14.25"/>
+    <row r="27" s="71" customFormat="1" ht="14.25"/>
+    <row r="28" s="71" customFormat="1" ht="14.25"/>
+    <row r="29" s="71" customFormat="1" ht="14.25"/>
+    <row r="30" s="71" customFormat="1" ht="14.25"/>
+    <row r="31" s="71" customFormat="1" ht="14.25"/>
+    <row r="32" s="71" customFormat="1" ht="14.25"/>
+    <row r="33" s="71" customFormat="1" ht="14.25"/>
+    <row r="34" s="71" customFormat="1" ht="14.25"/>
+    <row r="35" s="71" customFormat="1" ht="14.25"/>
+    <row r="36" s="71" customFormat="1" ht="14.25"/>
+    <row r="37" s="71" customFormat="1" ht="14.25"/>
+    <row r="38" s="71" customFormat="1" ht="14.25"/>
+    <row r="39" s="71" customFormat="1" ht="14.25"/>
+    <row r="40" s="71" customFormat="1" ht="14.25"/>
+    <row r="41" s="71" customFormat="1" ht="14.25"/>
+    <row r="42" s="71" customFormat="1" ht="14.25"/>
+    <row r="43" s="71" customFormat="1" ht="14.25"/>
+    <row r="44" s="71" customFormat="1" ht="14.25"/>
+    <row r="45" s="71" customFormat="1" ht="14.25"/>
+    <row r="46" s="71" customFormat="1" ht="14.25"/>
+    <row r="47" s="71" customFormat="1" ht="14.25"/>
+    <row r="48" s="71" customFormat="1" ht="14.25"/>
+    <row r="49" s="71" customFormat="1" ht="14.25"/>
+    <row r="50" s="71" customFormat="1" ht="14.25"/>
+    <row r="51" s="71" customFormat="1" ht="14.25"/>
+    <row r="52" s="71" customFormat="1" ht="14.25"/>
+    <row r="53" s="71" customFormat="1" ht="14.25"/>
+    <row r="54" s="71" customFormat="1" ht="14.25"/>
+    <row r="55" s="71" customFormat="1" ht="14.25"/>
+    <row r="56" s="71" customFormat="1" ht="14.25"/>
+    <row r="57" s="71" customFormat="1" ht="14.25"/>
+    <row r="58" s="71" customFormat="1" ht="14.25"/>
+    <row r="59" s="71" customFormat="1" ht="14.25"/>
     <row r="69" spans="1:12" ht="27.75" customHeight="1"/>
     <row r="70" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A70" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="132"/>
-      <c r="C70" s="132"/>
-      <c r="D70" s="132"/>
-      <c r="E70" s="132"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="133"/>
+      <c r="A70" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="145"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="145"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="145"/>
+      <c r="G70" s="145"/>
+      <c r="H70" s="145"/>
+      <c r="I70" s="145"/>
+      <c r="J70" s="145"/>
+      <c r="K70" s="145"/>
+      <c r="L70" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -10815,15 +11282,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="126" t="s">
-        <v>230</v>
+      <c r="P1" s="139" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="127"/>
+      <c r="P2" s="140"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="127"/>
+      <c r="P3" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10870,18 +11337,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="52" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="50" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="50" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="50" customWidth="1"/>
@@ -10893,19 +11359,19 @@
     <col min="12" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="51" customFormat="1" ht="17.25" thickTop="1">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="159" t="s">
-        <v>45</v>
+    <row r="1" spans="1:17" s="100" customFormat="1" ht="17.25" thickTop="1">
+      <c r="A1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="223" t="s">
+        <v>226</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -10914,1124 +11380,1300 @@
       <c r="P1" s="50"/>
       <c r="Q1" s="50"/>
     </row>
-    <row r="2" spans="1:17" s="51" customFormat="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="160"/>
-    </row>
-    <row r="3" spans="1:17" s="51" customFormat="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="160"/>
-    </row>
-    <row r="4" spans="1:17" s="51" customFormat="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-    </row>
-    <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="167" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+    <row r="2" spans="1:17" s="100" customFormat="1">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="224"/>
+    </row>
+    <row r="3" spans="1:17" s="100" customFormat="1">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="224"/>
+    </row>
+    <row r="4" spans="1:17" s="100" customFormat="1">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+    </row>
+    <row r="5" spans="1:17" s="100" customFormat="1">
+      <c r="A5" s="222" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="168"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
+      <c r="A7" s="225"/>
+      <c r="B7" s="226"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="228"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="168"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
+      <c r="A8" s="225"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="228"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="174"/>
+      <c r="A9" s="229"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="231"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="167" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="A10" s="222" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="175" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
+      <c r="A11" s="221" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="167" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="A12" s="222" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="A13" s="221" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="A14" s="222" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="133"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="179" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="181"/>
+      <c r="A15" s="195" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="218"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="219"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="182" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="184"/>
+        <v>235</v>
+      </c>
+      <c r="C16" s="210" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="212"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="185" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="187"/>
+        <v>237</v>
+      </c>
+      <c r="C17" s="220" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="185" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="187"/>
+        <v>239</v>
+      </c>
+      <c r="C18" s="220" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="185" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="187"/>
+        <v>241</v>
+      </c>
+      <c r="C19" s="220" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="141"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="154"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="179" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="181"/>
+      <c r="A21" s="195" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="218"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="219"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="182" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="184"/>
+        <v>245</v>
+      </c>
+      <c r="C22" s="210" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="212"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="190" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="187"/>
+        <v>237</v>
+      </c>
+      <c r="C23" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="190" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="187"/>
+        <v>239</v>
+      </c>
+      <c r="C24" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
         <v>3</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="190" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="187"/>
+        <v>241</v>
+      </c>
+      <c r="C25" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="190" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="187"/>
+        <v>247</v>
+      </c>
+      <c r="C26" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="164"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="166"/>
+      <c r="A27" s="213"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="215"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="176" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="177"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="178"/>
+      <c r="A28" s="180" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="217"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="179" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="181"/>
+      <c r="A29" s="195" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="219"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="182" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
+        <v>245</v>
+      </c>
+      <c r="C30" s="210" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="212"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="191" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="193"/>
+        <v>237</v>
+      </c>
+      <c r="C31" s="204" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="206"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="194"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="195"/>
-      <c r="G32" s="195"/>
-      <c r="H32" s="195"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="196"/>
-    </row>
-    <row r="33" spans="1:12" s="52" customFormat="1">
+        <v>250</v>
+      </c>
+      <c r="C32" s="207"/>
+      <c r="D32" s="208"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="209"/>
+    </row>
+    <row r="33" spans="1:10" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="190" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="187"/>
-    </row>
-    <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="140"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="141"/>
-    </row>
-    <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="179" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="188"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="189"/>
-    </row>
-    <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
+        <v>251</v>
+      </c>
+      <c r="C33" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="199"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="199"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="200"/>
+    </row>
+    <row r="34" spans="1:10" s="52" customFormat="1">
+      <c r="A34" s="153"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="154"/>
+    </row>
+    <row r="35" spans="1:10" s="52" customFormat="1">
+      <c r="A35" s="195" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="196"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
+    </row>
+    <row r="36" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="182" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="184"/>
-    </row>
-    <row r="37" spans="1:12" s="52" customFormat="1">
+        <v>235</v>
+      </c>
+      <c r="C36" s="210" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="212"/>
+    </row>
+    <row r="37" spans="1:10" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="190" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="187"/>
-    </row>
-    <row r="38" spans="1:12" s="52" customFormat="1">
+        <v>255</v>
+      </c>
+      <c r="C37" s="198" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="199"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="199"/>
+      <c r="H37" s="199"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="200"/>
+    </row>
+    <row r="38" spans="1:10" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="190" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="187"/>
-    </row>
-    <row r="39" spans="1:12" s="52" customFormat="1">
+        <v>250</v>
+      </c>
+      <c r="C38" s="198" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="199"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="200"/>
+    </row>
+    <row r="39" spans="1:10" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>3</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="190" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="186"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="187"/>
-    </row>
-    <row r="40" spans="1:12" s="52" customFormat="1">
+        <v>251</v>
+      </c>
+      <c r="C39" s="198" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="199"/>
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="200"/>
+    </row>
+    <row r="40" spans="1:10" s="52" customFormat="1">
       <c r="A40" s="55">
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="190" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
-      <c r="J40" s="187"/>
-    </row>
-    <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="140"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="141"/>
-    </row>
-    <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="176" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="197"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="197"/>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="198"/>
-    </row>
-    <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="199" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43" s="200"/>
-      <c r="G43" s="200"/>
-      <c r="H43" s="200"/>
-      <c r="I43" s="200"/>
-      <c r="J43" s="200"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-    </row>
-    <row r="44" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
-      <c r="A44" s="59">
+        <v>257</v>
+      </c>
+      <c r="C40" s="198" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="199"/>
+      <c r="E40" s="199"/>
+      <c r="F40" s="199"/>
+      <c r="G40" s="199"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="200"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="201"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="202"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="202"/>
+      <c r="J41" s="203"/>
+    </row>
+    <row r="42" spans="1:10" s="52" customFormat="1">
+      <c r="A42" s="192" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42" s="193"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="193"/>
+      <c r="G42" s="193"/>
+      <c r="H42" s="193"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="194"/>
+    </row>
+    <row r="43" spans="1:10" s="52" customFormat="1">
+      <c r="A43" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="196"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="197"/>
+    </row>
+    <row r="44" spans="1:10" s="52" customFormat="1">
+      <c r="A44" s="55"/>
+      <c r="B44" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" s="104" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="104" t="s">
+        <v>262</v>
+      </c>
+      <c r="E44" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="186" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="188"/>
+    </row>
+    <row r="45" spans="1:10" s="52" customFormat="1">
+      <c r="A45" s="55">
         <v>1</v>
       </c>
-      <c r="B44" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="150" t="s">
-        <v>164</v>
-      </c>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-    </row>
-    <row r="45" spans="1:12" s="52" customFormat="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="141"/>
-    </row>
-    <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="161" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="162"/>
-      <c r="C46" s="162"/>
-      <c r="D46" s="162"/>
-      <c r="E46" s="162"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="162"/>
-      <c r="H46" s="162"/>
-      <c r="I46" s="162"/>
-      <c r="J46" s="163"/>
-    </row>
-    <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A47" s="55">
+      <c r="B45" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" s="189" t="s">
+        <v>269</v>
+      </c>
+      <c r="G45" s="190"/>
+      <c r="H45" s="190"/>
+      <c r="I45" s="190"/>
+      <c r="J45" s="191"/>
+    </row>
+    <row r="46" spans="1:10" s="52" customFormat="1">
+      <c r="A46" s="96"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="107"/>
+    </row>
+    <row r="47" spans="1:10" s="52" customFormat="1">
+      <c r="A47" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="193"/>
+      <c r="C47" s="193"/>
+      <c r="D47" s="193"/>
+      <c r="E47" s="193"/>
+      <c r="F47" s="193"/>
+      <c r="G47" s="193"/>
+      <c r="H47" s="193"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="194"/>
+    </row>
+    <row r="48" spans="1:10" s="52" customFormat="1">
+      <c r="A48" s="195" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="196"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="196"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="197"/>
+    </row>
+    <row r="49" spans="1:12" s="52" customFormat="1">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" s="104" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="104" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" s="186" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
+      <c r="J49" s="188"/>
+    </row>
+    <row r="50" spans="1:12" s="52" customFormat="1">
+      <c r="A50" s="55">
         <v>1</v>
       </c>
-      <c r="B47" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
-    </row>
-    <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
-      <c r="A48" s="63">
+      <c r="B50" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="C50" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="E50" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="F50" s="189" t="s">
+        <v>273</v>
+      </c>
+      <c r="G50" s="190"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="191"/>
+    </row>
+    <row r="51" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="153"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="165"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="165"/>
+      <c r="J51" s="154"/>
+    </row>
+    <row r="52" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="180" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="181"/>
+      <c r="G52" s="181"/>
+      <c r="H52" s="181"/>
+      <c r="I52" s="181"/>
+      <c r="J52" s="182"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+    </row>
+    <row r="53" spans="1:12" s="52" customFormat="1">
+      <c r="A53" s="110" t="s">
+        <v>244</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="E53" s="183" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="184"/>
+      <c r="G53" s="184"/>
+      <c r="H53" s="184"/>
+      <c r="I53" s="184"/>
+      <c r="J53" s="185"/>
+    </row>
+    <row r="54" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
+      <c r="A54" s="161">
+        <v>1</v>
+      </c>
+      <c r="B54" s="161" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="60"/>
+      <c r="E54" s="155" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="157"/>
+    </row>
+    <row r="55" spans="1:12" s="52" customFormat="1" ht="49.5">
+      <c r="A55" s="162"/>
+      <c r="B55" s="162"/>
+      <c r="C55" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="E55" s="155" t="s">
+        <v>283</v>
+      </c>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="157"/>
+    </row>
+    <row r="56" spans="1:12" s="52" customFormat="1">
+      <c r="A56" s="159"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
+      <c r="E56" s="174"/>
+      <c r="F56" s="174"/>
+      <c r="G56" s="174"/>
+      <c r="H56" s="174"/>
+      <c r="I56" s="174"/>
+      <c r="J56" s="175"/>
+    </row>
+    <row r="57" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="176" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
+      <c r="H57" s="177"/>
+      <c r="I57" s="177"/>
+      <c r="J57" s="178"/>
+    </row>
+    <row r="58" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A58" s="59">
+        <v>1</v>
+      </c>
+      <c r="B58" s="163" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="108"/>
+      <c r="E58" s="171" t="s">
+        <v>287</v>
+      </c>
+      <c r="F58" s="172"/>
+      <c r="G58" s="172"/>
+      <c r="H58" s="172"/>
+      <c r="I58" s="172"/>
+      <c r="J58" s="173"/>
+    </row>
+    <row r="59" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A59" s="59"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="109" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="108"/>
+      <c r="E59" s="171" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" s="172"/>
+      <c r="G59" s="172"/>
+      <c r="H59" s="172"/>
+      <c r="I59" s="172"/>
+      <c r="J59" s="173"/>
+    </row>
+    <row r="60" spans="1:12" s="52" customFormat="1" ht="48" customHeight="1">
+      <c r="A60" s="59"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" s="108" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" s="171" t="s">
+        <v>292</v>
+      </c>
+      <c r="F60" s="172"/>
+      <c r="G60" s="172"/>
+      <c r="H60" s="172"/>
+      <c r="I60" s="172"/>
+      <c r="J60" s="173"/>
+    </row>
+    <row r="61" spans="1:12" s="52" customFormat="1" ht="78" customHeight="1">
+      <c r="A61" s="60">
         <v>2</v>
       </c>
-      <c r="B48" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="90"/>
-      <c r="E48" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="139"/>
-    </row>
-    <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A49" s="65">
-        <v>3</v>
-      </c>
-      <c r="B49" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="91"/>
-      <c r="E49" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="139"/>
-    </row>
-    <row r="50" spans="1:10" s="52" customFormat="1">
-      <c r="A50" s="66"/>
-      <c r="B50" s="157"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="141"/>
-    </row>
-    <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="151" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="153"/>
-    </row>
-    <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
-      <c r="A52" s="55">
+      <c r="B61" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="95"/>
+      <c r="E61" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="157"/>
+    </row>
+    <row r="62" spans="1:12" s="52" customFormat="1">
+      <c r="A62" s="61"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="165"/>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="154"/>
+    </row>
+    <row r="63" spans="1:12" s="52" customFormat="1">
+      <c r="A63" s="150" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" s="169"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="169"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="170"/>
+    </row>
+    <row r="64" spans="1:12" s="52" customFormat="1">
+      <c r="A64" s="161">
         <v>1</v>
       </c>
-      <c r="B52" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="150" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
-    </row>
-    <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
-      <c r="A53" s="55">
+      <c r="B64" s="163" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" s="109" t="s">
+        <v>288</v>
+      </c>
+      <c r="D64" s="111"/>
+      <c r="E64" s="171" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64" s="172"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="172"/>
+      <c r="I64" s="172"/>
+      <c r="J64" s="173"/>
+    </row>
+    <row r="65" spans="1:10" s="52" customFormat="1" ht="33">
+      <c r="A65" s="162"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="112" t="s">
+        <v>296</v>
+      </c>
+      <c r="E65" s="171" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" s="172"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="173"/>
+    </row>
+    <row r="66" spans="1:10" s="52" customFormat="1">
+      <c r="A66" s="161">
         <v>2</v>
       </c>
-      <c r="B53" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="156"/>
-    </row>
-    <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
-      <c r="A54" s="55">
-        <v>3</v>
-      </c>
-      <c r="B54" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="F54" s="155"/>
-      <c r="G54" s="155"/>
-      <c r="H54" s="155"/>
-      <c r="I54" s="155"/>
-      <c r="J54" s="156"/>
-    </row>
-    <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
-      <c r="A55" s="55">
-        <v>4</v>
-      </c>
-      <c r="B55" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="90"/>
-      <c r="E55" s="154" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="155"/>
-      <c r="G55" s="155"/>
-      <c r="H55" s="155"/>
-      <c r="I55" s="155"/>
-      <c r="J55" s="156"/>
-    </row>
-    <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A56" s="55">
+      <c r="B66" s="163" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" s="95"/>
+      <c r="E66" s="155" t="s">
+        <v>299</v>
+      </c>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="157"/>
+    </row>
+    <row r="67" spans="1:10" s="52" customFormat="1" ht="49.5">
+      <c r="A67" s="162"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="D67" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67" s="155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="157"/>
+    </row>
+    <row r="68" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A68" s="62"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="154"/>
+    </row>
+    <row r="69" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="166" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" s="167"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="167"/>
+      <c r="F69" s="167"/>
+      <c r="G69" s="167"/>
+      <c r="H69" s="167"/>
+      <c r="I69" s="167"/>
+      <c r="J69" s="168"/>
+    </row>
+    <row r="70" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="159" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" s="160"/>
+      <c r="D70" s="155" t="s">
+        <v>305</v>
+      </c>
+      <c r="E70" s="134"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="134"/>
+      <c r="H70" s="134"/>
+      <c r="I70" s="134"/>
+      <c r="J70" s="135"/>
+    </row>
+    <row r="71" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="150"/>
+      <c r="B71" s="151"/>
+      <c r="C71" s="151"/>
+      <c r="D71" s="151"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="151"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="151"/>
+      <c r="J71" s="152"/>
+    </row>
+    <row r="72" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A72" s="60"/>
+      <c r="B72" s="153"/>
+      <c r="C72" s="154"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="156"/>
+      <c r="F72" s="156"/>
+      <c r="G72" s="156"/>
+      <c r="H72" s="156"/>
+      <c r="I72" s="156"/>
+      <c r="J72" s="157"/>
+    </row>
+    <row r="73" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A73" s="60"/>
+      <c r="B73" s="153"/>
+      <c r="C73" s="154"/>
+      <c r="D73" s="155"/>
+      <c r="E73" s="156"/>
+      <c r="F73" s="156"/>
+      <c r="G73" s="156"/>
+      <c r="H73" s="156"/>
+      <c r="I73" s="156"/>
+      <c r="J73" s="157"/>
+    </row>
+    <row r="74" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="150"/>
+      <c r="B74" s="151"/>
+      <c r="C74" s="151"/>
+      <c r="D74" s="151"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="151"/>
+      <c r="G74" s="151"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="152"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="60"/>
+      <c r="B75" s="153"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="155"/>
+      <c r="E75" s="156"/>
+      <c r="F75" s="156"/>
+      <c r="G75" s="156"/>
+      <c r="H75" s="156"/>
+      <c r="I75" s="156"/>
+      <c r="J75" s="157"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B76" s="64"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="66"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="60">
         <v>1</v>
       </c>
-      <c r="B56" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="D56" s="91"/>
-      <c r="E56" s="137" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="122"/>
-    </row>
-    <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A57" s="55">
+      <c r="B77" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" s="153"/>
+      <c r="D77" s="134"/>
+      <c r="E77" s="134"/>
+      <c r="F77" s="134"/>
+      <c r="G77" s="134"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="134"/>
+      <c r="J77" s="135"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="60">
         <v>2</v>
       </c>
-      <c r="B57" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="154" t="s">
-        <v>213</v>
-      </c>
-      <c r="F57" s="155"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="156"/>
-    </row>
-    <row r="58" spans="1:10" s="52" customFormat="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="157"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="141"/>
-    </row>
-    <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="147" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="148"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="148"/>
-      <c r="F59" s="148"/>
-      <c r="G59" s="148"/>
-      <c r="H59" s="148"/>
-      <c r="I59" s="148"/>
-      <c r="J59" s="149"/>
-    </row>
-    <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="146"/>
-      <c r="D60" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" s="121"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="121"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="122"/>
-    </row>
-    <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="142"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="143"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="143"/>
-      <c r="H61" s="143"/>
-      <c r="I61" s="143"/>
-      <c r="J61" s="144"/>
-    </row>
-    <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="65"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="138"/>
-      <c r="G62" s="138"/>
-      <c r="H62" s="138"/>
-      <c r="I62" s="138"/>
-      <c r="J62" s="139"/>
-    </row>
-    <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="65"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="141"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="138"/>
-      <c r="G63" s="138"/>
-      <c r="H63" s="138"/>
-      <c r="I63" s="138"/>
-      <c r="J63" s="139"/>
-    </row>
-    <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="142"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143"/>
-      <c r="F64" s="143"/>
-      <c r="G64" s="143"/>
-      <c r="H64" s="143"/>
-      <c r="I64" s="143"/>
-      <c r="J64" s="144"/>
-    </row>
-    <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="65"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="138"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="138"/>
-      <c r="J65" s="139"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="69"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="71"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="65">
-        <v>1</v>
-      </c>
-      <c r="B67" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="140"/>
-      <c r="D67" s="121"/>
-      <c r="E67" s="121"/>
-      <c r="F67" s="121"/>
-      <c r="G67" s="121"/>
-      <c r="H67" s="121"/>
-      <c r="I67" s="121"/>
-      <c r="J67" s="122"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="65">
-        <v>2</v>
-      </c>
-      <c r="B68" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="158"/>
-      <c r="D68" s="158"/>
-      <c r="E68" s="158"/>
-      <c r="F68" s="158"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="158"/>
-      <c r="J68" s="158"/>
+      <c r="B78" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" s="158"/>
+      <c r="D78" s="158"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="158"/>
+      <c r="H78" s="158"/>
+      <c r="I78" s="158"/>
+      <c r="J78" s="158"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
+  <mergeCells count="80">
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
     <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="F49:J49"/>
     <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A52:J52"/>
     <mergeCell ref="E53:J53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
     <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
     <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:J72"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K1" location="總表!A1" display="回總表"/>
     <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
@@ -12082,8 +12724,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="159" t="s">
-        <v>45</v>
+      <c r="K1" s="223" t="s">
+        <v>42</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -12109,7 +12751,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="160"/>
+      <c r="K2" s="224"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12127,7 +12769,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="160"/>
+      <c r="K3" s="224"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12171,18 +12813,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="203"/>
+      <c r="A6" s="232" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="234"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -12192,19 +12834,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -12213,10 +12855,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -12249,34 +12891,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="201" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="203"/>
+      <c r="A10" s="232" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -12285,10 +12927,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -12299,26 +12941,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="G12" s="42" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -12327,26 +12969,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="G13" s="42" t="s">
         <v>79</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -12355,60 +12997,60 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="81" t="s">
-        <v>244</v>
+        <v>117</v>
+      </c>
+      <c r="J14" s="76" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="201" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="203"/>
+      <c r="A16" s="232" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="233"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="234"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -12417,10 +13059,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -12430,25 +13072,25 @@
       <c r="A18" s="45">
         <v>1</v>
       </c>
-      <c r="B18" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>88</v>
+      <c r="B18" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>84</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -12456,25 +13098,25 @@
       <c r="A19" s="45">
         <v>2</v>
       </c>
-      <c r="B19" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>90</v>
+      <c r="B19" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>86</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -12483,55 +13125,55 @@
         <v>3</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="81" t="s">
-        <v>243</v>
+        <v>85</v>
+      </c>
+      <c r="J20" s="76" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="45">
         <v>4</v>
       </c>
-      <c r="B21" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>92</v>
+      <c r="B21" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>88</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -12547,34 +13189,34 @@
       <c r="K22" s="49"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="201" t="s">
-        <v>267</v>
-      </c>
-      <c r="B24" s="202"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="203"/>
+      <c r="A24" s="232" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="233"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="234"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="39" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>17</v>
@@ -12583,10 +13225,10 @@
         <v>12</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="J25" s="39" t="s">
         <v>0</v>
@@ -12596,25 +13238,25 @@
       <c r="A26" s="45">
         <v>1</v>
       </c>
-      <c r="B26" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="106" t="s">
-        <v>88</v>
+      <c r="B26" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>84</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J26" s="45"/>
     </row>
@@ -12622,25 +13264,25 @@
       <c r="A27" s="45">
         <v>2</v>
       </c>
-      <c r="B27" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="106" t="s">
-        <v>90</v>
+      <c r="B27" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>86</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J27" s="45"/>
     </row>
@@ -12648,25 +13290,25 @@
       <c r="A28" s="45">
         <v>3</v>
       </c>
-      <c r="B28" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="C28" s="106" t="s">
-        <v>276</v>
+      <c r="B28" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>216</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="42" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J28" s="45"/>
     </row>
@@ -12674,25 +13316,25 @@
       <c r="A29" s="45">
         <v>4</v>
       </c>
-      <c r="B29" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="106" t="s">
-        <v>277</v>
+      <c r="B29" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>217</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="42" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H29" s="42"/>
       <c r="I29" s="40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J29" s="45"/>
     </row>
@@ -12700,32 +13342,32 @@
       <c r="A30" s="45">
         <v>5</v>
       </c>
-      <c r="B30" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="106" t="s">
-        <v>275</v>
+      <c r="B30" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>215</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="42" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="J30" s="87"/>
+        <v>85</v>
+      </c>
+      <c r="J30" s="80"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="45"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="106"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="42"/>
       <c r="E31" s="42"/>
       <c r="F31" s="43"/>
@@ -12760,10 +13402,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J14"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12791,8 +13433,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="159" t="s">
-        <v>45</v>
+      <c r="K1" s="223" t="s">
+        <v>42</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -12812,7 +13454,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="160"/>
+      <c r="K2" s="224"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -12825,7 +13467,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="160"/>
+      <c r="K3" s="224"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -12840,989 +13482,1326 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="168"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
+      <c r="A7" s="225"/>
+      <c r="B7" s="226"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="228"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="168"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
+      <c r="A8" s="225"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="228"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="174"/>
+      <c r="A9" s="229"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="231"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="175" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
+      <c r="A11" s="221" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="133"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="179" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="180"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="181"/>
+      <c r="A15" s="195" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="218"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="219"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="182" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="184"/>
+        <v>119</v>
+      </c>
+      <c r="C16" s="210" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="212"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="185" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="187"/>
+        <v>130</v>
+      </c>
+      <c r="C17" s="220" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="185" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="187"/>
+        <v>92</v>
+      </c>
+      <c r="C18" s="220" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="45">
         <v>3</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="185" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="187"/>
+        <v>97</v>
+      </c>
+      <c r="C19" s="220" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A20" s="179" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="181"/>
+      <c r="A20" s="195" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="218"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="219"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="182" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
+        <v>46</v>
+      </c>
+      <c r="C21" s="210" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="211"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="212"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
-      <c r="B22" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="217" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="209"/>
+      <c r="B22" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="276" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="270"/>
+      <c r="E22" s="270"/>
+      <c r="F22" s="270"/>
+      <c r="G22" s="270"/>
+      <c r="H22" s="270"/>
+      <c r="I22" s="270"/>
+      <c r="J22" s="270"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="209"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="209"/>
+        <v>146</v>
+      </c>
+      <c r="C23" s="270"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="270"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="270"/>
+      <c r="J23" s="270"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="209"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="209"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="209"/>
+        <v>135</v>
+      </c>
+      <c r="C24" s="270"/>
+      <c r="D24" s="270"/>
+      <c r="E24" s="270"/>
+      <c r="F24" s="270"/>
+      <c r="G24" s="270"/>
+      <c r="H24" s="270"/>
+      <c r="I24" s="270"/>
+      <c r="J24" s="270"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="55">
         <v>4</v>
       </c>
-      <c r="B25" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="209"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="209"/>
+      <c r="B25" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="270"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="270"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="270"/>
+      <c r="I25" s="270"/>
+      <c r="J25" s="270"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>5</v>
       </c>
-      <c r="B26" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="209"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="209"/>
+      <c r="B26" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="270"/>
+      <c r="E26" s="270"/>
+      <c r="F26" s="270"/>
+      <c r="G26" s="270"/>
+      <c r="H26" s="270"/>
+      <c r="I26" s="270"/>
+      <c r="J26" s="270"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="204"/>
-      <c r="B27" s="205"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="206"/>
+      <c r="A27" s="267"/>
+      <c r="B27" s="268"/>
+      <c r="C27" s="268"/>
+      <c r="D27" s="268"/>
+      <c r="E27" s="268"/>
+      <c r="F27" s="268"/>
+      <c r="G27" s="268"/>
+      <c r="H27" s="268"/>
+      <c r="I27" s="268"/>
+      <c r="J27" s="269"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="176" t="s">
+      <c r="A28" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="197"/>
-      <c r="C28" s="197"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="198"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="182"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A29" s="179" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="181"/>
+      <c r="A29" s="195" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="219"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="182" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
+        <v>119</v>
+      </c>
+      <c r="C30" s="210" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="212"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="45">
         <v>1</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="185" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="187"/>
+        <v>130</v>
+      </c>
+      <c r="C31" s="220" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1" ht="30.75" customHeight="1">
       <c r="A32" s="45">
         <v>2</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="185" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="187"/>
-    </row>
-    <row r="33" spans="1:12" s="52" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A33" s="94">
+        <v>92</v>
+      </c>
+      <c r="C32" s="220" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="199"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="200"/>
+    </row>
+    <row r="33" spans="1:10" s="52" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A33" s="81">
         <v>3</v>
       </c>
-      <c r="B33" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="210" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" s="211"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="212"/>
-    </row>
-    <row r="34" spans="1:12" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A34" s="179" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="180"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="181"/>
-    </row>
-    <row r="35" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B33" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="271" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="272"/>
+      <c r="E33" s="272"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="272"/>
+      <c r="I33" s="272"/>
+      <c r="J33" s="273"/>
+    </row>
+    <row r="34" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A34" s="195" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="218"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="219"/>
+    </row>
+    <row r="35" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="182" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="184"/>
-    </row>
-    <row r="36" spans="1:12" s="52" customFormat="1">
+        <v>46</v>
+      </c>
+      <c r="C35" s="210" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="211"/>
+      <c r="J35" s="212"/>
+    </row>
+    <row r="36" spans="1:10" s="52" customFormat="1">
       <c r="A36" s="55">
         <v>1</v>
       </c>
-      <c r="B36" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="185" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="214"/>
-    </row>
-    <row r="37" spans="1:12" s="52" customFormat="1">
+      <c r="B36" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="220" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="274"/>
+      <c r="E36" s="274"/>
+      <c r="F36" s="274"/>
+      <c r="G36" s="274"/>
+      <c r="H36" s="274"/>
+      <c r="I36" s="274"/>
+      <c r="J36" s="275"/>
+    </row>
+    <row r="37" spans="1:10" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="185" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="213"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="214"/>
-    </row>
-    <row r="38" spans="1:12" s="52" customFormat="1">
+        <v>146</v>
+      </c>
+      <c r="C37" s="220" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="274"/>
+      <c r="E37" s="274"/>
+      <c r="F37" s="274"/>
+      <c r="G37" s="274"/>
+      <c r="H37" s="274"/>
+      <c r="I37" s="274"/>
+      <c r="J37" s="275"/>
+    </row>
+    <row r="38" spans="1:10" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="185" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" s="213"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="214"/>
-    </row>
-    <row r="39" spans="1:12" s="52" customFormat="1">
+        <v>135</v>
+      </c>
+      <c r="C38" s="220" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="274"/>
+      <c r="E38" s="274"/>
+      <c r="F38" s="274"/>
+      <c r="G38" s="274"/>
+      <c r="H38" s="274"/>
+      <c r="I38" s="274"/>
+      <c r="J38" s="275"/>
+    </row>
+    <row r="39" spans="1:10" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>4</v>
       </c>
-      <c r="B39" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="185" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="213"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="214"/>
-    </row>
-    <row r="40" spans="1:12" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B39" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="220" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="274"/>
+      <c r="E39" s="274"/>
+      <c r="F39" s="274"/>
+      <c r="G39" s="274"/>
+      <c r="H39" s="274"/>
+      <c r="I39" s="274"/>
+      <c r="J39" s="275"/>
+    </row>
+    <row r="40" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="55">
         <v>5</v>
       </c>
-      <c r="B40" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="185" t="s">
-        <v>196</v>
-      </c>
-      <c r="D40" s="213"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="214"/>
-    </row>
-    <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="164"/>
-      <c r="B41" s="207"/>
-      <c r="C41" s="207"/>
-      <c r="D41" s="207"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="208"/>
-    </row>
-    <row r="42" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="176" t="s">
+      <c r="B40" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="220" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="274"/>
+      <c r="E40" s="274"/>
+      <c r="F40" s="274"/>
+      <c r="G40" s="274"/>
+      <c r="H40" s="274"/>
+      <c r="I40" s="274"/>
+      <c r="J40" s="275"/>
+    </row>
+    <row r="42" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="159"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="174"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="175"/>
+    </row>
+    <row r="43" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="192" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="193"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="193"/>
+      <c r="E43" s="193"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="193"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="194"/>
+    </row>
+    <row r="44" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="195" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="196"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="197"/>
+    </row>
+    <row r="45" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A45" s="55"/>
+      <c r="B45" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" s="104" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="E45" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="F45" s="186" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="188"/>
+    </row>
+    <row r="46" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A46" s="55">
+        <v>1</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="189" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" s="190"/>
+      <c r="H46" s="190"/>
+      <c r="I46" s="190"/>
+      <c r="J46" s="191"/>
+    </row>
+    <row r="47" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A47" s="96"/>
+      <c r="B47" s="266"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="202"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="202"/>
+      <c r="H47" s="202"/>
+      <c r="I47" s="202"/>
+      <c r="J47" s="203"/>
+    </row>
+    <row r="48" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A48" s="192" t="s">
+        <v>319</v>
+      </c>
+      <c r="B48" s="193"/>
+      <c r="C48" s="193"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="193"/>
+      <c r="G48" s="193"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="194"/>
+    </row>
+    <row r="49" spans="1:16" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A49" s="195" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" s="196"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
+    </row>
+    <row r="50" spans="1:16" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C50" s="104" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="E50" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="F50" s="186" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
+      <c r="J50" s="188"/>
+    </row>
+    <row r="51" spans="1:16" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A51" s="55">
+        <v>1</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="D51" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="E51" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="F51" s="189" t="s">
+        <v>322</v>
+      </c>
+      <c r="G51" s="190"/>
+      <c r="H51" s="190"/>
+      <c r="I51" s="190"/>
+      <c r="J51" s="191"/>
+    </row>
+    <row r="52" spans="1:16" s="52" customFormat="1">
+      <c r="A52" s="213"/>
+      <c r="B52" s="260"/>
+      <c r="C52" s="260"/>
+      <c r="D52" s="260"/>
+      <c r="E52" s="260"/>
+      <c r="F52" s="260"/>
+      <c r="G52" s="260"/>
+      <c r="H52" s="260"/>
+      <c r="I52" s="260"/>
+      <c r="J52" s="261"/>
+    </row>
+    <row r="53" spans="1:16" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A53" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="178"/>
-    </row>
-    <row r="43" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="56" t="s">
+      <c r="B53" s="216"/>
+      <c r="C53" s="216"/>
+      <c r="D53" s="216"/>
+      <c r="E53" s="216"/>
+      <c r="F53" s="216"/>
+      <c r="G53" s="216"/>
+      <c r="H53" s="216"/>
+      <c r="I53" s="216"/>
+      <c r="J53" s="217"/>
+    </row>
+    <row r="54" spans="1:16" s="68" customFormat="1" ht="18" customHeight="1">
+      <c r="A54" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B54" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="199" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="200"/>
-      <c r="G43" s="200"/>
-      <c r="H43" s="200"/>
-      <c r="I43" s="200"/>
-      <c r="J43" s="200"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-    </row>
-    <row r="44" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A44" s="59">
+      <c r="E54" s="262" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="263"/>
+      <c r="G54" s="263"/>
+      <c r="H54" s="263"/>
+      <c r="I54" s="263"/>
+      <c r="J54" s="264"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+    </row>
+    <row r="55" spans="1:16" s="68" customFormat="1" ht="18" customHeight="1">
+      <c r="A55" s="161">
         <v>1</v>
       </c>
-      <c r="B44" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="150" t="s">
-        <v>199</v>
-      </c>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-    </row>
-    <row r="45" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A45" s="161" t="s">
-        <v>204</v>
-      </c>
-      <c r="B45" s="218"/>
-      <c r="C45" s="218"/>
-      <c r="D45" s="218"/>
-      <c r="E45" s="218"/>
-      <c r="F45" s="218"/>
-      <c r="G45" s="218"/>
-      <c r="H45" s="218"/>
-      <c r="I45" s="218"/>
-      <c r="J45" s="219"/>
-    </row>
-    <row r="46" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
-      <c r="A46" s="65">
+      <c r="B55" s="161" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="116"/>
+      <c r="E55" s="241" t="s">
+        <v>299</v>
+      </c>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+    </row>
+    <row r="56" spans="1:16" s="52" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A56" s="265"/>
+      <c r="B56" s="265"/>
+      <c r="C56" s="113" t="s">
+        <v>323</v>
+      </c>
+      <c r="D56" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" s="241" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+    </row>
+    <row r="57" spans="1:16" s="52" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A57" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="250"/>
+      <c r="C57" s="250"/>
+      <c r="D57" s="250"/>
+      <c r="E57" s="250"/>
+      <c r="F57" s="250"/>
+      <c r="G57" s="250"/>
+      <c r="H57" s="250"/>
+      <c r="I57" s="250"/>
+      <c r="J57" s="251"/>
+    </row>
+    <row r="58" spans="1:16" s="52" customFormat="1" ht="33" customHeight="1">
+      <c r="A58" s="252">
         <v>1</v>
       </c>
-      <c r="B46" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="89" t="s">
+      <c r="B58" s="253" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="D58" s="98"/>
+      <c r="E58" s="155" t="s">
+        <v>326</v>
+      </c>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="157"/>
+    </row>
+    <row r="59" spans="1:16" s="52" customFormat="1" ht="33" customHeight="1">
+      <c r="A59" s="245"/>
+      <c r="B59" s="246"/>
+      <c r="C59" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="D59" s="118"/>
+      <c r="E59" s="254" t="s">
+        <v>328</v>
+      </c>
+      <c r="F59" s="255"/>
+      <c r="G59" s="255"/>
+      <c r="H59" s="255"/>
+      <c r="I59" s="255"/>
+      <c r="J59" s="256"/>
+    </row>
+    <row r="60" spans="1:16" s="52" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A60" s="162"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="119" t="s">
+        <v>329</v>
+      </c>
+      <c r="D60" s="118" t="s">
+        <v>330</v>
+      </c>
+      <c r="E60" s="257" t="s">
+        <v>331</v>
+      </c>
+      <c r="F60" s="258"/>
+      <c r="G60" s="258"/>
+      <c r="H60" s="258"/>
+      <c r="I60" s="258"/>
+      <c r="J60" s="259"/>
+    </row>
+    <row r="61" spans="1:16" s="52" customFormat="1" ht="75" customHeight="1">
+      <c r="A61" s="60">
+        <v>2</v>
+      </c>
+      <c r="B61" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="150" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="117"/>
-    </row>
-    <row r="47" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
-      <c r="A47" s="65">
+      <c r="C61" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="97"/>
+      <c r="E61" s="241" t="s">
+        <v>332</v>
+      </c>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+    </row>
+    <row r="62" spans="1:16" s="52" customFormat="1" ht="18" customHeight="1">
+      <c r="A62" s="183"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="202"/>
+      <c r="E62" s="202"/>
+      <c r="F62" s="202"/>
+      <c r="G62" s="202"/>
+      <c r="H62" s="202"/>
+      <c r="I62" s="202"/>
+      <c r="J62" s="203"/>
+    </row>
+    <row r="63" spans="1:16" s="54" customFormat="1" ht="18" customHeight="1">
+      <c r="A63" s="176" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
+      <c r="E63" s="177"/>
+      <c r="F63" s="177"/>
+      <c r="G63" s="177"/>
+      <c r="H63" s="177"/>
+      <c r="I63" s="177"/>
+      <c r="J63" s="178"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+    </row>
+    <row r="64" spans="1:16" s="52" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A64" s="161">
+        <v>1</v>
+      </c>
+      <c r="B64" s="163" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="D64" s="97"/>
+      <c r="E64" s="247" t="s">
+        <v>345</v>
+      </c>
+      <c r="F64" s="248"/>
+      <c r="G64" s="248"/>
+      <c r="H64" s="248"/>
+      <c r="I64" s="248"/>
+      <c r="J64" s="249"/>
+      <c r="K64" s="241"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="130"/>
+      <c r="O64" s="130"/>
+      <c r="P64" s="130"/>
+    </row>
+    <row r="65" spans="1:10" s="52" customFormat="1" ht="66">
+      <c r="A65" s="162"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="109" t="s">
+        <v>333</v>
+      </c>
+      <c r="D65" s="120" t="s">
+        <v>334</v>
+      </c>
+      <c r="E65" s="155" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" s="242"/>
+      <c r="G65" s="242"/>
+      <c r="H65" s="242"/>
+      <c r="I65" s="242"/>
+      <c r="J65" s="243"/>
+    </row>
+    <row r="66" spans="1:10" s="52" customFormat="1">
+      <c r="A66" s="244">
         <v>2</v>
       </c>
-      <c r="B47" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="150" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
-    </row>
-    <row r="48" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="101"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="83"/>
-    </row>
-    <row r="49" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="161" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="162"/>
-      <c r="C49" s="162"/>
-      <c r="D49" s="162"/>
-      <c r="E49" s="162"/>
-      <c r="F49" s="162"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="162"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="163"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-    </row>
-    <row r="50" spans="1:12" s="52" customFormat="1" ht="120" customHeight="1">
-      <c r="A50" s="55">
+      <c r="B66" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="D66" s="98"/>
+      <c r="E66" s="155" t="s">
+        <v>326</v>
+      </c>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="157"/>
+    </row>
+    <row r="67" spans="1:10" s="52" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A67" s="245"/>
+      <c r="B67" s="246"/>
+      <c r="C67" s="99" t="s">
+        <v>336</v>
+      </c>
+      <c r="D67" s="98"/>
+      <c r="E67" s="247" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" s="248"/>
+      <c r="G67" s="248"/>
+      <c r="H67" s="248"/>
+      <c r="I67" s="248"/>
+      <c r="J67" s="249"/>
+    </row>
+    <row r="68" spans="1:10" s="52" customFormat="1" ht="141" customHeight="1">
+      <c r="A68" s="162"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="109" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68" s="98" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" s="171" t="s">
+        <v>347</v>
+      </c>
+      <c r="F68" s="172"/>
+      <c r="G68" s="172"/>
+      <c r="H68" s="172"/>
+      <c r="I68" s="172"/>
+      <c r="J68" s="173"/>
+    </row>
+    <row r="69" spans="1:10" s="52" customFormat="1">
+      <c r="A69" s="235">
+        <v>3</v>
+      </c>
+      <c r="B69" s="163" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="D69" s="121"/>
+      <c r="E69" s="238" t="s">
+        <v>341</v>
+      </c>
+      <c r="F69" s="239"/>
+      <c r="G69" s="239"/>
+      <c r="H69" s="239"/>
+      <c r="I69" s="239"/>
+      <c r="J69" s="240"/>
+    </row>
+    <row r="70" spans="1:10" s="52" customFormat="1" ht="102" customHeight="1">
+      <c r="A70" s="236"/>
+      <c r="B70" s="237"/>
+      <c r="C70" s="109" t="s">
+        <v>342</v>
+      </c>
+      <c r="D70" s="122" t="s">
+        <v>343</v>
+      </c>
+      <c r="E70" s="155" t="s">
+        <v>180</v>
+      </c>
+      <c r="F70" s="134"/>
+      <c r="G70" s="134"/>
+      <c r="H70" s="134"/>
+      <c r="I70" s="134"/>
+      <c r="J70" s="135"/>
+    </row>
+    <row r="71" spans="1:10" s="52" customFormat="1">
+      <c r="A71" s="183"/>
+      <c r="B71" s="202"/>
+      <c r="C71" s="202"/>
+      <c r="D71" s="202"/>
+      <c r="E71" s="202"/>
+      <c r="F71" s="202"/>
+      <c r="G71" s="202"/>
+      <c r="H71" s="202"/>
+      <c r="I71" s="202"/>
+      <c r="J71" s="203"/>
+    </row>
+    <row r="72" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A72" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="167"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="167"/>
+      <c r="E72" s="167"/>
+      <c r="F72" s="167"/>
+      <c r="G72" s="167"/>
+      <c r="H72" s="167"/>
+      <c r="I72" s="167"/>
+      <c r="J72" s="168"/>
+    </row>
+    <row r="73" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="160"/>
+      <c r="D73" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="135"/>
+    </row>
+    <row r="74" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="150"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="169"/>
+      <c r="E74" s="169"/>
+      <c r="F74" s="169"/>
+      <c r="G74" s="169"/>
+      <c r="H74" s="169"/>
+      <c r="I74" s="169"/>
+      <c r="J74" s="170"/>
+    </row>
+    <row r="75" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A75" s="60"/>
+      <c r="B75" s="153"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="155"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="134"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="134"/>
+      <c r="J75" s="135"/>
+    </row>
+    <row r="76" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="60"/>
+      <c r="B76" s="153"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="155"/>
+      <c r="E76" s="134"/>
+      <c r="F76" s="134"/>
+      <c r="G76" s="134"/>
+      <c r="H76" s="134"/>
+      <c r="I76" s="134"/>
+      <c r="J76" s="135"/>
+    </row>
+    <row r="77" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="150"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
+      <c r="E77" s="169"/>
+      <c r="F77" s="169"/>
+      <c r="G77" s="169"/>
+      <c r="H77" s="169"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="170"/>
+    </row>
+    <row r="78" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A78" s="60"/>
+      <c r="B78" s="153"/>
+      <c r="C78" s="154"/>
+      <c r="D78" s="155"/>
+      <c r="E78" s="134"/>
+      <c r="F78" s="134"/>
+      <c r="G78" s="134"/>
+      <c r="H78" s="134"/>
+      <c r="I78" s="134"/>
+      <c r="J78" s="135"/>
+    </row>
+    <row r="79" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A79" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="64"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="66"/>
+    </row>
+    <row r="80" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A80" s="60">
         <v>1</v>
       </c>
-      <c r="B50" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" s="93"/>
-      <c r="E50" s="150" t="s">
-        <v>241</v>
-      </c>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="117"/>
-      <c r="J50" s="117"/>
-    </row>
-    <row r="51" spans="1:12" s="52" customFormat="1" ht="136.5" customHeight="1">
-      <c r="A51" s="63">
+      <c r="B80" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="153"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="134"/>
+      <c r="F80" s="134"/>
+      <c r="G80" s="134"/>
+      <c r="H80" s="134"/>
+      <c r="I80" s="134"/>
+      <c r="J80" s="135"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="60">
         <v>2</v>
       </c>
-      <c r="B51" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="90"/>
-      <c r="E51" s="154" t="s">
-        <v>242</v>
-      </c>
-      <c r="F51" s="155"/>
-      <c r="G51" s="155"/>
-      <c r="H51" s="155"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="156"/>
-    </row>
-    <row r="52" spans="1:12" s="52" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A52" s="65">
+      <c r="B81" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="85" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" s="91"/>
-      <c r="E52" s="137" t="s">
-        <v>238</v>
-      </c>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="122"/>
-    </row>
-    <row r="53" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="148"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="148"/>
-      <c r="E53" s="148"/>
-      <c r="F53" s="148"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="149"/>
-    </row>
-    <row r="54" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="145" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="146"/>
-      <c r="D54" s="137" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="121"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="122"/>
-    </row>
-    <row r="55" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="142"/>
-      <c r="B55" s="215"/>
-      <c r="C55" s="215"/>
-      <c r="D55" s="215"/>
-      <c r="E55" s="215"/>
-      <c r="F55" s="215"/>
-      <c r="G55" s="215"/>
-      <c r="H55" s="215"/>
-      <c r="I55" s="215"/>
-      <c r="J55" s="216"/>
-    </row>
-    <row r="56" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="65"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="121"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="122"/>
-    </row>
-    <row r="57" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="122"/>
-    </row>
-    <row r="58" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="142"/>
-      <c r="B58" s="215"/>
-      <c r="C58" s="215"/>
-      <c r="D58" s="215"/>
-      <c r="E58" s="215"/>
-      <c r="F58" s="215"/>
-      <c r="G58" s="215"/>
-      <c r="H58" s="215"/>
-      <c r="I58" s="215"/>
-      <c r="J58" s="216"/>
-    </row>
-    <row r="59" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="65"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="121"/>
-      <c r="F59" s="121"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="121"/>
-      <c r="I59" s="121"/>
-      <c r="J59" s="122"/>
-    </row>
-    <row r="60" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A60" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="69"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="71"/>
-    </row>
-    <row r="61" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="65">
-        <v>1</v>
-      </c>
-      <c r="B61" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="140"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="121"/>
-      <c r="J61" s="122"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="65">
-        <v>2</v>
-      </c>
-      <c r="B62" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="158"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="158"/>
-      <c r="G62" s="158"/>
-      <c r="H62" s="158"/>
-      <c r="I62" s="158"/>
-      <c r="J62" s="158"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="50"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="50"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="50"/>
+      <c r="C81" s="158"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="158"/>
+      <c r="F81" s="158"/>
+      <c r="G81" s="158"/>
+      <c r="H81" s="158"/>
+      <c r="I81" s="158"/>
+      <c r="J81" s="158"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="C22:J25"/>
+  <mergeCells count="85">
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="F45:J45"/>
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E43:J43"/>
     <mergeCell ref="C37:J37"/>
     <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="K1:K3"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C22:J25"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="C32:J32"/>
     <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C26:J26"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:P64"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:J78"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13875,8 +14854,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="159" t="s">
-        <v>45</v>
+      <c r="K1" s="223" t="s">
+        <v>42</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -13902,7 +14881,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="160"/>
+      <c r="K2" s="224"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -13920,7 +14899,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="160"/>
+      <c r="K3" s="224"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -13964,18 +14943,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="203"/>
+      <c r="A6" s="232" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="234"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -13985,19 +14964,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -14006,10 +14985,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -14042,34 +15021,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="201" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="203"/>
+      <c r="A10" s="232" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -14078,10 +15057,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -14091,90 +15070,90 @@
       <c r="A12" s="40">
         <v>1</v>
       </c>
-      <c r="B12" s="106" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>250</v>
+      <c r="B12" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>190</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="E12" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="G12" s="109" t="s">
-        <v>251</v>
-      </c>
-      <c r="H12" s="106"/>
+        <v>191</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="91"/>
       <c r="I12" s="40" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="40">
         <v>2</v>
       </c>
-      <c r="B13" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>255</v>
+      <c r="B13" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>195</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="107" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="106"/>
+        <v>69</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="91"/>
       <c r="I13" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="J13" s="100" t="s">
-        <v>265</v>
+        <v>198</v>
+      </c>
+      <c r="J13" s="86" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="40">
         <v>3</v>
       </c>
-      <c r="B14" s="106" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>260</v>
+      <c r="B14" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>200</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" s="107" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="109" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="106"/>
+        <v>201</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="91"/>
       <c r="I14" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="J14" s="100" t="s">
-        <v>266</v>
+        <v>198</v>
+      </c>
+      <c r="J14" s="86" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -14182,86 +15161,86 @@
         <v>4</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="223" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="224"/>
+        <v>94</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="279" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="203"/>
       <c r="H15" s="42"/>
       <c r="I15" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="22.5" customHeight="1">
       <c r="A16" s="40">
         <v>5</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="G16" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="H16" s="75"/>
+      <c r="I16" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="95"/>
+      <c r="J16" s="82"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="201" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+      <c r="A18" s="232" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="233"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="234"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="39" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>17</v>
@@ -14270,10 +15249,10 @@
         <v>12</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>0</v>
@@ -14284,27 +15263,27 @@
         <v>1</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>186</v>
+        <v>92</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>139</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="45" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29.25" customHeight="1">
@@ -14312,27 +15291,27 @@
         <v>2</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>179</v>
+        <v>146</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>132</v>
       </c>
       <c r="D21" s="42"/>
-      <c r="E21" s="99" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>109</v>
+      <c r="E21" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>105</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="J21" s="220" t="s">
-        <v>197</v>
+        <v>162</v>
+      </c>
+      <c r="J21" s="252" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33" customHeight="1">
@@ -14340,79 +15319,79 @@
         <v>3</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>180</v>
+        <v>135</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>133</v>
       </c>
       <c r="D22" s="42"/>
-      <c r="E22" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>111</v>
+      <c r="E22" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="72" t="s">
+        <v>107</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="J22" s="221"/>
+        <v>162</v>
+      </c>
+      <c r="J22" s="277"/>
     </row>
     <row r="23" spans="1:10" ht="33.75" customHeight="1">
       <c r="A23" s="45">
         <v>4</v>
       </c>
-      <c r="B23" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>181</v>
+      <c r="B23" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>134</v>
       </c>
       <c r="D23" s="42"/>
-      <c r="E23" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="77" t="s">
-        <v>195</v>
+      <c r="E23" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>148</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="J23" s="222"/>
+        <v>162</v>
+      </c>
+      <c r="J23" s="278"/>
     </row>
     <row r="24" spans="1:10" ht="82.5">
       <c r="A24" s="45">
         <v>5</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="72" t="s">
         <v>112</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>116</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="J24" s="100" t="s">
-        <v>216</v>
+        <v>162</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
